--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6ADCE5-7A77-4BC8-BB49-A45FBBF2EB4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F8BE61-EA89-4A3A-A577-6B53077D6CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" firstSheet="1" activeTab="14" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Career PATH" sheetId="1" r:id="rId1"/>
@@ -3248,8 +3248,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,10 +4241,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0C1A6-B2EA-4EC5-8484-E684C8F3E18B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5150,15 +5150,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024D76020AE708242B68336FA618CBCDF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d53f460e102142885dbc8938524af06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df3f84f5-0dce-435a-abac-67420900ba59" xmlns:ns4="c8965576-7528-46e3-a68d-d4bc5141fdaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51dd3132ab51039a0b8a02bab29c14ac" ns3:_="" ns4:_="">
     <xsd:import namespace="df3f84f5-0dce-435a-abac-67420900ba59"/>
@@ -5381,6 +5372,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5388,14 +5388,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC42E61D-1BC2-43F5-95E9-ABDA8B3BC8C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5410,6 +5402,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -1,40 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F8BE61-EA89-4A3A-A577-6B53077D6CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA7420B-A6E7-4660-BF30-8563F24B0D27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" firstSheet="1" activeTab="14" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Career PATH" sheetId="1" r:id="rId1"/>
-    <sheet name="UI Architecture" sheetId="33" r:id="rId2"/>
-    <sheet name="JAVA" sheetId="8" r:id="rId3"/>
-    <sheet name="NODE" sheetId="7" r:id="rId4"/>
-    <sheet name="Python" sheetId="14" r:id="rId5"/>
-    <sheet name="Oracle_Apex" sheetId="15" r:id="rId6"/>
-    <sheet name="Oracle" sheetId="11" r:id="rId7"/>
-    <sheet name="mySQL" sheetId="12" r:id="rId8"/>
-    <sheet name="JavaScript" sheetId="5" r:id="rId9"/>
-    <sheet name="GIT" sheetId="10" r:id="rId10"/>
-    <sheet name="Understanding_DevOps" sheetId="16" r:id="rId11"/>
-    <sheet name="React" sheetId="13" r:id="rId12"/>
-    <sheet name="CSS" sheetId="4" r:id="rId13"/>
-    <sheet name="HTML" sheetId="2" r:id="rId14"/>
-    <sheet name="Angular" sheetId="9" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId16"/>
-    <sheet name="API_Promise" sheetId="18" r:id="rId17"/>
-    <sheet name="API_Promise2" sheetId="19" r:id="rId18"/>
-    <sheet name="API+Observables" sheetId="20" r:id="rId19"/>
+    <sheet name="Career PATH_New" sheetId="35" r:id="rId1"/>
+    <sheet name="Career PATH" sheetId="1" r:id="rId2"/>
+    <sheet name="Professional Scrum" sheetId="34" r:id="rId3"/>
+    <sheet name="Scrum Master" sheetId="33" r:id="rId4"/>
+    <sheet name="JAVA" sheetId="8" r:id="rId5"/>
+    <sheet name="NODE" sheetId="7" r:id="rId6"/>
+    <sheet name="Python" sheetId="14" r:id="rId7"/>
+    <sheet name="Oracle_Apex" sheetId="15" r:id="rId8"/>
+    <sheet name="Oracle" sheetId="11" r:id="rId9"/>
+    <sheet name="mySQL" sheetId="12" r:id="rId10"/>
+    <sheet name="JavaScript" sheetId="5" r:id="rId11"/>
+    <sheet name="GIT" sheetId="10" r:id="rId12"/>
+    <sheet name="Understanding_DevOps" sheetId="16" r:id="rId13"/>
+    <sheet name="React" sheetId="13" r:id="rId14"/>
+    <sheet name="CSS" sheetId="4" r:id="rId15"/>
+    <sheet name="HTML" sheetId="2" r:id="rId16"/>
+    <sheet name="Angular" sheetId="9" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId18"/>
+    <sheet name="API_Promise" sheetId="18" r:id="rId19"/>
+    <sheet name="API_Promise2" sheetId="19" r:id="rId20"/>
+    <sheet name="API+Observables" sheetId="20" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Career PATH_New'!$A$3:$H$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="208">
   <si>
     <t>SR#</t>
   </si>
@@ -2241,6 +2244,27 @@
   </si>
   <si>
     <t>UI Architecture</t>
+  </si>
+  <si>
+    <t>Scrum Framework</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/paths/skills/the-scrum-framework</t>
+  </si>
+  <si>
+    <t>Scrum Master: https://app.pluralsight.com/paths/skills/the-scrum-framework</t>
+  </si>
+  <si>
+    <t>Introduction to Professional Scrum</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/paths/skills/introduction-to-professional-scrum</t>
+  </si>
+  <si>
+    <t>End to End Testing with Cypress</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/codemash-session-01/table-of-contents</t>
   </si>
 </sst>
 </file>
@@ -2485,7 +2509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2687,6 +2711,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3242,6 +3281,1495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DD9AF8-082C-4A8A-B3AE-AF46DCC68640}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="39" style="20" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>3</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>5</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
+        <v>1</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="24"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="24"/>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="24"/>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="24"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:H20" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A27:H27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{27A6CB59-A826-4E9D-A404-1E6CC0FFCC9E}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{D285E2CE-31B5-44B1-A04A-A9152D104B2C}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{1D0A9AAC-FC60-4A0C-BF1B-429F98BFBC13}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{B3EA6DB0-8D3D-4402-B788-E6D11606F0C2}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{07F21C94-E305-46A3-B2BC-1ABCB9139AC5}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{FA93A347-2A0B-4561-A4F9-54FBC743C313}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{B09785B5-CC8B-4862-8F5D-7A3BE90945FA}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{1A0CDC41-F082-422E-9D34-1052D7425167}"/>
+    <hyperlink ref="B19" location="HTML!A1" display="HTML" xr:uid="{04F2C601-D41C-41DF-BB28-814D32C67482}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{1AF4606C-AE95-4BE2-AB1E-1B9033A8B448}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{C98E047B-06C9-4ED4-BA14-8F28A4826EF0}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{724D9E13-D5F3-45AB-A8A6-F626B677F9C6}"/>
+    <hyperlink ref="B6" location="JavaScript!A1" display="JavaScript Path" xr:uid="{570D0166-7D68-4A46-80EC-3B0E13597B03}"/>
+    <hyperlink ref="B18" location="CSS!A1" display="CSS Path" xr:uid="{174ED7E9-2828-460D-85F4-E7B4EB5E0EF1}"/>
+    <hyperlink ref="B8" location="NODE!A1" display="Node Path: Working with Node.js" xr:uid="{934419F1-98EC-4FAC-AEF7-7C3428BD1361}"/>
+    <hyperlink ref="B7" location="JAVA!A1" display="Java Path" xr:uid="{F6C8447A-68BB-4DAE-BA10-12327E641851}"/>
+    <hyperlink ref="B4" location="Angular!A1" display="Angular Path" xr:uid="{807705DC-D889-498E-9FCE-6748242DEDFA}"/>
+    <hyperlink ref="B15" location="GIT!A1" display="GIT Path : Managing Source Code with Git" xr:uid="{78C82B13-55BF-4A2E-912C-4109A844267C}"/>
+    <hyperlink ref="B12" location="Oracle!A1" display="Oracle" xr:uid="{0365AAF3-89CD-4346-A6D6-D2AD6FA60392}"/>
+    <hyperlink ref="B11" location="mySQL!A1" display="mySQL" xr:uid="{FF64FA15-D92F-4640-910B-F0847F18A1F6}"/>
+    <hyperlink ref="B17" location="React!A1" display="React path" xr:uid="{BA7D66AC-FBCD-46A6-832B-20A3EAB22B1B}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{0AF98188-5C6D-4B95-9B46-7D92E4036190}"/>
+    <hyperlink ref="B9" location="Python!A1" display="Python Path" xr:uid="{9A20957A-ECA8-46D3-9322-58CAECB4DF5F}"/>
+    <hyperlink ref="C10" r:id="rId13" xr:uid="{9BCA941E-4197-452E-9EAD-22D6AD68B17B}"/>
+    <hyperlink ref="B10" location="Oracle_Apex!A1" display="Oracle APEX" xr:uid="{D0058443-A884-45BC-BE4A-674ED0473A57}"/>
+    <hyperlink ref="B16" location="Understanding_DevOps!A1" display="Understanding DevOps [Jenkins CI/CD]" xr:uid="{9ECC36C5-B86D-47BD-8234-8F23DA14849D}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{A21C8089-CCF6-4DE7-BD38-061FEDB6F4FA}"/>
+    <hyperlink ref="B20" location="'UI Architecture'!A1" display="UI Architecture" xr:uid="{1D90C572-0584-47B2-9682-B1C12A6FA414}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{EEA7CAD4-5E90-4C59-A71F-B641FB75241C}"/>
+    <hyperlink ref="B21" location="'Scrum Master'!A1" display="Scrum Framework" xr:uid="{46163F81-9396-4C0C-BF39-29A9AE5D0A9A}"/>
+    <hyperlink ref="C22" r:id="rId16" xr:uid="{843DCE90-BFAC-4B3E-8E1E-9285673AAAA5}"/>
+    <hyperlink ref="B22" location="'Professional Scrum'!A1" display="Introduction to Professional Scrum" xr:uid="{3414B9DA-2364-4D11-9DD8-7459D1C5FC58}"/>
+    <hyperlink ref="C5" r:id="rId17" xr:uid="{07035312-F938-47F5-9C1B-09FD16F8785D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6538CA4A-D841-48B5-87FD-DBB4645DC6A3}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{E24D082F-65BA-4F5C-BAB7-0599305D0FF8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA157C68-6EB3-4779-91CE-4005608DD947}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{FEB0B8AC-E899-4404-99C4-C73641227134}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27645D63-80B6-4CC9-9DF9-3EC673CAFE41}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{98A3AB38-E903-4B3C-88B3-6A5C5BC702D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B2914-37AB-487B-B6E7-416C38CF27C7}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{09ECF932-C23A-44CD-8179-FF32CD837195}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D65EB-A89E-42AB-9829-0D129960DFD3}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{4BA727F5-8C8F-464B-91D2-FD6D9F2A896F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC9DC54-2F87-41CA-B048-C3AF3C22C7C1}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{7C4ABC16-6947-4C5D-ABBE-56F581C7C54B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B9012-BBC9-4C0D-A9EB-8BF65ACEAE9A}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="40"/>
+    <col min="2" max="3" width="19.140625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="28" style="35" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D9" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="D12" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="D13" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="D14" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="D15" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="D18" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="C19" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D23" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D26" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="D27" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C28" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E29" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="E30" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E31" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="D32" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{A0B3118C-57C0-462F-9A14-B28973E6A144}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0C1A6-B2EA-4EC5-8484-E684C8F3E18B}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="59"/>
+    <col min="2" max="2" width="41.42578125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="55" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="59">
+        <v>1</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="D9" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="D10" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="D11" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="D14" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="C16" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D18" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="D19" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="D20" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D21" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="D22" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="E23" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C25" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{48B2311E-C92A-45B3-8C52-8F1CD3A62F14}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0624A-E488-4F43-A83F-9652CAB5AAD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C00811-F6B3-4257-85C9-1B55DCD46308}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB7C02-07A8-4D5B-B7A9-996091B89DD9}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -3249,7 +4777,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,13 +5012,27 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="24"/>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="24"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
@@ -3620,924 +5162,17 @@
     <hyperlink ref="B13" location="Understanding_DevOps!A1" display="Understanding DevOps [Jenkins CI/CD]" xr:uid="{4DD60EA1-7E35-4161-8A6E-382DD256E589}"/>
     <hyperlink ref="C17" r:id="rId14" xr:uid="{D2A3E277-9FE0-48D8-BA95-827DBC236E38}"/>
     <hyperlink ref="B17" location="'UI Architecture'!A1" display="UI Architecture" xr:uid="{7240D223-15FC-45EE-9E3A-9B8908130345}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{095E8D3B-1363-488A-8B7C-617A45686604}"/>
+    <hyperlink ref="B18" location="'Scrum Master'!A1" display="Scrum Framework" xr:uid="{886D537C-A45A-404C-BB05-10F0E27873C1}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{2310128F-5B6E-4D76-916B-4F9216A64190}"/>
+    <hyperlink ref="B19" location="'Professional Scrum'!A1" display="Introduction to Professional Scrum" xr:uid="{B412A61E-A6A3-430D-8A36-914377A0A709}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27645D63-80B6-4CC9-9DF9-3EC673CAFE41}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{98A3AB38-E903-4B3C-88B3-6A5C5BC702D7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B2914-37AB-487B-B6E7-416C38CF27C7}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{09ECF932-C23A-44CD-8179-FF32CD837195}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D65EB-A89E-42AB-9829-0D129960DFD3}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{4BA727F5-8C8F-464B-91D2-FD6D9F2A896F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC9DC54-2F87-41CA-B048-C3AF3C22C7C1}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{7C4ABC16-6947-4C5D-ABBE-56F581C7C54B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B9012-BBC9-4C0D-A9EB-8BF65ACEAE9A}">
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="40"/>
-    <col min="2" max="3" width="19.140625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="65.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="28" style="35" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
-        <v>1</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="D9" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D11" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="D12" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="D13" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="D14" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D15" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="D18" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="D23" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C25" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D26" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="D27" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="E29" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="E30" s="36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="E31" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="D32" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{A0B3118C-57C0-462F-9A14-B28973E6A144}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0C1A6-B2EA-4EC5-8484-E684C8F3E18B}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="59"/>
-    <col min="2" max="2" width="41.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="55" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
-        <v>1</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="B6" s="61"/>
-      <c r="C6" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="D9" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D10" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="D11" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="D14" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="C16" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D18" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="D19" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="D21" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="D22" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="E23" s="52" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C25" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{48B2311E-C92A-45B3-8C52-8F1CD3A62F14}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0624A-E488-4F43-A83F-9652CAB5AAD3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C00811-F6B3-4257-85C9-1B55DCD46308}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3239CF-6342-4294-A04F-B9BB3AB32E10}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4551,7 +5186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCADFB6-2B39-4345-B261-07B732A46DA7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4567,24 +5202,147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8600B75A-1ED1-437D-9B1E-4EB6353449BE}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4382FB-CCDB-4DE4-9683-3A8D07D3F404}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{506261BB-1887-4269-878D-19C280DF4387}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8600B75A-1ED1-437D-9B1E-4EB6353449BE}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{CB8EDE69-F642-47A0-955A-62F71D60EEEB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA77D0AC-A7B6-4319-A90C-CAC41021F832}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4650,7 +5408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09BD98-79D8-450C-972D-16EC9C4FC717}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -4799,7 +5557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBA4A8B-062F-4280-B637-4D3543B7B63A}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -4869,7 +5627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC297CD3-0B1F-4BB7-8CC6-619A9FF0CD07}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -4939,7 +5697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FCCAF4-6438-4808-B747-7037D39019AA}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -5003,146 +5761,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{8DEDA224-60F6-4096-98B1-F0878FA4FCE6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6538CA4A-D841-48B5-87FD-DBB4645DC6A3}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{E24D082F-65BA-4F5C-BAB7-0599305D0FF8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA157C68-6EB3-4779-91CE-4005608DD947}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{FEB0B8AC-E899-4404-99C4-C73641227134}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA7420B-A6E7-4660-BF30-8563F24B0D27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687B2AFC-B395-4013-A59E-152667407863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Career PATH_New" sheetId="35" r:id="rId1"/>
+    <sheet name="Career PATH_Improved" sheetId="35" r:id="rId1"/>
     <sheet name="Career PATH" sheetId="1" r:id="rId2"/>
     <sheet name="Professional Scrum" sheetId="34" r:id="rId3"/>
     <sheet name="Scrum Master" sheetId="33" r:id="rId4"/>
@@ -37,7 +37,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Career PATH_New'!$A$3:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Career PATH_Improved'!$A$3:$H$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="217">
   <si>
     <t>SR#</t>
   </si>
@@ -2265,6 +2265,36 @@
   </si>
   <si>
     <t>https://app.pluralsight.com/library/courses/codemash-session-01/table-of-contents</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/cypress-end-to-end-javascript-testing/recommended-courses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cypress: End-to-end JavaScript Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Automated Testing All the Things with Cypress</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/js-friends-session-02/table-of-contents</t>
+  </si>
+  <si>
+    <t>Automated Testing: End to End</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/automated-testing-end-to-end/table-of-contents</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/developer-to-architect/table-of-contents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Developer to Architect</t>
+  </si>
+  <si>
+    <t>https://codedamn.com/learning-paths/fullstack</t>
   </si>
 </sst>
 </file>
@@ -2425,7 +2455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2480,6 +2510,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2509,7 +2545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2691,6 +2727,30 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2711,21 +2771,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3285,17 +3330,17 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="39" style="20" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" style="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="68" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
@@ -3304,35 +3349,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="66" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3364,10 +3409,10 @@
       <c r="D4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -3382,339 +3427,403 @@
       <c r="D5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>3</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>4</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>17</v>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="70" t="s">
+        <v>212</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="74" t="s">
-        <v>52</v>
+        <v>213</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>5</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>56</v>
+      <c r="E9" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>39</v>
       </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>5</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D15" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="22" t="s">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C16" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D16" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="22" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C19" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D19" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="23" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C20" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D20" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="22" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C21" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D21" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="33" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C22" s="67" t="s">
         <v>8</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
-        <v>1</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>205</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="24"/>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="45">
+        <v>1</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="24"/>
-      <c r="D24" s="30"/>
+      <c r="B24" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="24"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="24"/>
-      <c r="D26" s="30"/>
+      <c r="B26" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="24"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="A28" s="15"/>
+      <c r="B28" s="24"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B29" s="24"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A30" s="15"/>
+      <c r="B30" s="24"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A31" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H20" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
+  <autoFilter ref="A3:H24" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A31:H31"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C18" r:id="rId1" xr:uid="{27A6CB59-A826-4E9D-A404-1E6CC0FFCC9E}"/>
-    <hyperlink ref="C19" r:id="rId2" xr:uid="{D285E2CE-31B5-44B1-A04A-A9152D104B2C}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{1D0A9AAC-FC60-4A0C-BF1B-429F98BFBC13}"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{27A6CB59-A826-4E9D-A404-1E6CC0FFCC9E}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{D285E2CE-31B5-44B1-A04A-A9152D104B2C}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{1D0A9AAC-FC60-4A0C-BF1B-429F98BFBC13}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{B3EA6DB0-8D3D-4402-B788-E6D11606F0C2}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{07F21C94-E305-46A3-B2BC-1ABCB9139AC5}"/>
-    <hyperlink ref="C17" r:id="rId6" xr:uid="{FA93A347-2A0B-4561-A4F9-54FBC743C313}"/>
-    <hyperlink ref="C15" r:id="rId7" xr:uid="{B09785B5-CC8B-4862-8F5D-7A3BE90945FA}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{1A0CDC41-F082-422E-9D34-1052D7425167}"/>
-    <hyperlink ref="B19" location="HTML!A1" display="HTML" xr:uid="{04F2C601-D41C-41DF-BB28-814D32C67482}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{1AF4606C-AE95-4BE2-AB1E-1B9033A8B448}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{C98E047B-06C9-4ED4-BA14-8F28A4826EF0}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{724D9E13-D5F3-45AB-A8A6-F626B677F9C6}"/>
-    <hyperlink ref="B6" location="JavaScript!A1" display="JavaScript Path" xr:uid="{570D0166-7D68-4A46-80EC-3B0E13597B03}"/>
-    <hyperlink ref="B18" location="CSS!A1" display="CSS Path" xr:uid="{174ED7E9-2828-460D-85F4-E7B4EB5E0EF1}"/>
-    <hyperlink ref="B8" location="NODE!A1" display="Node Path: Working with Node.js" xr:uid="{934419F1-98EC-4FAC-AEF7-7C3428BD1361}"/>
-    <hyperlink ref="B7" location="JAVA!A1" display="Java Path" xr:uid="{F6C8447A-68BB-4DAE-BA10-12327E641851}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{07F21C94-E305-46A3-B2BC-1ABCB9139AC5}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{FA93A347-2A0B-4561-A4F9-54FBC743C313}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{B09785B5-CC8B-4862-8F5D-7A3BE90945FA}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{1A0CDC41-F082-422E-9D34-1052D7425167}"/>
+    <hyperlink ref="B23" location="HTML!A1" display="HTML" xr:uid="{04F2C601-D41C-41DF-BB28-814D32C67482}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{1AF4606C-AE95-4BE2-AB1E-1B9033A8B448}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{C98E047B-06C9-4ED4-BA14-8F28A4826EF0}"/>
+    <hyperlink ref="C16" r:id="rId11" xr:uid="{724D9E13-D5F3-45AB-A8A6-F626B677F9C6}"/>
+    <hyperlink ref="B10" location="JavaScript!A1" display="JavaScript Path" xr:uid="{570D0166-7D68-4A46-80EC-3B0E13597B03}"/>
+    <hyperlink ref="B22" location="CSS!A1" display="CSS Path" xr:uid="{174ED7E9-2828-460D-85F4-E7B4EB5E0EF1}"/>
+    <hyperlink ref="B12" location="NODE!A1" display="Node Path: Working with Node.js" xr:uid="{934419F1-98EC-4FAC-AEF7-7C3428BD1361}"/>
+    <hyperlink ref="B11" location="JAVA!A1" display="Java Path" xr:uid="{F6C8447A-68BB-4DAE-BA10-12327E641851}"/>
     <hyperlink ref="B4" location="Angular!A1" display="Angular Path" xr:uid="{807705DC-D889-498E-9FCE-6748242DEDFA}"/>
-    <hyperlink ref="B15" location="GIT!A1" display="GIT Path : Managing Source Code with Git" xr:uid="{78C82B13-55BF-4A2E-912C-4109A844267C}"/>
-    <hyperlink ref="B12" location="Oracle!A1" display="Oracle" xr:uid="{0365AAF3-89CD-4346-A6D6-D2AD6FA60392}"/>
-    <hyperlink ref="B11" location="mySQL!A1" display="mySQL" xr:uid="{FF64FA15-D92F-4640-910B-F0847F18A1F6}"/>
-    <hyperlink ref="B17" location="React!A1" display="React path" xr:uid="{BA7D66AC-FBCD-46A6-832B-20A3EAB22B1B}"/>
-    <hyperlink ref="C9" r:id="rId12" xr:uid="{0AF98188-5C6D-4B95-9B46-7D92E4036190}"/>
-    <hyperlink ref="B9" location="Python!A1" display="Python Path" xr:uid="{9A20957A-ECA8-46D3-9322-58CAECB4DF5F}"/>
-    <hyperlink ref="C10" r:id="rId13" xr:uid="{9BCA941E-4197-452E-9EAD-22D6AD68B17B}"/>
-    <hyperlink ref="B10" location="Oracle_Apex!A1" display="Oracle APEX" xr:uid="{D0058443-A884-45BC-BE4A-674ED0473A57}"/>
-    <hyperlink ref="B16" location="Understanding_DevOps!A1" display="Understanding DevOps [Jenkins CI/CD]" xr:uid="{9ECC36C5-B86D-47BD-8234-8F23DA14849D}"/>
-    <hyperlink ref="C20" r:id="rId14" xr:uid="{A21C8089-CCF6-4DE7-BD38-061FEDB6F4FA}"/>
-    <hyperlink ref="B20" location="'UI Architecture'!A1" display="UI Architecture" xr:uid="{1D90C572-0584-47B2-9682-B1C12A6FA414}"/>
-    <hyperlink ref="C21" r:id="rId15" xr:uid="{EEA7CAD4-5E90-4C59-A71F-B641FB75241C}"/>
-    <hyperlink ref="B21" location="'Scrum Master'!A1" display="Scrum Framework" xr:uid="{46163F81-9396-4C0C-BF39-29A9AE5D0A9A}"/>
-    <hyperlink ref="C22" r:id="rId16" xr:uid="{843DCE90-BFAC-4B3E-8E1E-9285673AAAA5}"/>
-    <hyperlink ref="B22" location="'Professional Scrum'!A1" display="Introduction to Professional Scrum" xr:uid="{3414B9DA-2364-4D11-9DD8-7459D1C5FC58}"/>
+    <hyperlink ref="B19" location="GIT!A1" display="GIT Path : Managing Source Code with Git" xr:uid="{78C82B13-55BF-4A2E-912C-4109A844267C}"/>
+    <hyperlink ref="B16" location="Oracle!A1" display="Oracle" xr:uid="{0365AAF3-89CD-4346-A6D6-D2AD6FA60392}"/>
+    <hyperlink ref="B15" location="mySQL!A1" display="mySQL" xr:uid="{FF64FA15-D92F-4640-910B-F0847F18A1F6}"/>
+    <hyperlink ref="B21" location="React!A1" display="React path" xr:uid="{BA7D66AC-FBCD-46A6-832B-20A3EAB22B1B}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{0AF98188-5C6D-4B95-9B46-7D92E4036190}"/>
+    <hyperlink ref="B13" location="Python!A1" display="Python Path" xr:uid="{9A20957A-ECA8-46D3-9322-58CAECB4DF5F}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{9BCA941E-4197-452E-9EAD-22D6AD68B17B}"/>
+    <hyperlink ref="B14" location="Oracle_Apex!A1" display="Oracle APEX" xr:uid="{D0058443-A884-45BC-BE4A-674ED0473A57}"/>
+    <hyperlink ref="B20" location="Understanding_DevOps!A1" display="Understanding DevOps [Jenkins CI/CD]" xr:uid="{9ECC36C5-B86D-47BD-8234-8F23DA14849D}"/>
+    <hyperlink ref="C24" r:id="rId14" xr:uid="{A21C8089-CCF6-4DE7-BD38-061FEDB6F4FA}"/>
+    <hyperlink ref="B24" location="'UI Architecture'!A1" display="UI Architecture" xr:uid="{1D90C572-0584-47B2-9682-B1C12A6FA414}"/>
+    <hyperlink ref="C25" r:id="rId15" xr:uid="{EEA7CAD4-5E90-4C59-A71F-B641FB75241C}"/>
+    <hyperlink ref="B25" location="'Scrum Master'!A1" display="Scrum Framework" xr:uid="{46163F81-9396-4C0C-BF39-29A9AE5D0A9A}"/>
+    <hyperlink ref="C26" r:id="rId16" xr:uid="{843DCE90-BFAC-4B3E-8E1E-9285673AAAA5}"/>
+    <hyperlink ref="B26" location="'Professional Scrum'!A1" display="Introduction to Professional Scrum" xr:uid="{3414B9DA-2364-4D11-9DD8-7459D1C5FC58}"/>
     <hyperlink ref="C5" r:id="rId17" xr:uid="{07035312-F938-47F5-9C1B-09FD16F8785D}"/>
+    <hyperlink ref="C6" r:id="rId18" xr:uid="{B618894D-13D8-4D74-AC21-E78B1007251C}"/>
+    <hyperlink ref="C7" r:id="rId19" xr:uid="{6ABE18E5-17E3-43E0-9C21-2A8D6A7E85FB}"/>
+    <hyperlink ref="C8" r:id="rId20" xr:uid="{B9E5E285-66D9-4C08-BA1E-C21A37C23BD7}"/>
+    <hyperlink ref="E9" r:id="rId21" xr:uid="{B61A0FBF-0638-4233-90E0-B1D44DE7D1B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -3739,14 +3848,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3809,14 +3918,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3881,14 +3990,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3951,14 +4060,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4021,14 +4130,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4091,14 +4200,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4162,12 +4271,12 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
@@ -4194,11 +4303,11 @@
       <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="51" t="s">
         <v>150</v>
       </c>
@@ -4494,12 +4603,12 @@
       <c r="A1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4525,11 +4634,11 @@
       <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="60" t="s">
         <v>151</v>
       </c>
@@ -4606,11 +4715,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="60" t="s">
         <v>151</v>
       </c>
@@ -4793,28 +4902,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -5055,16 +5164,16 @@
       <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -5220,14 +5329,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5287,14 +5396,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5359,14 +5468,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5429,13 +5538,13 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5578,14 +5687,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5648,14 +5757,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5718,14 +5827,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687B2AFC-B395-4013-A59E-152667407863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFC18F0-7F1D-4CD1-8287-870833B58886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" activeTab="2" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Career PATH_Improved" sheetId="35" r:id="rId1"/>
     <sheet name="Career PATH" sheetId="1" r:id="rId2"/>
-    <sheet name="Professional Scrum" sheetId="34" r:id="rId3"/>
+    <sheet name="Developer to Architect" sheetId="34" r:id="rId3"/>
     <sheet name="Scrum Master" sheetId="33" r:id="rId4"/>
     <sheet name="JAVA" sheetId="8" r:id="rId5"/>
     <sheet name="NODE" sheetId="7" r:id="rId6"/>
@@ -37,7 +37,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Career PATH_Improved'!$A$3:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Career PATH_Improved'!$A$3:$H$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="243">
   <si>
     <t>SR#</t>
   </si>
@@ -2296,12 +2296,91 @@
   <si>
     <t>https://codedamn.com/learning-paths/fullstack</t>
   </si>
+  <si>
+    <t>Scalled Agile</t>
+  </si>
+  <si>
+    <t>Suggested</t>
+  </si>
+  <si>
+    <t>Cypress &amp; e2e Training</t>
+  </si>
+  <si>
+    <t>Progress / Certifications</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>25 Days</t>
+  </si>
+  <si>
+    <t>32 Days</t>
+  </si>
+  <si>
+    <t>Assessment / Exam
+Status</t>
+  </si>
+  <si>
+    <t>2h 41m</t>
+  </si>
+  <si>
+    <t>In  Progress…</t>
+  </si>
+  <si>
+    <t>Scrum Master:https://app.pluralsight.com/library/courses/developer-to-architect/</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/course-player?clipId=1e1834d5-5ee4-4fd0-9d72-2e33b56ff7e6</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Noted Points</t>
+  </si>
+  <si>
+    <t>The Software Architect's Role in the Enterprise</t>
+  </si>
+  <si>
+    <t>Learning Topic / Topic Agenda</t>
+  </si>
+  <si>
+    <t>Who and  what of Software Architecture?</t>
+  </si>
+  <si>
+    <t>Who a Software Architect is?</t>
+  </si>
+  <si>
+    <t>What the role entails</t>
+  </si>
+  <si>
+    <t>Skills, knowledge &amp; Duties</t>
+  </si>
+  <si>
+    <t>Discuss each pahse of the project Life Cycle</t>
+  </si>
+  <si>
+    <t>What effective architect do in each phase?</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Design Process</t>
+  </si>
+  <si>
+    <t>How to effective communicate your designs?</t>
+  </si>
+  <si>
+    <t>Practical as possible</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2454,8 +2533,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2516,8 +2602,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2540,12 +2644,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2727,50 +2905,180 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3330,500 +3638,544 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="39" style="20" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="115"/>
+      <c r="B2" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="H3" s="118" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="79" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="91">
+        <v>2</v>
+      </c>
+      <c r="B5" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C5" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D5" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="110">
+        <v>3</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="108">
+        <v>3.1</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="77"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="108">
+        <v>3.2</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="77"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="108">
+        <v>3.3</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="77"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="109">
+        <v>3.4</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="78">
+        <v>4</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="78">
+        <v>5</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="78">
+        <v>6</v>
+      </c>
+      <c r="B13" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="78">
+        <v>7</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="81">
+        <v>8</v>
+      </c>
+      <c r="B15" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="81">
+        <v>9</v>
+      </c>
+      <c r="B16" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="78">
+        <v>10</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="81">
+        <v>11</v>
+      </c>
+      <c r="B18" s="105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="81">
+        <v>12</v>
+      </c>
+      <c r="B19" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="81">
+        <v>13</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="81">
+        <v>14</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="81">
+        <v>15</v>
+      </c>
+      <c r="B22" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="86">
+        <v>1</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="86">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="72" t="s">
+      <c r="B26" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
+      <c r="B27" s="21"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="B28" s="21"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>3</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>4</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>5</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
-        <v>1</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="64" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="24"/>
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="24"/>
-      <c r="D28" s="30"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="24"/>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="24"/>
-      <c r="D30" s="30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H24" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A31:H31"/>
+  <autoFilter ref="A3:H23" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
+  <mergeCells count="4">
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{27A6CB59-A826-4E9D-A404-1E6CC0FFCC9E}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{D285E2CE-31B5-44B1-A04A-A9152D104B2C}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{1D0A9AAC-FC60-4A0C-BF1B-429F98BFBC13}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{B3EA6DB0-8D3D-4402-B788-E6D11606F0C2}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{07F21C94-E305-46A3-B2BC-1ABCB9139AC5}"/>
-    <hyperlink ref="C21" r:id="rId6" xr:uid="{FA93A347-2A0B-4561-A4F9-54FBC743C313}"/>
-    <hyperlink ref="C19" r:id="rId7" xr:uid="{B09785B5-CC8B-4862-8F5D-7A3BE90945FA}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{1A0CDC41-F082-422E-9D34-1052D7425167}"/>
-    <hyperlink ref="B23" location="HTML!A1" display="HTML" xr:uid="{04F2C601-D41C-41DF-BB28-814D32C67482}"/>
-    <hyperlink ref="C20" r:id="rId9" xr:uid="{1AF4606C-AE95-4BE2-AB1E-1B9033A8B448}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{C98E047B-06C9-4ED4-BA14-8F28A4826EF0}"/>
-    <hyperlink ref="C16" r:id="rId11" xr:uid="{724D9E13-D5F3-45AB-A8A6-F626B677F9C6}"/>
-    <hyperlink ref="B10" location="JavaScript!A1" display="JavaScript Path" xr:uid="{570D0166-7D68-4A46-80EC-3B0E13597B03}"/>
-    <hyperlink ref="B22" location="CSS!A1" display="CSS Path" xr:uid="{174ED7E9-2828-460D-85F4-E7B4EB5E0EF1}"/>
-    <hyperlink ref="B12" location="NODE!A1" display="Node Path: Working with Node.js" xr:uid="{934419F1-98EC-4FAC-AEF7-7C3428BD1361}"/>
-    <hyperlink ref="B11" location="JAVA!A1" display="Java Path" xr:uid="{F6C8447A-68BB-4DAE-BA10-12327E641851}"/>
-    <hyperlink ref="B4" location="Angular!A1" display="Angular Path" xr:uid="{807705DC-D889-498E-9FCE-6748242DEDFA}"/>
-    <hyperlink ref="B19" location="GIT!A1" display="GIT Path : Managing Source Code with Git" xr:uid="{78C82B13-55BF-4A2E-912C-4109A844267C}"/>
-    <hyperlink ref="B16" location="Oracle!A1" display="Oracle" xr:uid="{0365AAF3-89CD-4346-A6D6-D2AD6FA60392}"/>
-    <hyperlink ref="B15" location="mySQL!A1" display="mySQL" xr:uid="{FF64FA15-D92F-4640-910B-F0847F18A1F6}"/>
-    <hyperlink ref="B21" location="React!A1" display="React path" xr:uid="{BA7D66AC-FBCD-46A6-832B-20A3EAB22B1B}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{0AF98188-5C6D-4B95-9B46-7D92E4036190}"/>
-    <hyperlink ref="B13" location="Python!A1" display="Python Path" xr:uid="{9A20957A-ECA8-46D3-9322-58CAECB4DF5F}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{9BCA941E-4197-452E-9EAD-22D6AD68B17B}"/>
-    <hyperlink ref="B14" location="Oracle_Apex!A1" display="Oracle APEX" xr:uid="{D0058443-A884-45BC-BE4A-674ED0473A57}"/>
-    <hyperlink ref="B20" location="Understanding_DevOps!A1" display="Understanding DevOps [Jenkins CI/CD]" xr:uid="{9ECC36C5-B86D-47BD-8234-8F23DA14849D}"/>
-    <hyperlink ref="C24" r:id="rId14" xr:uid="{A21C8089-CCF6-4DE7-BD38-061FEDB6F4FA}"/>
-    <hyperlink ref="B24" location="'UI Architecture'!A1" display="UI Architecture" xr:uid="{1D90C572-0584-47B2-9682-B1C12A6FA414}"/>
-    <hyperlink ref="C25" r:id="rId15" xr:uid="{EEA7CAD4-5E90-4C59-A71F-B641FB75241C}"/>
-    <hyperlink ref="B25" location="'Scrum Master'!A1" display="Scrum Framework" xr:uid="{46163F81-9396-4C0C-BF39-29A9AE5D0A9A}"/>
-    <hyperlink ref="C26" r:id="rId16" xr:uid="{843DCE90-BFAC-4B3E-8E1E-9285673AAAA5}"/>
-    <hyperlink ref="B26" location="'Professional Scrum'!A1" display="Introduction to Professional Scrum" xr:uid="{3414B9DA-2364-4D11-9DD8-7459D1C5FC58}"/>
-    <hyperlink ref="C5" r:id="rId17" xr:uid="{07035312-F938-47F5-9C1B-09FD16F8785D}"/>
-    <hyperlink ref="C6" r:id="rId18" xr:uid="{B618894D-13D8-4D74-AC21-E78B1007251C}"/>
-    <hyperlink ref="C7" r:id="rId19" xr:uid="{6ABE18E5-17E3-43E0-9C21-2A8D6A7E85FB}"/>
-    <hyperlink ref="C8" r:id="rId20" xr:uid="{B9E5E285-66D9-4C08-BA1E-C21A37C23BD7}"/>
-    <hyperlink ref="E9" r:id="rId21" xr:uid="{B61A0FBF-0638-4233-90E0-B1D44DE7D1B2}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{27A6CB59-A826-4E9D-A404-1E6CC0FFCC9E}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{D285E2CE-31B5-44B1-A04A-A9152D104B2C}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{1D0A9AAC-FC60-4A0C-BF1B-429F98BFBC13}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{B3EA6DB0-8D3D-4402-B788-E6D11606F0C2}"/>
+    <hyperlink ref="C21" r:id="rId5" xr:uid="{07F21C94-E305-46A3-B2BC-1ABCB9139AC5}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{FA93A347-2A0B-4561-A4F9-54FBC743C313}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{B09785B5-CC8B-4862-8F5D-7A3BE90945FA}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{1A0CDC41-F082-422E-9D34-1052D7425167}"/>
+    <hyperlink ref="B13" location="HTML!A1" display="HTML" xr:uid="{04F2C601-D41C-41DF-BB28-814D32C67482}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{1AF4606C-AE95-4BE2-AB1E-1B9033A8B448}"/>
+    <hyperlink ref="C19" r:id="rId10" xr:uid="{C98E047B-06C9-4ED4-BA14-8F28A4826EF0}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{724D9E13-D5F3-45AB-A8A6-F626B677F9C6}"/>
+    <hyperlink ref="B11" location="JavaScript!A1" display="JavaScript Path" xr:uid="{570D0166-7D68-4A46-80EC-3B0E13597B03}"/>
+    <hyperlink ref="B12" location="CSS!A1" display="CSS Path" xr:uid="{174ED7E9-2828-460D-85F4-E7B4EB5E0EF1}"/>
+    <hyperlink ref="B14" location="NODE!A1" display="Node Path: Working with Node.js" xr:uid="{934419F1-98EC-4FAC-AEF7-7C3428BD1361}"/>
+    <hyperlink ref="B21" location="JAVA!A1" display="Java Path" xr:uid="{F6C8447A-68BB-4DAE-BA10-12327E641851}"/>
+    <hyperlink ref="B5" location="Angular!A1" display="Angular Path" xr:uid="{807705DC-D889-498E-9FCE-6748242DEDFA}"/>
+    <hyperlink ref="B16" location="GIT!A1" display="GIT Path : Managing Source Code with Git" xr:uid="{78C82B13-55BF-4A2E-912C-4109A844267C}"/>
+    <hyperlink ref="B20" location="Oracle!A1" display="Oracle" xr:uid="{0365AAF3-89CD-4346-A6D6-D2AD6FA60392}"/>
+    <hyperlink ref="B19" location="mySQL!A1" display="mySQL" xr:uid="{FF64FA15-D92F-4640-910B-F0847F18A1F6}"/>
+    <hyperlink ref="B18" location="React!A1" display="React path" xr:uid="{BA7D66AC-FBCD-46A6-832B-20A3EAB22B1B}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{0AF98188-5C6D-4B95-9B46-7D92E4036190}"/>
+    <hyperlink ref="B15" location="Python!A1" display="Python Path" xr:uid="{9A20957A-ECA8-46D3-9322-58CAECB4DF5F}"/>
+    <hyperlink ref="B17" location="Understanding_DevOps!A1" display="Understanding DevOps [Jenkins CI/CD]" xr:uid="{9ECC36C5-B86D-47BD-8234-8F23DA14849D}"/>
+    <hyperlink ref="C22" r:id="rId13" xr:uid="{A21C8089-CCF6-4DE7-BD38-061FEDB6F4FA}"/>
+    <hyperlink ref="B22" location="'UI Architecture'!A1" display="UI Architecture" xr:uid="{1D90C572-0584-47B2-9682-B1C12A6FA414}"/>
+    <hyperlink ref="C7" r:id="rId14" xr:uid="{07035312-F938-47F5-9C1B-09FD16F8785D}"/>
+    <hyperlink ref="C8" r:id="rId15" xr:uid="{B618894D-13D8-4D74-AC21-E78B1007251C}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{6ABE18E5-17E3-43E0-9C21-2A8D6A7E85FB}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{B9E5E285-66D9-4C08-BA1E-C21A37C23BD7}"/>
+    <hyperlink ref="C30" r:id="rId18" xr:uid="{4553CB84-4594-416F-AC8B-3554ADC3CBE4}"/>
+    <hyperlink ref="B4" location="'Developer to Architect'!A1" display="'Developer to Architect'!A1" xr:uid="{574E9307-217A-460F-964F-ABD7F56F0C7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -3848,14 +4200,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3918,14 +4270,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -3990,14 +4342,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4060,14 +4412,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4130,14 +4482,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4200,14 +4552,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4271,12 +4623,12 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
@@ -4303,11 +4655,11 @@
       <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="51" t="s">
         <v>150</v>
       </c>
@@ -4603,12 +4955,12 @@
       <c r="A1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
       <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4634,11 +4986,11 @@
       <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="60" t="s">
         <v>151</v>
       </c>
@@ -4715,11 +5067,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="60" t="s">
         <v>151</v>
       </c>
@@ -4886,7 +5238,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4902,28 +5254,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -5164,16 +5516,16 @@
       <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -5313,68 +5665,150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4382FB-CCDB-4DE4-9683-3A8D07D3F404}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-    </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B1" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="125"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>64</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="92">
+        <v>1</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="124">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B4" s="123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="124"/>
+      <c r="B5" s="121" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="124"/>
+      <c r="B6" s="121" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="124"/>
+      <c r="B7" s="121" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="124">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="124"/>
+      <c r="B9" s="121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="124"/>
+      <c r="B10" s="121" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="124">
+        <v>1.3</v>
+      </c>
+      <c r="B11" s="123" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="124"/>
+      <c r="B12" s="121" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="124"/>
+      <c r="B13" s="121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="124">
+        <v>1.4</v>
+      </c>
+      <c r="B14" s="123" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{506261BB-1887-4269-878D-19C280DF4387}"/>
+    <hyperlink ref="A1" location="'Career PATH_Improved'!A1" display="&lt;&lt; Back" xr:uid="{506261BB-1887-4269-878D-19C280DF4387}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{52138891-A47A-4043-BDDF-D8D7E9377014}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5396,14 +5830,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5468,14 +5902,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5538,13 +5972,13 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -5687,14 +6121,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5757,14 +6191,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5827,14 +6261,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5877,6 +6311,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024D76020AE708242B68336FA618CBCDF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d53f460e102142885dbc8938524af06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df3f84f5-0dce-435a-abac-67420900ba59" xmlns:ns4="c8965576-7528-46e3-a68d-d4bc5141fdaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51dd3132ab51039a0b8a02bab29c14ac" ns3:_="" ns4:_="">
     <xsd:import namespace="df3f84f5-0dce-435a-abac-67420900ba59"/>
@@ -6099,22 +6548,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
+    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC42E61D-1BC2-43F5-95E9-ABDA8B3BC8C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6131,29 +6590,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
-    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFC18F0-7F1D-4CD1-8287-870833B58886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67399C4D-9211-4E79-9EB5-AA8213A82AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" activeTab="2" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="933" activeTab="2" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Career PATH_Improved" sheetId="35" r:id="rId1"/>
@@ -5671,7 +5671,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACEF22F-9D13-4B78-A093-CF58B5B64A33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4BAAE5-5DD5-40B3-8375-AD0EDD26F9E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" activeTab="3" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="476">
   <si>
     <t>SR#</t>
   </si>
@@ -7990,9 +7990,6 @@
       </rPr>
       <t>?</t>
     </r>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -20027,67 +20024,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>674</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>674</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="205" name="Picture 204">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4887A6DA-9B1B-4A47-89FE-5F01F179609B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="129797175"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>679</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -20178,67 +20114,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>681</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>681</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="208" name="Picture 207">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F04A70-14CD-424F-B88D-5427D01E94DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="131140200"/>
-          <a:ext cx="152400" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -23189,8 +23064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA30601C-745F-4897-9A38-C5CE8E1BD080}">
   <dimension ref="A1:A689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="A678" sqref="A678:A683"/>
+    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="A670" sqref="A670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26099,17 +25974,13 @@
       <c r="A671" s="128"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="129" t="s">
-        <v>245</v>
-      </c>
+      <c r="A672" s="129"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" s="129"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="129" t="s">
-        <v>367</v>
-      </c>
+      <c r="A674" s="129"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675" s="129"/>
@@ -26125,30 +25996,22 @@
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="128" t="s">
-        <v>476</v>
-      </c>
+      <c r="A678" s="128"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="129" t="s">
-        <v>245</v>
-      </c>
+      <c r="A679" s="129"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" s="129"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="129" t="s">
-        <v>367</v>
-      </c>
+      <c r="A681" s="129"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682" s="129"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="126" t="s">
-        <v>260</v>
-      </c>
+      <c r="A683" s="126"/>
     </row>
     <row r="684" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A684" s="127" t="s">
@@ -26159,17 +26022,13 @@
       <c r="A685" s="128"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="129" t="s">
-        <v>245</v>
-      </c>
+      <c r="A686" s="129"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" s="129"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="129" t="s">
-        <v>425</v>
-      </c>
+      <c r="A688" s="129"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" s="129"/>

--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,37 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4BAAE5-5DD5-40B3-8375-AD0EDD26F9E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90387BBA-C9C2-489C-879D-E63B93D69211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" activeTab="3" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Career PATH_Improved" sheetId="35" r:id="rId1"/>
-    <sheet name="Career PATH" sheetId="1" r:id="rId2"/>
-    <sheet name="Developer to Architect" sheetId="34" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="36" r:id="rId4"/>
-    <sheet name="Scrum Master" sheetId="33" r:id="rId5"/>
-    <sheet name="JAVA" sheetId="8" r:id="rId6"/>
-    <sheet name="NODE" sheetId="7" r:id="rId7"/>
-    <sheet name="Python" sheetId="14" r:id="rId8"/>
-    <sheet name="Oracle_Apex" sheetId="15" r:id="rId9"/>
-    <sheet name="Oracle" sheetId="11" r:id="rId10"/>
-    <sheet name="mySQL" sheetId="12" r:id="rId11"/>
-    <sheet name="JavaScript" sheetId="5" r:id="rId12"/>
-    <sheet name="GIT" sheetId="10" r:id="rId13"/>
-    <sheet name="Understanding_DevOps" sheetId="16" r:id="rId14"/>
-    <sheet name="React" sheetId="13" r:id="rId15"/>
-    <sheet name="CSS" sheetId="4" r:id="rId16"/>
-    <sheet name="HTML" sheetId="2" r:id="rId17"/>
-    <sheet name="Angular" sheetId="9" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId19"/>
-    <sheet name="API_Promise" sheetId="18" r:id="rId20"/>
-    <sheet name="API_Promise2" sheetId="19" r:id="rId21"/>
-    <sheet name="API+Observables" sheetId="20" r:id="rId22"/>
+    <sheet name="Track_Hours_For_Cypress" sheetId="37" r:id="rId1"/>
+    <sheet name="Career PATH_Improved" sheetId="35" r:id="rId2"/>
+    <sheet name="Career PATH" sheetId="1" r:id="rId3"/>
+    <sheet name="Developer to Architect" sheetId="34" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="36" r:id="rId5"/>
+    <sheet name="Scrum Master" sheetId="33" r:id="rId6"/>
+    <sheet name="JAVA" sheetId="8" r:id="rId7"/>
+    <sheet name="NODE" sheetId="7" r:id="rId8"/>
+    <sheet name="Python" sheetId="14" r:id="rId9"/>
+    <sheet name="Oracle_Apex" sheetId="15" r:id="rId10"/>
+    <sheet name="Oracle" sheetId="11" r:id="rId11"/>
+    <sheet name="mySQL" sheetId="12" r:id="rId12"/>
+    <sheet name="JavaScript" sheetId="5" r:id="rId13"/>
+    <sheet name="GIT" sheetId="10" r:id="rId14"/>
+    <sheet name="Understanding_DevOps" sheetId="16" r:id="rId15"/>
+    <sheet name="React" sheetId="13" r:id="rId16"/>
+    <sheet name="CSS" sheetId="4" r:id="rId17"/>
+    <sheet name="HTML" sheetId="2" r:id="rId18"/>
+    <sheet name="Angular" sheetId="9" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId20"/>
+    <sheet name="API_Promise" sheetId="18" r:id="rId21"/>
+    <sheet name="API_Promise2" sheetId="19" r:id="rId22"/>
+    <sheet name="API+Observables" sheetId="20" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Career PATH_Improved'!$A$3:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH_Improved'!$A$3:$H$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="498">
   <si>
     <t>SR#</t>
   </si>
@@ -7990,6 +7991,72 @@
       </rPr>
       <t>?</t>
     </r>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Time Spents</t>
+  </si>
+  <si>
+    <t>Time [From - To]</t>
+  </si>
+  <si>
+    <t>4 Hours</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>8am - 12pm</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>7am - 9am</t>
+  </si>
+  <si>
+    <t>2 Hours</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>7am - 9.45am</t>
+  </si>
+  <si>
+    <t>2.45 Hours</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>6.55am - 9.01am</t>
+  </si>
+  <si>
+    <t>2.06 Hours</t>
+  </si>
+  <si>
+    <t>December '21</t>
   </si>
 </sst>
 </file>
@@ -8225,12 +8292,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF24292E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFE83E8C"/>
       <name val="Consolas"/>
@@ -8248,8 +8309,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8325,6 +8392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8431,7 +8504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8749,45 +8822,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -8833,12 +8867,62 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20812,6 +20896,1487 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973E51C-FF21-4EFD-BEE8-1E89830C0A93}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="144" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="145" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="146" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="146" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="147" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="146" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C3" s="143">
+        <v>44541</v>
+      </c>
+      <c r="D3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="143">
+        <v>44543</v>
+      </c>
+      <c r="D5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" s="143">
+        <v>44544</v>
+      </c>
+      <c r="D6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" s="143">
+        <v>44545</v>
+      </c>
+      <c r="D7" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C8" s="143">
+        <v>44546</v>
+      </c>
+      <c r="D8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" s="143">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="143">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" s="143">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" s="143">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C13" s="143">
+        <v>44551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="143">
+        <v>44552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" s="143">
+        <v>44553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>494</v>
+      </c>
+      <c r="C16" s="143">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C17" s="143">
+        <v>44555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>492</v>
+      </c>
+      <c r="C18" s="143">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C19" s="143">
+        <v>44557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C20" s="143">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" s="143">
+        <v>44559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="143">
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C23" s="143">
+        <v>44561</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="33" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC297CD3-0B1F-4BB7-8CC6-619A9FF0CD07}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{F5B0D608-23F4-46BB-B0AE-250A36C285EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FCCAF4-6438-4808-B747-7037D39019AA}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{8DEDA224-60F6-4096-98B1-F0878FA4FCE6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6538CA4A-D841-48B5-87FD-DBB4645DC6A3}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{E24D082F-65BA-4F5C-BAB7-0599305D0FF8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA157C68-6EB3-4779-91CE-4005608DD947}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{FEB0B8AC-E899-4404-99C4-C73641227134}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27645D63-80B6-4CC9-9DF9-3EC673CAFE41}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{98A3AB38-E903-4B3C-88B3-6A5C5BC702D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B2914-37AB-487B-B6E7-416C38CF27C7}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{09ECF932-C23A-44CD-8179-FF32CD837195}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D65EB-A89E-42AB-9829-0D129960DFD3}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{4BA727F5-8C8F-464B-91D2-FD6D9F2A896F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC9DC54-2F87-41CA-B048-C3AF3C22C7C1}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{7C4ABC16-6947-4C5D-ABBE-56F581C7C54B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B9012-BBC9-4C0D-A9EB-8BF65ACEAE9A}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="40"/>
+    <col min="2" max="3" width="19.140625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="28" style="35" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="35" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="D9" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="D12" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="D13" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="D14" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="D15" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="D18" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="C19" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D23" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D26" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="D27" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C28" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E29" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="E30" s="36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E31" s="36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="D32" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{A0B3118C-57C0-462F-9A14-B28973E6A144}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0C1A6-B2EA-4EC5-8484-E684C8F3E18B}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="59"/>
+    <col min="2" max="2" width="41.42578125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="55" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="55"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="142" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="54"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="59">
+        <v>1</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="D9" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="D10" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="D11" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="141" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="B13" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="D14" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="C16" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D18" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="D19" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="D20" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D21" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="D22" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="E23" s="52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C25" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{48B2311E-C92A-45B3-8C52-8F1CD3A62F14}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DD9AF8-082C-4A8A-B3AE-AF46DCC68640}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -20839,27 +22404,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="102"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="103"/>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
@@ -20937,7 +22502,7 @@
         <v>219</v>
       </c>
       <c r="C6" s="88"/>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="131" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="76"/>
@@ -20955,7 +22520,7 @@
       <c r="C7" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="114"/>
+      <c r="D7" s="131"/>
       <c r="E7" s="76"/>
       <c r="F7" s="76"/>
       <c r="G7" s="76"/>
@@ -20971,7 +22536,7 @@
       <c r="C8" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="114"/>
+      <c r="D8" s="131"/>
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
       <c r="G8" s="76"/>
@@ -20987,7 +22552,7 @@
       <c r="C9" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="114"/>
+      <c r="D9" s="131"/>
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
@@ -21003,7 +22568,7 @@
       <c r="C10" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="114"/>
+      <c r="D10" s="131"/>
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
       <c r="G10" s="76"/>
@@ -21226,16 +22791,16 @@
       <c r="H22" s="87"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="77">
@@ -21357,1098 +22922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FCCAF4-6438-4808-B747-7037D39019AA}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{8DEDA224-60F6-4096-98B1-F0878FA4FCE6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6538CA4A-D841-48B5-87FD-DBB4645DC6A3}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="121" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{E24D082F-65BA-4F5C-BAB7-0599305D0FF8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA157C68-6EB3-4779-91CE-4005608DD947}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{FEB0B8AC-E899-4404-99C4-C73641227134}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27645D63-80B6-4CC9-9DF9-3EC673CAFE41}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{98A3AB38-E903-4B3C-88B3-6A5C5BC702D7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B2914-37AB-487B-B6E7-416C38CF27C7}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="121" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{09ECF932-C23A-44CD-8179-FF32CD837195}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D65EB-A89E-42AB-9829-0D129960DFD3}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="121" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{4BA727F5-8C8F-464B-91D2-FD6D9F2A896F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC9DC54-2F87-41CA-B048-C3AF3C22C7C1}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="121" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{7C4ABC16-6947-4C5D-ABBE-56F581C7C54B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B9012-BBC9-4C0D-A9EB-8BF65ACEAE9A}">
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="40"/>
-    <col min="2" max="3" width="19.140625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="65.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="28" style="35" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="122" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
-        <v>1</v>
-      </c>
-      <c r="B3" s="123" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
-        <v>2</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="D9" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D11" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="D12" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="D13" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="D14" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D15" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="D18" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="D23" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C25" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D26" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="D27" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="E29" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="E30" s="36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="E31" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="D32" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{A0B3118C-57C0-462F-9A14-B28973E6A144}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0C1A6-B2EA-4EC5-8484-E684C8F3E18B}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="59"/>
-    <col min="2" max="2" width="41.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="55" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="55"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
-        <v>1</v>
-      </c>
-      <c r="B3" s="124" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="52"/>
-    </row>
-    <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="B6" s="61"/>
-      <c r="C6" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="D9" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D10" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="D11" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="D14" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="C16" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D18" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="D19" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="D21" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="D22" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="E23" s="52" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C25" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{48B2311E-C92A-45B3-8C52-8F1CD3A62F14}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0624A-E488-4F43-A83F-9652CAB5AAD3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -22462,7 +22936,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C00811-F6B3-4257-85C9-1B55DCD46308}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3239CF-6342-4294-A04F-B9BB3AB32E10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCADFB6-2B39-4345-B261-07B732A46DA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB7C02-07A8-4D5B-B7A9-996091B89DD9}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -22486,28 +23006,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -22748,16 +23268,16 @@
       <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -22865,53 +23385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C00811-F6B3-4257-85C9-1B55DCD46308}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3239CF-6342-4294-A04F-B9BB3AB32E10}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCADFB6-2B39-4345-B261-07B732A46DA7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4382FB-CCDB-4DE4-9683-3A8D07D3F404}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -22935,10 +23409,10 @@
       <c r="A1" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="138" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="121"/>
+      <c r="C1" s="138"/>
       <c r="D1" s="107"/>
       <c r="E1" s="112"/>
     </row>
@@ -23060,11 +23534,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA30601C-745F-4897-9A38-C5CE8E1BD080}">
   <dimension ref="A1:A689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
+    <sheetView topLeftCell="A668" workbookViewId="0">
       <selection activeCell="A670" sqref="A670"/>
     </sheetView>
   </sheetViews>
@@ -23074,2964 +23548,2964 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="119" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="120" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
+      <c r="A3" s="121"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="123" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
+      <c r="A6" s="123"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="119" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="120" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
+      <c r="A9" s="121"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="123" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
+      <c r="A12" s="123"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="119" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="120" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
+      <c r="A15" s="121"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
+      <c r="A18" s="123"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="119" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="120" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
+      <c r="A21" s="121"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="135" t="s">
+      <c r="A22" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="136" t="s">
+      <c r="A23" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="136"/>
+      <c r="A24" s="123"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="119" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="133" t="s">
+      <c r="A26" s="120" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
+      <c r="A27" s="121"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="135" t="s">
+      <c r="A28" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
+      <c r="A30" s="123"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="119" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="133" t="s">
+      <c r="A32" s="120" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
+      <c r="A33" s="121"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="135" t="s">
+      <c r="A34" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="136" t="s">
+      <c r="A35" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="136"/>
+      <c r="A36" s="123"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="132" t="s">
+      <c r="A37" s="119" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="133" t="s">
+      <c r="A38" s="120" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="134"/>
+      <c r="A39" s="121"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="135" t="s">
+      <c r="A40" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="136" t="s">
+      <c r="A41" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
+      <c r="A42" s="123"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="132" t="s">
+      <c r="A43" s="119" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="120" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134"/>
+      <c r="A45" s="121"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="135" t="s">
+      <c r="A46" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="136"/>
+      <c r="A48" s="123"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="132" t="s">
+      <c r="A49" s="119" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="133" t="s">
+      <c r="A50" s="120" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="134"/>
+      <c r="A51" s="121"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="135" t="s">
+      <c r="A52" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="136" t="s">
+      <c r="A53" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="136"/>
+      <c r="A54" s="123"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="132" t="s">
+      <c r="A55" s="119" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="120" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="134"/>
+      <c r="A57" s="121"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="135" t="s">
+      <c r="A58" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="136" t="s">
+      <c r="A59" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="136"/>
+      <c r="A60" s="123"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="132" t="s">
+      <c r="A61" s="119" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="120" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="134"/>
+      <c r="A63" s="121"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="135" t="s">
+      <c r="A64" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="136" t="s">
+      <c r="A65" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="136"/>
+      <c r="A66" s="123"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="132" t="s">
+      <c r="A67" s="119" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="133" t="s">
+      <c r="A68" s="120" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="134"/>
+      <c r="A69" s="121"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="135" t="s">
+      <c r="A70" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="136" t="s">
+      <c r="A71" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="136"/>
+      <c r="A72" s="123"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="132" t="s">
+      <c r="A73" s="119" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="133" t="s">
+      <c r="A74" s="120" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="134"/>
+      <c r="A75" s="121"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="135" t="s">
+      <c r="A76" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="136" t="s">
+      <c r="A77" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="136"/>
+      <c r="A78" s="123"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="132" t="s">
+      <c r="A79" s="119" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="133" t="s">
+      <c r="A80" s="120" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="134"/>
+      <c r="A81" s="121"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="135" t="s">
+      <c r="A82" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="136" t="s">
+      <c r="A83" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="136"/>
+      <c r="A84" s="123"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="132" t="s">
+      <c r="A85" s="119" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="133" t="s">
+      <c r="A86" s="120" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="134"/>
+      <c r="A87" s="121"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="135" t="s">
+      <c r="A88" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="136" t="s">
+      <c r="A89" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="136"/>
+      <c r="A90" s="123"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="132" t="s">
+      <c r="A91" s="119" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="133" t="s">
+      <c r="A92" s="120" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="134"/>
+      <c r="A93" s="121"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="135" t="s">
+      <c r="A94" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="136" t="s">
+      <c r="A95" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="136"/>
+      <c r="A96" s="123"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="132" t="s">
+      <c r="A97" s="119" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="133" t="s">
+      <c r="A98" s="120" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="134"/>
+      <c r="A99" s="121"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="135" t="s">
+      <c r="A100" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="136" t="s">
+      <c r="A101" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="136"/>
+      <c r="A102" s="123"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="132" t="s">
+      <c r="A103" s="119" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="133" t="s">
+      <c r="A104" s="120" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="134"/>
+      <c r="A105" s="121"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="135" t="s">
+      <c r="A106" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="136" t="s">
+      <c r="A107" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="136"/>
+      <c r="A108" s="123"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="132" t="s">
+      <c r="A109" s="119" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="133" t="s">
+      <c r="A110" s="120" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="134"/>
+      <c r="A111" s="121"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="135" t="s">
+      <c r="A112" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="136" t="s">
+      <c r="A113" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="136"/>
+      <c r="A114" s="123"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="132" t="s">
+      <c r="A115" s="119" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="133" t="s">
+      <c r="A116" s="120" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="134"/>
+      <c r="A117" s="121"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="135" t="s">
+      <c r="A118" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="136" t="s">
+      <c r="A119" s="123" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="136"/>
+      <c r="A120" s="123"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="132" t="s">
+      <c r="A121" s="119" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="133" t="s">
+      <c r="A122" s="120" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="134"/>
+      <c r="A123" s="121"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="135" t="s">
+      <c r="A124" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="135" t="s">
+      <c r="A125" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="135"/>
+      <c r="A126" s="122"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="132" t="s">
+      <c r="A127" s="119" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="133" t="s">
+      <c r="A128" s="120" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="134"/>
+      <c r="A129" s="121"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="135" t="s">
+      <c r="A130" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="135" t="s">
+      <c r="A131" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="135"/>
+      <c r="A132" s="122"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="132" t="s">
+      <c r="A133" s="119" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="133" t="s">
+      <c r="A134" s="120" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="134"/>
+      <c r="A135" s="121"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="135" t="s">
+      <c r="A136" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="135" t="s">
+      <c r="A137" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="135"/>
+      <c r="A138" s="122"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="132" t="s">
+      <c r="A139" s="119" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="133" t="s">
+      <c r="A140" s="120" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="134"/>
+      <c r="A141" s="121"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="135" t="s">
+      <c r="A142" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="135" t="s">
+      <c r="A143" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="135"/>
+      <c r="A144" s="122"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="132" t="s">
+      <c r="A145" s="119" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="133" t="s">
+      <c r="A146" s="120" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="134"/>
+      <c r="A147" s="121"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="135" t="s">
+      <c r="A148" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="135" t="s">
+      <c r="A149" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="135"/>
+      <c r="A150" s="122"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="132" t="s">
+      <c r="A151" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="133" t="s">
+      <c r="A152" s="120" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="134"/>
+      <c r="A153" s="121"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="135" t="s">
+      <c r="A154" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="135" t="s">
+      <c r="A155" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="135"/>
+      <c r="A156" s="122"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="132" t="s">
+      <c r="A157" s="119" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="133" t="s">
+      <c r="A158" s="120" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="134"/>
+      <c r="A159" s="121"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="135" t="s">
+      <c r="A160" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="135" t="s">
+      <c r="A161" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="135"/>
+      <c r="A162" s="122"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="132" t="s">
+      <c r="A163" s="119" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="133" t="s">
+      <c r="A164" s="120" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="134"/>
+      <c r="A165" s="121"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="135" t="s">
+      <c r="A166" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="135" t="s">
+      <c r="A167" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="135"/>
+      <c r="A168" s="122"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="132" t="s">
+      <c r="A169" s="119" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="133" t="s">
+      <c r="A170" s="120" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="134"/>
+      <c r="A171" s="121"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="135" t="s">
+      <c r="A172" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="135" t="s">
+      <c r="A173" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="135"/>
+      <c r="A174" s="122"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="132" t="s">
+      <c r="A175" s="119" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="133" t="s">
+      <c r="A176" s="120" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="134"/>
+      <c r="A177" s="121"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="135" t="s">
+      <c r="A178" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="135" t="s">
+      <c r="A179" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="135"/>
+      <c r="A180" s="122"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="132" t="s">
+      <c r="A181" s="119" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="133" t="s">
+      <c r="A182" s="120" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="134"/>
+      <c r="A183" s="121"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="135" t="s">
+      <c r="A184" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="135" t="s">
+      <c r="A185" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="135"/>
+      <c r="A186" s="122"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="132" t="s">
+      <c r="A187" s="119" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="133" t="s">
+      <c r="A188" s="120" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="134"/>
+      <c r="A189" s="121"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="135" t="s">
+      <c r="A190" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="135" t="s">
+      <c r="A191" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="135"/>
+      <c r="A192" s="122"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="132" t="s">
+      <c r="A193" s="119" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="133" t="s">
+      <c r="A194" s="120" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="134"/>
+      <c r="A195" s="121"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="135" t="s">
+      <c r="A196" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="135" t="s">
+      <c r="A197" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="135"/>
+      <c r="A198" s="122"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="132" t="s">
+      <c r="A199" s="119" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="133" t="s">
+      <c r="A200" s="120" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="134"/>
+      <c r="A201" s="121"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="135" t="s">
+      <c r="A202" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="135" t="s">
+      <c r="A203" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="135"/>
+      <c r="A204" s="122"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="132" t="s">
+      <c r="A205" s="119" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="133" t="s">
+      <c r="A206" s="120" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="134"/>
+      <c r="A207" s="121"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="135" t="s">
+      <c r="A208" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="135" t="s">
+      <c r="A209" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="135"/>
+      <c r="A210" s="122"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="132" t="s">
+      <c r="A211" s="119" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="133" t="s">
+      <c r="A212" s="120" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="134"/>
+      <c r="A213" s="121"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="135" t="s">
+      <c r="A214" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="135" t="s">
+      <c r="A215" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="135"/>
+      <c r="A216" s="122"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="132" t="s">
+      <c r="A217" s="119" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="133" t="s">
+      <c r="A218" s="120" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="134"/>
+      <c r="A219" s="121"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="135" t="s">
+      <c r="A220" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="135" t="s">
+      <c r="A221" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="135"/>
+      <c r="A222" s="122"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="132" t="s">
+      <c r="A223" s="119" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="133" t="s">
+      <c r="A224" s="120" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="134"/>
+      <c r="A225" s="121"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="135" t="s">
+      <c r="A226" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="135" t="s">
+      <c r="A227" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="135"/>
+      <c r="A228" s="122"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="132" t="s">
+      <c r="A229" s="119" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="133" t="s">
+      <c r="A230" s="120" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="134"/>
+      <c r="A231" s="121"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="135" t="s">
+      <c r="A232" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="135" t="s">
+      <c r="A233" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="135"/>
+      <c r="A234" s="122"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="132" t="s">
+      <c r="A235" s="119" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="133" t="s">
+      <c r="A236" s="120" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="134"/>
+      <c r="A237" s="121"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="135" t="s">
+      <c r="A238" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="135" t="s">
+      <c r="A239" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="135"/>
+      <c r="A240" s="122"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="132" t="s">
+      <c r="A241" s="119" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="133" t="s">
+      <c r="A242" s="120" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="134"/>
+      <c r="A243" s="121"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="135" t="s">
+      <c r="A244" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="135" t="s">
+      <c r="A245" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="135"/>
+      <c r="A246" s="122"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="132" t="s">
+      <c r="A247" s="119" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="133" t="s">
+      <c r="A248" s="120" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="134"/>
+      <c r="A249" s="121"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="135" t="s">
+      <c r="A250" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="135" t="s">
+      <c r="A251" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="135"/>
+      <c r="A252" s="122"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="132" t="s">
+      <c r="A253" s="119" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="133" t="s">
+      <c r="A254" s="120" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="134"/>
+      <c r="A255" s="121"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="135" t="s">
+      <c r="A256" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="135" t="s">
+      <c r="A257" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="135"/>
+      <c r="A258" s="122"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="132" t="s">
+      <c r="A259" s="119" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="133" t="s">
+      <c r="A260" s="120" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="134"/>
+      <c r="A261" s="121"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="135" t="s">
+      <c r="A262" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="135" t="s">
+      <c r="A263" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="135"/>
+      <c r="A264" s="122"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="132" t="s">
+      <c r="A265" s="119" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="133" t="s">
+      <c r="A266" s="120" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="134"/>
+      <c r="A267" s="121"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="135" t="s">
+      <c r="A268" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="135" t="s">
+      <c r="A269" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="135"/>
+      <c r="A270" s="122"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="132" t="s">
+      <c r="A271" s="119" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="133" t="s">
+      <c r="A272" s="120" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="134"/>
+      <c r="A273" s="121"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="135" t="s">
+      <c r="A274" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="135" t="s">
+      <c r="A275" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="135"/>
+      <c r="A276" s="122"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="132" t="s">
+      <c r="A277" s="119" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="133" t="s">
+      <c r="A278" s="120" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="134"/>
+      <c r="A279" s="121"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="135" t="s">
+      <c r="A280" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="135" t="s">
+      <c r="A281" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="135"/>
+      <c r="A282" s="122"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="132" t="s">
+      <c r="A283" s="119" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="133" t="s">
+      <c r="A284" s="120" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="134"/>
+      <c r="A285" s="121"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="135" t="s">
+      <c r="A286" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="135" t="s">
+      <c r="A287" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="135"/>
+      <c r="A288" s="122"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="132" t="s">
+      <c r="A289" s="119" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A290" s="133" t="s">
+      <c r="A290" s="120" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="134"/>
+      <c r="A291" s="121"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="135" t="s">
+      <c r="A292" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="135" t="s">
+      <c r="A293" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="135"/>
+      <c r="A294" s="122"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="132" t="s">
+      <c r="A295" s="119" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="133" t="s">
+      <c r="A296" s="120" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="134"/>
+      <c r="A297" s="121"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="135" t="s">
+      <c r="A298" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="135" t="s">
+      <c r="A299" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="135"/>
+      <c r="A300" s="122"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="132" t="s">
+      <c r="A301" s="119" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A302" s="133" t="s">
+      <c r="A302" s="120" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="134"/>
+      <c r="A303" s="121"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="135" t="s">
+      <c r="A304" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="135" t="s">
+      <c r="A305" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="135"/>
+      <c r="A306" s="122"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="132" t="s">
+      <c r="A307" s="119" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A308" s="133" t="s">
+      <c r="A308" s="120" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="134"/>
+      <c r="A309" s="121"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="135" t="s">
+      <c r="A310" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="135" t="s">
+      <c r="A311" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="135"/>
+      <c r="A312" s="122"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="132" t="s">
+      <c r="A313" s="119" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A314" s="133" t="s">
+      <c r="A314" s="120" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="134"/>
+      <c r="A315" s="121"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="135" t="s">
+      <c r="A316" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="135" t="s">
+      <c r="A317" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="135"/>
+      <c r="A318" s="122"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="132" t="s">
+      <c r="A319" s="119" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="133" t="s">
+      <c r="A320" s="120" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="134"/>
+      <c r="A321" s="121"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="135" t="s">
+      <c r="A322" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="135" t="s">
+      <c r="A323" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="135"/>
+      <c r="A324" s="122"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="132" t="s">
+      <c r="A325" s="119" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="133" t="s">
+      <c r="A326" s="120" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="134"/>
+      <c r="A327" s="121"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="135" t="s">
+      <c r="A328" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="135" t="s">
+      <c r="A329" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="135"/>
+      <c r="A330" s="122"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="132" t="s">
+      <c r="A331" s="119" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="133" t="s">
+      <c r="A332" s="120" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="134"/>
+      <c r="A333" s="121"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="135" t="s">
+      <c r="A334" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="135" t="s">
+      <c r="A335" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="135"/>
+      <c r="A336" s="122"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="132" t="s">
+      <c r="A337" s="119" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A338" s="133" t="s">
+      <c r="A338" s="120" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="134"/>
+      <c r="A339" s="121"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="135" t="s">
+      <c r="A340" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="135" t="s">
+      <c r="A341" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="135"/>
+      <c r="A342" s="122"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="132" t="s">
+      <c r="A343" s="119" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A344" s="133" t="s">
+      <c r="A344" s="120" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="134"/>
+      <c r="A345" s="121"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="135" t="s">
+      <c r="A346" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="135" t="s">
+      <c r="A347" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="135"/>
+      <c r="A348" s="122"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="132" t="s">
+      <c r="A349" s="119" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A350" s="133" t="s">
+      <c r="A350" s="120" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="134"/>
+      <c r="A351" s="121"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="135" t="s">
+      <c r="A352" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="135" t="s">
+      <c r="A353" s="122" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="135"/>
+      <c r="A354" s="122"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="132" t="s">
+      <c r="A355" s="119" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="133" t="s">
+      <c r="A356" s="120" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="134"/>
+      <c r="A357" s="121"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="135" t="s">
+      <c r="A358" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="135" t="s">
+      <c r="A359" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="135"/>
+      <c r="A360" s="122"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="132" t="s">
+      <c r="A361" s="119" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A362" s="133" t="s">
+      <c r="A362" s="120" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="134"/>
+      <c r="A363" s="121"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="135" t="s">
+      <c r="A364" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="135" t="s">
+      <c r="A365" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="135"/>
+      <c r="A366" s="122"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="132" t="s">
+      <c r="A367" s="119" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="133" t="s">
+      <c r="A368" s="120" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="134"/>
+      <c r="A369" s="121"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="135" t="s">
+      <c r="A370" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="135" t="s">
+      <c r="A371" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="135"/>
+      <c r="A372" s="122"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="132" t="s">
+      <c r="A373" s="119" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A374" s="133" t="s">
+      <c r="A374" s="120" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="134"/>
+      <c r="A375" s="121"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="135" t="s">
+      <c r="A376" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="135" t="s">
+      <c r="A377" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="135"/>
+      <c r="A378" s="122"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="132" t="s">
+      <c r="A379" s="119" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A380" s="133" t="s">
+      <c r="A380" s="120" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="134"/>
+      <c r="A381" s="121"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="135" t="s">
+      <c r="A382" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="135" t="s">
+      <c r="A383" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="135"/>
+      <c r="A384" s="122"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="132" t="s">
+      <c r="A385" s="119" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="133" t="s">
+      <c r="A386" s="120" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="134"/>
+      <c r="A387" s="121"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="135" t="s">
+      <c r="A388" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="135" t="s">
+      <c r="A389" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="135"/>
+      <c r="A390" s="122"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="132" t="s">
+      <c r="A391" s="119" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A392" s="133" t="s">
+      <c r="A392" s="120" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="134"/>
+      <c r="A393" s="121"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="135" t="s">
+      <c r="A394" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="135" t="s">
+      <c r="A395" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="135"/>
+      <c r="A396" s="122"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="132" t="s">
+      <c r="A397" s="119" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A398" s="133" t="s">
+      <c r="A398" s="120" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="134"/>
+      <c r="A399" s="121"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="135" t="s">
+      <c r="A400" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="135" t="s">
+      <c r="A401" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="135"/>
+      <c r="A402" s="122"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="132" t="s">
+      <c r="A403" s="119" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A404" s="133" t="s">
+      <c r="A404" s="120" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="134"/>
+      <c r="A405" s="121"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="135" t="s">
+      <c r="A406" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="135" t="s">
+      <c r="A407" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="135"/>
+      <c r="A408" s="122"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="132" t="s">
+      <c r="A409" s="119" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A410" s="133" t="s">
+      <c r="A410" s="120" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="134"/>
+      <c r="A411" s="121"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="135" t="s">
+      <c r="A412" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="135" t="s">
+      <c r="A413" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="135"/>
+      <c r="A414" s="122"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="132" t="s">
+      <c r="A415" s="119" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A416" s="133" t="s">
+      <c r="A416" s="120" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="134"/>
+      <c r="A417" s="121"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="135" t="s">
+      <c r="A418" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="135" t="s">
+      <c r="A419" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="135"/>
+      <c r="A420" s="122"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="132" t="s">
+      <c r="A421" s="119" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="133" t="s">
+      <c r="A422" s="120" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="134"/>
+      <c r="A423" s="121"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="135" t="s">
+      <c r="A424" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="135" t="s">
+      <c r="A425" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="135"/>
+      <c r="A426" s="122"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="132" t="s">
+      <c r="A427" s="119" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="133" t="s">
+      <c r="A428" s="120" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="134"/>
+      <c r="A429" s="121"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="135" t="s">
+      <c r="A430" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="135" t="s">
+      <c r="A431" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="135"/>
+      <c r="A432" s="122"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="132" t="s">
+      <c r="A433" s="119" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="133" t="s">
+      <c r="A434" s="120" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="134"/>
+      <c r="A435" s="121"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="135" t="s">
+      <c r="A436" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="135" t="s">
+      <c r="A437" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="135"/>
+      <c r="A438" s="122"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="132" t="s">
+      <c r="A439" s="119" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A440" s="137" t="s">
+      <c r="A440" s="124" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="134"/>
+      <c r="A441" s="121"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="135" t="s">
+      <c r="A442" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="135" t="s">
+      <c r="A443" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="135"/>
+      <c r="A444" s="122"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="132" t="s">
+      <c r="A445" s="119" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A446" s="133" t="s">
+      <c r="A446" s="120" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="134"/>
+      <c r="A447" s="121"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="135" t="s">
+      <c r="A448" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="135" t="s">
+      <c r="A449" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="135"/>
+      <c r="A450" s="122"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="132" t="s">
+      <c r="A451" s="119" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A452" s="133" t="s">
+      <c r="A452" s="120" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="134"/>
+      <c r="A453" s="121"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="135" t="s">
+      <c r="A454" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="135" t="s">
+      <c r="A455" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="135"/>
+      <c r="A456" s="122"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="132" t="s">
+      <c r="A457" s="119" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="133" t="s">
+      <c r="A458" s="120" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="134"/>
+      <c r="A459" s="121"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="135" t="s">
+      <c r="A460" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="135" t="s">
+      <c r="A461" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="135"/>
+      <c r="A462" s="122"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="132" t="s">
+      <c r="A463" s="119" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A464" s="133" t="s">
+      <c r="A464" s="120" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="134"/>
+      <c r="A465" s="121"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="135" t="s">
+      <c r="A466" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="135" t="s">
+      <c r="A467" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="135"/>
+      <c r="A468" s="122"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="132" t="s">
+      <c r="A469" s="119" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A470" s="133" t="s">
+      <c r="A470" s="120" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="134"/>
+      <c r="A471" s="121"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="135" t="s">
+      <c r="A472" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="135" t="s">
+      <c r="A473" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="135"/>
+      <c r="A474" s="122"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="132" t="s">
+      <c r="A475" s="119" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A476" s="133" t="s">
+      <c r="A476" s="120" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="134"/>
+      <c r="A477" s="121"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="135" t="s">
+      <c r="A478" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="135" t="s">
+      <c r="A479" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="135"/>
+      <c r="A480" s="122"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="132" t="s">
+      <c r="A481" s="119" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A482" s="133" t="s">
+      <c r="A482" s="120" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="134"/>
+      <c r="A483" s="121"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="135" t="s">
+      <c r="A484" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="135" t="s">
+      <c r="A485" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="135"/>
+      <c r="A486" s="122"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="132" t="s">
+      <c r="A487" s="119" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A488" s="133" t="s">
+      <c r="A488" s="120" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="134"/>
+      <c r="A489" s="121"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="135" t="s">
+      <c r="A490" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="135" t="s">
+      <c r="A491" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="135"/>
+      <c r="A492" s="122"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="132" t="s">
+      <c r="A493" s="119" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A494" s="133" t="s">
+      <c r="A494" s="120" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="134"/>
+      <c r="A495" s="121"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="135" t="s">
+      <c r="A496" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="135" t="s">
+      <c r="A497" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="135"/>
+      <c r="A498" s="122"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="132" t="s">
+      <c r="A499" s="119" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A500" s="133" t="s">
+      <c r="A500" s="120" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="134"/>
+      <c r="A501" s="121"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="135" t="s">
+      <c r="A502" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="135" t="s">
+      <c r="A503" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="135"/>
+      <c r="A504" s="122"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="132" t="s">
+      <c r="A505" s="119" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A506" s="133" t="s">
+      <c r="A506" s="120" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="134"/>
+      <c r="A507" s="121"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="135" t="s">
+      <c r="A508" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="135" t="s">
+      <c r="A509" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="135"/>
+      <c r="A510" s="122"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="132" t="s">
+      <c r="A511" s="119" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A512" s="133" t="s">
+      <c r="A512" s="120" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="134"/>
+      <c r="A513" s="121"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="135" t="s">
+      <c r="A514" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="135" t="s">
+      <c r="A515" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="135"/>
+      <c r="A516" s="122"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="132" t="s">
+      <c r="A517" s="119" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A518" s="133" t="s">
+      <c r="A518" s="120" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="134"/>
+      <c r="A519" s="121"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="138" t="s">
+      <c r="A520" s="125" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="135" t="s">
+      <c r="A521" s="122" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="135"/>
+      <c r="A522" s="122"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="132" t="s">
+      <c r="A523" s="119" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A524" s="133" t="s">
+      <c r="A524" s="120" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="134"/>
+      <c r="A525" s="121"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="135" t="s">
+      <c r="A526" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="135" t="s">
+      <c r="A527" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="135"/>
+      <c r="A528" s="122"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="132" t="s">
+      <c r="A529" s="119" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="530" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A530" s="133" t="s">
+      <c r="A530" s="120" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="134"/>
+      <c r="A531" s="121"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="135" t="s">
+      <c r="A532" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="135" t="s">
+      <c r="A533" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="135"/>
+      <c r="A534" s="122"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="132" t="s">
+      <c r="A535" s="119" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A536" s="133" t="s">
+      <c r="A536" s="120" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="134"/>
+      <c r="A537" s="121"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="138" t="s">
+      <c r="A538" s="125" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="135" t="s">
+      <c r="A539" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="135"/>
+      <c r="A540" s="122"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="132" t="s">
+      <c r="A541" s="119" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A542" s="133" t="s">
+      <c r="A542" s="120" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="134"/>
+      <c r="A543" s="121"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="135" t="s">
+      <c r="A544" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="135" t="s">
+      <c r="A545" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="135"/>
+      <c r="A546" s="122"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="132" t="s">
+      <c r="A547" s="119" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A548" s="133" t="s">
+      <c r="A548" s="120" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="134"/>
+      <c r="A549" s="121"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="135" t="s">
+      <c r="A550" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="135" t="s">
+      <c r="A551" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="135"/>
+      <c r="A552" s="122"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="132" t="s">
+      <c r="A553" s="119" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="554" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A554" s="133" t="s">
+      <c r="A554" s="120" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="134"/>
+      <c r="A555" s="121"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="135" t="s">
+      <c r="A556" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="135" t="s">
+      <c r="A557" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="135"/>
+      <c r="A558" s="122"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="132" t="s">
+      <c r="A559" s="119" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A560" s="133" t="s">
+      <c r="A560" s="120" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="134"/>
+      <c r="A561" s="121"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="135" t="s">
+      <c r="A562" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="135" t="s">
+      <c r="A563" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="135"/>
+      <c r="A564" s="122"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="132" t="s">
+      <c r="A565" s="119" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A566" s="133" t="s">
+      <c r="A566" s="120" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="134"/>
+      <c r="A567" s="121"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="135" t="s">
+      <c r="A568" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="135" t="s">
+      <c r="A569" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="135"/>
+      <c r="A570" s="122"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="132" t="s">
+      <c r="A571" s="119" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A572" s="133" t="s">
+      <c r="A572" s="120" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="134"/>
+      <c r="A573" s="121"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="135" t="s">
+      <c r="A574" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="135" t="s">
+      <c r="A575" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="135"/>
+      <c r="A576" s="122"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="132" t="s">
+      <c r="A577" s="119" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A578" s="133" t="s">
+      <c r="A578" s="120" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="134"/>
+      <c r="A579" s="121"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="135" t="s">
+      <c r="A580" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="135" t="s">
+      <c r="A581" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="135"/>
+      <c r="A582" s="122"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="132" t="s">
+      <c r="A583" s="119" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A584" s="133" t="s">
+      <c r="A584" s="120" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="134"/>
+      <c r="A585" s="121"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="135" t="s">
+      <c r="A586" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="135" t="s">
+      <c r="A587" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="135"/>
+      <c r="A588" s="122"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="132" t="s">
+      <c r="A589" s="119" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A590" s="133" t="s">
+      <c r="A590" s="120" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="134"/>
+      <c r="A591" s="121"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="135" t="s">
+      <c r="A592" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="135" t="s">
+      <c r="A593" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="135"/>
+      <c r="A594" s="122"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="132" t="s">
+      <c r="A595" s="119" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A596" s="133" t="s">
+      <c r="A596" s="120" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="134"/>
+      <c r="A597" s="121"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="135" t="s">
+      <c r="A598" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="135" t="s">
+      <c r="A599" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="135"/>
+      <c r="A600" s="122"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="132" t="s">
+      <c r="A601" s="119" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A602" s="133" t="s">
+      <c r="A602" s="120" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="134"/>
+      <c r="A603" s="121"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="135" t="s">
+      <c r="A604" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="135" t="s">
+      <c r="A605" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="135"/>
+      <c r="A606" s="122"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="132" t="s">
+      <c r="A607" s="119" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A608" s="133" t="s">
+      <c r="A608" s="120" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="134"/>
+      <c r="A609" s="121"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="135" t="s">
+      <c r="A610" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="135" t="s">
+      <c r="A611" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="135"/>
+      <c r="A612" s="122"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="132" t="s">
+      <c r="A613" s="119" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="614" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A614" s="133" t="s">
+      <c r="A614" s="120" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="134"/>
+      <c r="A615" s="121"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="135" t="s">
+      <c r="A616" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="135" t="s">
+      <c r="A617" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="135"/>
+      <c r="A618" s="122"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="132" t="s">
+      <c r="A619" s="119" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="620" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A620" s="133" t="s">
+      <c r="A620" s="120" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="134"/>
+      <c r="A621" s="121"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="135" t="s">
+      <c r="A622" s="122" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="135" t="s">
+      <c r="A623" s="122" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="135"/>
+      <c r="A624" s="122"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="126" t="s">
+      <c r="A625" s="113" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A626" s="127" t="s">
+      <c r="A626" s="114" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="128"/>
+      <c r="A627" s="115"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="129" t="s">
+      <c r="A628" s="116" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="129" t="s">
+      <c r="A629" s="116" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="129"/>
+      <c r="A630" s="116"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="139" t="s">
+      <c r="A631" s="126" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A632" s="140" t="s">
+      <c r="A632" s="127" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="140" t="s">
+      <c r="A633" s="127" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="130"/>
+      <c r="A634" s="117"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="141" t="s">
+      <c r="A635" s="128" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="130"/>
+      <c r="A636" s="117"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="140" t="s">
+      <c r="A637" s="127" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="130"/>
+      <c r="A639" s="117"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="131" t="s">
+      <c r="A640" s="118" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="130"/>
+      <c r="A641" s="117"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="142" t="s">
+      <c r="A642" s="129" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="126" t="s">
+      <c r="A643" s="113" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="644" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A644" s="127" t="s">
+      <c r="A644" s="114" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="128"/>
+      <c r="A645" s="115"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="129" t="s">
+      <c r="A646" s="116" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="129" t="s">
+      <c r="A647" s="116" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="129"/>
+      <c r="A648" s="116"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="126" t="s">
+      <c r="A649" s="113" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="650" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A650" s="127" t="s">
+      <c r="A650" s="114" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="128"/>
+      <c r="A651" s="115"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="129" t="s">
+      <c r="A652" s="116" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="129" t="s">
+      <c r="A653" s="116" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="129"/>
+      <c r="A654" s="116"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="126" t="s">
+      <c r="A655" s="113" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="656" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A656" s="127" t="s">
+      <c r="A656" s="114" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="128"/>
+      <c r="A657" s="115"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="129" t="s">
+      <c r="A658" s="116" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="129"/>
+      <c r="A659" s="116"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="129" t="s">
+      <c r="A660" s="116" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="129"/>
+      <c r="A661" s="116"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="126" t="s">
+      <c r="A662" s="113" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="663" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A663" s="127" t="s">
+      <c r="A663" s="114" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="128"/>
+      <c r="A664" s="115"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="129" t="s">
+      <c r="A665" s="116" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="129"/>
+      <c r="A666" s="116"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="129" t="s">
+      <c r="A667" s="116" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="129"/>
+      <c r="A668" s="116"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="126" t="s">
+      <c r="A669" s="113" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="670" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A670" s="127" t="s">
+      <c r="A670" s="114" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="128"/>
+      <c r="A671" s="115"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="129"/>
+      <c r="A672" s="116"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="129"/>
+      <c r="A673" s="116"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="129"/>
+      <c r="A674" s="116"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="129"/>
+      <c r="A675" s="116"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="126" t="s">
+      <c r="A676" s="113" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A677" s="127" t="s">
+      <c r="A677" s="114" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="128"/>
+      <c r="A678" s="115"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="129"/>
+      <c r="A679" s="116"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="129"/>
+      <c r="A680" s="116"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="129"/>
+      <c r="A681" s="116"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="129"/>
+      <c r="A682" s="116"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="126"/>
+      <c r="A683" s="113"/>
     </row>
     <row r="684" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A684" s="127" t="s">
+      <c r="A684" s="114" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="128"/>
+      <c r="A685" s="115"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="129"/>
+      <c r="A686" s="116"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="129"/>
+      <c r="A687" s="116"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="129"/>
+      <c r="A688" s="116"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="129"/>
+      <c r="A689" s="116"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -26045,7 +26519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8600B75A-1ED1-437D-9B1E-4EB6353449BE}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -26063,14 +26537,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26112,7 +26586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA77D0AC-A7B6-4319-A90C-CAC41021F832}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -26135,14 +26609,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26184,7 +26658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09BD98-79D8-450C-972D-16EC9C4FC717}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -26205,13 +26679,13 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -26333,7 +26807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBA4A8B-062F-4280-B637-4D3543B7B63A}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -26354,14 +26828,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26403,77 +26877,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC297CD3-0B1F-4BB7-8CC6-619A9FF0CD07}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="121" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{F5B0D608-23F4-46BB-B0AE-250A36C285EC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024D76020AE708242B68336FA618CBCDF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d53f460e102142885dbc8938524af06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df3f84f5-0dce-435a-abac-67420900ba59" xmlns:ns4="c8965576-7528-46e3-a68d-d4bc5141fdaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51dd3132ab51039a0b8a02bab29c14ac" ns3:_="" ns4:_="">
     <xsd:import namespace="df3f84f5-0dce-435a-abac-67420900ba59"/>
@@ -26696,22 +27115,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
+    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC42E61D-1BC2-43F5-95E9-ABDA8B3BC8C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26728,29 +27157,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
-    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90387BBA-C9C2-489C-879D-E63B93D69211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B10FA3A-F0D5-472F-A744-B2E539082A47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="500">
   <si>
     <t>SR#</t>
   </si>
@@ -8008,9 +8008,6 @@
     <t>Time [From - To]</t>
   </si>
   <si>
-    <t>4 Hours</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
@@ -8023,9 +8020,6 @@
     <t>7am - 9am</t>
   </si>
   <si>
-    <t>2 Hours</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -8035,28 +8029,42 @@
     <t>7am - 9.45am</t>
   </si>
   <si>
-    <t>2.45 Hours</t>
-  </si>
-  <si>
     <t>Thursday</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
     <t>6.55am - 9.01am</t>
   </si>
   <si>
-    <t>2.06 Hours</t>
-  </si>
-  <si>
-    <t>December '21</t>
+    <t>7.05am - 9.15am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durgesh on Leave </t>
+  </si>
+  <si>
+    <t>Official Holiday</t>
+  </si>
+  <si>
+    <t>January '21</t>
+  </si>
+  <si>
+    <t>Total Time Spent</t>
+  </si>
+  <si>
+    <t>Time Spents
+(In Hours)</t>
+  </si>
+  <si>
+    <t>Actual Time Decided
+(In Hours)</t>
+  </si>
+  <si>
+    <t>Working: 11th December '21 - 11th January '22</t>
   </si>
 </sst>
 </file>
@@ -8504,7 +8512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8873,6 +8881,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8912,17 +8931,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20897,317 +20917,684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973E51C-FF21-4EFD-BEE8-1E89830C0A93}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="134" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="131" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="132" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="133" t="s">
+        <v>480</v>
+      </c>
+      <c r="E2" s="153" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
-        <v>476</v>
-      </c>
-      <c r="B2" s="146" t="s">
-        <v>477</v>
-      </c>
-      <c r="C2" s="146" t="s">
-        <v>478</v>
-      </c>
-      <c r="D2" s="147" t="s">
-        <v>480</v>
-      </c>
-      <c r="E2" s="146" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="F2" s="153" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="83">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="150" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" s="149">
+        <v>44541</v>
+      </c>
+      <c r="D3" s="148" t="s">
         <v>482</v>
       </c>
-      <c r="C3" s="143">
-        <v>44541</v>
-      </c>
-      <c r="D3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="E3" s="150">
+        <v>4.25</v>
+      </c>
+      <c r="F3" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="83">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C4" t="s">
-        <v>493</v>
-      </c>
-      <c r="D4" t="s">
-        <v>493</v>
-      </c>
-      <c r="E4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="150" t="s">
+        <v>489</v>
+      </c>
+      <c r="C4" s="149">
+        <v>44542</v>
+      </c>
+      <c r="D4" s="152" t="s">
+        <v>494</v>
+      </c>
+      <c r="E4" s="150">
+        <v>0</v>
+      </c>
+      <c r="F4" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" s="130">
+        <v>44543</v>
+      </c>
+      <c r="D5" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="143">
-        <v>44543</v>
-      </c>
-      <c r="D5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E5" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>487</v>
-      </c>
-      <c r="C6" s="143">
+      <c r="B6" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="130">
         <v>44544</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
-      </c>
-      <c r="E6" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C7" s="143">
+        <v>486</v>
+      </c>
+      <c r="C7" s="130">
         <v>44545</v>
       </c>
       <c r="D7" t="s">
-        <v>489</v>
-      </c>
-      <c r="E7" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="130">
+        <v>44546</v>
+      </c>
+      <c r="D8" t="s">
         <v>491</v>
       </c>
-      <c r="C8" s="143">
-        <v>44546</v>
-      </c>
-      <c r="D8" t="s">
-        <v>495</v>
-      </c>
-      <c r="E8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="5">
+        <v>2.06</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C9" s="143">
+        <v>490</v>
+      </c>
+      <c r="C9" s="130">
         <v>44547</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C10" s="143">
+      <c r="B10" s="150" t="s">
+        <v>481</v>
+      </c>
+      <c r="C10" s="149">
         <v>44548</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="152" t="s">
+        <v>494</v>
+      </c>
+      <c r="E10" s="150">
+        <v>0</v>
+      </c>
+      <c r="F10" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C11" s="143">
+      <c r="B11" s="83" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" s="149">
         <v>44549</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="152" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" s="150">
+        <v>0</v>
+      </c>
+      <c r="F11" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>484</v>
-      </c>
-      <c r="C12" s="143">
+      <c r="B12" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="130">
         <v>44550</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" s="143">
+        <v>485</v>
+      </c>
+      <c r="C13" s="130">
         <v>44551</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>488</v>
-      </c>
-      <c r="C14" s="143">
+      <c r="B14" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C14" s="130">
         <v>44552</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C15" s="143">
+        <v>488</v>
+      </c>
+      <c r="C15" s="130">
         <v>44553</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>494</v>
-      </c>
-      <c r="C16" s="143">
+      <c r="B16" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" s="130">
         <v>44554</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="83">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C17" s="143">
+      <c r="B17" s="83" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" s="149">
         <v>44555</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="D17" s="148"/>
+      <c r="E17" s="150">
+        <v>0</v>
+      </c>
+      <c r="F17" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="83">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>492</v>
-      </c>
-      <c r="C18" s="143">
+      <c r="B18" s="150" t="s">
+        <v>489</v>
+      </c>
+      <c r="C18" s="149">
         <v>44556</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="148"/>
+      <c r="E18" s="150">
+        <v>0</v>
+      </c>
+      <c r="F18" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C19" s="143">
+        <v>483</v>
+      </c>
+      <c r="C19" s="130">
         <v>44557</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>487</v>
-      </c>
-      <c r="C20" s="143">
+      <c r="B20" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C20" s="130">
         <v>44558</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C21" s="143">
+        <v>486</v>
+      </c>
+      <c r="C21" s="130">
         <v>44559</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>491</v>
-      </c>
-      <c r="C22" s="143">
+      <c r="B22" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C22" s="130">
         <v>44560</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C23" s="143">
+        <v>490</v>
+      </c>
+      <c r="C23" s="130">
         <v>44561</v>
       </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="83">
+        <v>22</v>
+      </c>
+      <c r="B24" s="150" t="s">
+        <v>481</v>
+      </c>
+      <c r="C24" s="149">
+        <v>44562</v>
+      </c>
+      <c r="D24" s="148"/>
+      <c r="E24" s="150">
+        <v>0</v>
+      </c>
+      <c r="F24" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="83">
+        <v>23</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>489</v>
+      </c>
+      <c r="C25" s="149">
+        <v>44563</v>
+      </c>
+      <c r="D25" s="148"/>
+      <c r="E25" s="150">
+        <v>0</v>
+      </c>
+      <c r="F25" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" s="130">
+        <v>44564</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C27" s="130">
+        <v>44565</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C28" s="130">
+        <v>44566</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C29" s="130">
+        <v>44567</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C30" s="130">
+        <v>44568</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="83">
+        <v>29</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>481</v>
+      </c>
+      <c r="C31" s="149">
+        <v>44569</v>
+      </c>
+      <c r="D31" s="148"/>
+      <c r="E31" s="150">
+        <v>0</v>
+      </c>
+      <c r="F31" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="83">
+        <v>30</v>
+      </c>
+      <c r="B32" s="150" t="s">
+        <v>489</v>
+      </c>
+      <c r="C32" s="149">
+        <v>44570</v>
+      </c>
+      <c r="D32" s="148"/>
+      <c r="E32" s="150">
+        <v>0</v>
+      </c>
+      <c r="F32" s="150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" s="130">
+        <v>44571</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C34" s="130">
+        <v>44572</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="151" t="s">
+        <v>496</v>
+      </c>
+      <c r="D35" s="151"/>
+      <c r="E35" s="150">
+        <f>SUM(E3:E34)</f>
+        <v>16.91</v>
+      </c>
+      <c r="F35" s="150">
+        <f>SUM(F3:F34)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="134" t="s">
+        <v>495</v>
+      </c>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="131" t="s">
+        <v>476</v>
+      </c>
+      <c r="B38" s="132" t="s">
+        <v>477</v>
+      </c>
+      <c r="C38" s="132" t="s">
+        <v>478</v>
+      </c>
+      <c r="D38" s="133" t="s">
+        <v>480</v>
+      </c>
+      <c r="E38" s="132" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21236,14 +21623,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21306,14 +21693,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21376,14 +21763,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21446,14 +21833,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21518,14 +21905,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21588,14 +21975,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21658,14 +22045,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21728,14 +22115,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21799,12 +22186,12 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
@@ -21831,11 +22218,11 @@
       <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="51" t="s">
         <v>150</v>
       </c>
@@ -22131,12 +22518,12 @@
       <c r="A1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
       <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -22162,11 +22549,11 @@
       <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
       <c r="E3" s="60" t="s">
         <v>151</v>
       </c>
@@ -22243,11 +22630,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
       <c r="E12" s="60" t="s">
         <v>151</v>
       </c>
@@ -22404,27 +22791,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="102"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="134"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="103"/>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="104" t="s">
@@ -22502,7 +22889,7 @@
         <v>219</v>
       </c>
       <c r="C6" s="88"/>
-      <c r="D6" s="131" t="s">
+      <c r="D6" s="136" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="76"/>
@@ -22520,7 +22907,7 @@
       <c r="C7" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="131"/>
+      <c r="D7" s="136"/>
       <c r="E7" s="76"/>
       <c r="F7" s="76"/>
       <c r="G7" s="76"/>
@@ -22536,7 +22923,7 @@
       <c r="C8" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="131"/>
+      <c r="D8" s="136"/>
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
       <c r="G8" s="76"/>
@@ -22552,7 +22939,7 @@
       <c r="C9" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="131"/>
+      <c r="D9" s="136"/>
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
@@ -22568,7 +22955,7 @@
       <c r="C10" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="131"/>
+      <c r="D10" s="136"/>
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
       <c r="G10" s="76"/>
@@ -22791,16 +23178,16 @@
       <c r="H22" s="87"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="77">
@@ -23006,28 +23393,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -23268,16 +23655,16 @@
       <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="137" t="s">
+      <c r="A24" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -23409,10 +23796,10 @@
       <c r="A1" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="138"/>
+      <c r="C1" s="143"/>
       <c r="D1" s="107"/>
       <c r="E1" s="112"/>
     </row>
@@ -26537,14 +26924,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26609,14 +26996,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26679,13 +27066,13 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -26828,14 +27215,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26878,18 +27265,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27116,6 +27503,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -27128,14 +27523,6 @@
     <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B10FA3A-F0D5-472F-A744-B2E539082A47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DBB44D-72EF-400C-ABCC-B1A749DEEC18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" activeTab="1" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Track_Hours_For_Cypress" sheetId="37" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="500">
   <si>
     <t>SR#</t>
   </si>
@@ -8050,9 +8050,6 @@
     <t>Official Holiday</t>
   </si>
   <si>
-    <t>January '21</t>
-  </si>
-  <si>
     <t>Total Time Spent</t>
   </si>
   <si>
@@ -8065,6 +8062,9 @@
   </si>
   <si>
     <t>Working: 11th December '21 - 11th January '22</t>
+  </si>
+  <si>
+    <t>January '22</t>
   </si>
 </sst>
 </file>
@@ -8512,7 +8512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8752,9 +8752,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8889,8 +8886,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8931,17 +8940,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20919,8 +20922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973E51C-FF21-4EFD-BEE8-1E89830C0A93}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection sqref="A1:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20934,52 +20937,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
+      <c r="A1" s="138" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="131" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="131" t="s">
         <v>478</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="132" t="s">
         <v>480</v>
       </c>
-      <c r="E2" s="153" t="s">
+      <c r="E2" s="137" t="s">
+        <v>496</v>
+      </c>
+      <c r="F2" s="137" t="s">
         <v>497</v>
-      </c>
-      <c r="F2" s="153" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="83">
         <v>1</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="135" t="s">
         <v>481</v>
       </c>
-      <c r="C3" s="149">
+      <c r="C3" s="134">
         <v>44541</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="133" t="s">
         <v>482</v>
       </c>
-      <c r="E3" s="150">
+      <c r="E3" s="135">
         <v>4.25</v>
       </c>
-      <c r="F3" s="150">
+      <c r="F3" s="135">
         <v>0</v>
       </c>
     </row>
@@ -20987,19 +20990,19 @@
       <c r="A4" s="83">
         <v>2</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="135" t="s">
         <v>489</v>
       </c>
-      <c r="C4" s="149">
+      <c r="C4" s="134">
         <v>44542</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="136" t="s">
         <v>494</v>
       </c>
-      <c r="E4" s="150">
+      <c r="E4" s="135">
         <v>0</v>
       </c>
-      <c r="F4" s="150">
+      <c r="F4" s="135">
         <v>0</v>
       </c>
     </row>
@@ -21010,7 +21013,7 @@
       <c r="B5" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C5" s="130">
+      <c r="C5" s="129">
         <v>44543</v>
       </c>
       <c r="D5" t="s">
@@ -21030,7 +21033,7 @@
       <c r="B6" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C6" s="130">
+      <c r="C6" s="129">
         <v>44544</v>
       </c>
       <c r="D6" t="s">
@@ -21050,7 +21053,7 @@
       <c r="B7" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C7" s="130">
+      <c r="C7" s="129">
         <v>44545</v>
       </c>
       <c r="D7" t="s">
@@ -21070,7 +21073,7 @@
       <c r="B8" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="129">
         <v>44546</v>
       </c>
       <c r="D8" t="s">
@@ -21090,7 +21093,7 @@
       <c r="B9" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C9" s="130">
+      <c r="C9" s="129">
         <v>44547</v>
       </c>
       <c r="D9" t="s">
@@ -21107,19 +21110,19 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="135" t="s">
         <v>481</v>
       </c>
-      <c r="C10" s="149">
+      <c r="C10" s="134">
         <v>44548</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="136" t="s">
         <v>494</v>
       </c>
-      <c r="E10" s="150">
+      <c r="E10" s="135">
         <v>0</v>
       </c>
-      <c r="F10" s="150">
+      <c r="F10" s="135">
         <v>0</v>
       </c>
     </row>
@@ -21130,16 +21133,16 @@
       <c r="B11" s="83" t="s">
         <v>489</v>
       </c>
-      <c r="C11" s="149">
+      <c r="C11" s="134">
         <v>44549</v>
       </c>
-      <c r="D11" s="152" t="s">
+      <c r="D11" s="136" t="s">
         <v>494</v>
       </c>
-      <c r="E11" s="150">
+      <c r="E11" s="135">
         <v>0</v>
       </c>
-      <c r="F11" s="150">
+      <c r="F11" s="135">
         <v>0</v>
       </c>
     </row>
@@ -21150,7 +21153,7 @@
       <c r="B12" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C12" s="130">
+      <c r="C12" s="129">
         <v>44550</v>
       </c>
       <c r="D12" t="s">
@@ -21170,8 +21173,14 @@
       <c r="B13" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C13" s="130">
+      <c r="C13" s="129">
         <v>44551</v>
+      </c>
+      <c r="D13" t="s">
+        <v>493</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
@@ -21184,8 +21193,14 @@
       <c r="B14" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C14" s="130">
+      <c r="C14" s="129">
         <v>44552</v>
+      </c>
+      <c r="D14" t="s">
+        <v>493</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
@@ -21198,8 +21213,14 @@
       <c r="B15" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C15" s="130">
+      <c r="C15" s="129">
         <v>44553</v>
+      </c>
+      <c r="D15" t="s">
+        <v>493</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -21212,8 +21233,14 @@
       <c r="B16" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C16" s="130">
+      <c r="C16" s="129">
         <v>44554</v>
+      </c>
+      <c r="D16" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -21226,14 +21253,14 @@
       <c r="B17" s="83" t="s">
         <v>481</v>
       </c>
-      <c r="C17" s="149">
+      <c r="C17" s="134">
         <v>44555</v>
       </c>
-      <c r="D17" s="148"/>
-      <c r="E17" s="150">
+      <c r="D17" s="133"/>
+      <c r="E17" s="135">
         <v>0</v>
       </c>
-      <c r="F17" s="150">
+      <c r="F17" s="135">
         <v>0</v>
       </c>
     </row>
@@ -21241,17 +21268,17 @@
       <c r="A18" s="83">
         <v>16</v>
       </c>
-      <c r="B18" s="150" t="s">
+      <c r="B18" s="135" t="s">
         <v>489</v>
       </c>
-      <c r="C18" s="149">
+      <c r="C18" s="134">
         <v>44556</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="150">
+      <c r="D18" s="133"/>
+      <c r="E18" s="135">
         <v>0</v>
       </c>
-      <c r="F18" s="150">
+      <c r="F18" s="135">
         <v>0</v>
       </c>
     </row>
@@ -21262,7 +21289,7 @@
       <c r="B19" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C19" s="130">
+      <c r="C19" s="129">
         <v>44557</v>
       </c>
       <c r="F19" s="5">
@@ -21276,7 +21303,7 @@
       <c r="B20" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C20" s="130">
+      <c r="C20" s="129">
         <v>44558</v>
       </c>
       <c r="F20" s="5">
@@ -21290,7 +21317,7 @@
       <c r="B21" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C21" s="130">
+      <c r="C21" s="129">
         <v>44559</v>
       </c>
       <c r="F21" s="5">
@@ -21304,7 +21331,7 @@
       <c r="B22" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C22" s="130">
+      <c r="C22" s="129">
         <v>44560</v>
       </c>
       <c r="F22" s="5">
@@ -21318,7 +21345,7 @@
       <c r="B23" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C23" s="130">
+      <c r="C23" s="129">
         <v>44561</v>
       </c>
       <c r="F23" s="5">
@@ -21329,17 +21356,17 @@
       <c r="A24" s="83">
         <v>22</v>
       </c>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="135" t="s">
         <v>481</v>
       </c>
-      <c r="C24" s="149">
+      <c r="C24" s="134">
         <v>44562</v>
       </c>
-      <c r="D24" s="148"/>
-      <c r="E24" s="150">
+      <c r="D24" s="133"/>
+      <c r="E24" s="135">
         <v>0</v>
       </c>
-      <c r="F24" s="150">
+      <c r="F24" s="135">
         <v>0</v>
       </c>
     </row>
@@ -21350,14 +21377,14 @@
       <c r="B25" s="83" t="s">
         <v>489</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="134">
         <v>44563</v>
       </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="150">
+      <c r="D25" s="133"/>
+      <c r="E25" s="135">
         <v>0</v>
       </c>
-      <c r="F25" s="150">
+      <c r="F25" s="135">
         <v>0</v>
       </c>
     </row>
@@ -21368,7 +21395,7 @@
       <c r="B26" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C26" s="130">
+      <c r="C26" s="129">
         <v>44564</v>
       </c>
       <c r="F26" s="5">
@@ -21382,7 +21409,7 @@
       <c r="B27" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C27" s="130">
+      <c r="C27" s="129">
         <v>44565</v>
       </c>
       <c r="F27" s="5">
@@ -21396,7 +21423,7 @@
       <c r="B28" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C28" s="130">
+      <c r="C28" s="129">
         <v>44566</v>
       </c>
       <c r="F28" s="5">
@@ -21410,7 +21437,7 @@
       <c r="B29" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <v>44567</v>
       </c>
       <c r="F29" s="5">
@@ -21424,7 +21451,7 @@
       <c r="B30" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C30" s="130">
+      <c r="C30" s="129">
         <v>44568</v>
       </c>
       <c r="F30" s="5">
@@ -21438,14 +21465,14 @@
       <c r="B31" s="83" t="s">
         <v>481</v>
       </c>
-      <c r="C31" s="149">
+      <c r="C31" s="134">
         <v>44569</v>
       </c>
-      <c r="D31" s="148"/>
-      <c r="E31" s="150">
+      <c r="D31" s="133"/>
+      <c r="E31" s="135">
         <v>0</v>
       </c>
-      <c r="F31" s="150">
+      <c r="F31" s="135">
         <v>0</v>
       </c>
     </row>
@@ -21453,17 +21480,17 @@
       <c r="A32" s="83">
         <v>30</v>
       </c>
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="135" t="s">
         <v>489</v>
       </c>
-      <c r="C32" s="149">
+      <c r="C32" s="134">
         <v>44570</v>
       </c>
-      <c r="D32" s="148"/>
-      <c r="E32" s="150">
+      <c r="D32" s="133"/>
+      <c r="E32" s="135">
         <v>0</v>
       </c>
-      <c r="F32" s="150">
+      <c r="F32" s="135">
         <v>0</v>
       </c>
     </row>
@@ -21474,7 +21501,7 @@
       <c r="B33" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C33" s="130">
+      <c r="C33" s="129">
         <v>44571</v>
       </c>
       <c r="F33" s="5">
@@ -21488,7 +21515,7 @@
       <c r="B34" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C34" s="130">
+      <c r="C34" s="129">
         <v>44572</v>
       </c>
       <c r="F34" s="5">
@@ -21496,42 +21523,42 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="151" t="s">
-        <v>496</v>
-      </c>
-      <c r="D35" s="151"/>
-      <c r="E35" s="150">
+      <c r="C35" s="139" t="s">
+        <v>495</v>
+      </c>
+      <c r="D35" s="139"/>
+      <c r="E35" s="135">
         <f>SUM(E3:E34)</f>
-        <v>16.91</v>
-      </c>
-      <c r="F35" s="150">
+        <v>24.91</v>
+      </c>
+      <c r="F35" s="135">
         <f>SUM(F3:F34)</f>
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="134" t="s">
-        <v>495</v>
-      </c>
-      <c r="B37" s="134"/>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
+      <c r="A37" s="138" t="s">
+        <v>499</v>
+      </c>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="130" t="s">
         <v>476</v>
       </c>
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="131" t="s">
         <v>477</v>
       </c>
-      <c r="C38" s="132" t="s">
+      <c r="C38" s="131" t="s">
         <v>478</v>
       </c>
-      <c r="D38" s="133" t="s">
+      <c r="D38" s="132" t="s">
         <v>480</v>
       </c>
-      <c r="E38" s="132" t="s">
+      <c r="E38" s="131" t="s">
         <v>479</v>
       </c>
     </row>
@@ -21623,14 +21650,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21693,14 +21720,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21763,14 +21790,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21833,14 +21860,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21905,14 +21932,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21975,14 +22002,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22045,14 +22072,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22115,14 +22142,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22186,12 +22213,12 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="144" t="s">
+      <c r="B1" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
@@ -22218,11 +22245,11 @@
       <c r="A3" s="40">
         <v>1</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="150" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
       <c r="E3" s="51" t="s">
         <v>150</v>
       </c>
@@ -22518,12 +22545,12 @@
       <c r="A1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
       <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -22549,11 +22576,11 @@
       <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="151" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="60" t="s">
         <v>151</v>
       </c>
@@ -22630,11 +22657,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="151" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
       <c r="E12" s="60" t="s">
         <v>151</v>
       </c>
@@ -22770,11 +22797,11 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22790,52 +22817,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
-      <c r="B1" s="137" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="139"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="140" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="104" t="s">
         <v>224</v>
       </c>
     </row>
@@ -22846,13 +22873,13 @@
       <c r="B4" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>214</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="105" t="s">
         <v>226</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -22865,10 +22892,10 @@
       <c r="A5" s="82">
         <v>2</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="88" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="69" t="s">
@@ -22882,14 +22909,14 @@
       <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101">
+      <c r="A6" s="100">
         <v>3</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="154" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="136" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="141" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="76"/>
@@ -22898,64 +22925,64 @@
       <c r="H6" s="76"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="99">
+      <c r="A7" s="98">
         <v>3.1</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="153" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="136"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="76"/>
       <c r="F7" s="76"/>
       <c r="G7" s="76"/>
       <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="99">
+      <c r="A8" s="98">
         <v>3.2</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="153" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="136"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
       <c r="G8" s="76"/>
       <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="99">
+      <c r="A9" s="98">
         <v>3.3</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="153" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="136"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
       <c r="G9" s="76"/>
       <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="100">
+      <c r="A10" s="99">
         <v>3.4</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="153" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="136"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
       <c r="G10" s="76"/>
@@ -22965,10 +22992,10 @@
       <c r="A11" s="70">
         <v>4</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="89" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="69" t="s">
@@ -22983,10 +23010,10 @@
       <c r="A12" s="70">
         <v>5</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="89" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="72" t="s">
@@ -23001,10 +23028,10 @@
       <c r="A13" s="70">
         <v>6</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="87" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="72" t="s">
@@ -23019,10 +23046,10 @@
       <c r="A14" s="70">
         <v>7</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="87" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="75" t="s">
@@ -23037,157 +23064,157 @@
       <c r="A15" s="73">
         <v>8</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="89" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="73">
         <v>9</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="89" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="70">
         <v>10</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="89" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="73">
         <v>11</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="B18" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="73">
         <v>12</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="73">
         <v>13</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="91" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="73">
         <v>14</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="91" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="73">
         <v>15</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="87" t="s">
         <v>199</v>
       </c>
       <c r="D22" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="135" t="s">
+      <c r="A24" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="77">
@@ -23393,28 +23420,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -23655,16 +23682,16 @@
       <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -23796,12 +23823,12 @@
       <c r="A1" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="112"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="111"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -23824,7 +23851,7 @@
       <c r="A3" s="83">
         <v>1</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>231</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -23835,76 +23862,76 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="111">
+      <c r="A4" s="110">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="109" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="108" t="s">
+      <c r="A5" s="110"/>
+      <c r="B5" s="107" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="111"/>
-      <c r="B6" s="108" t="s">
+      <c r="A6" s="110"/>
+      <c r="B6" s="107" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="111"/>
-      <c r="B7" s="108" t="s">
+      <c r="A7" s="110"/>
+      <c r="B7" s="107" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="111">
+      <c r="A8" s="110">
         <v>1.2</v>
       </c>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="109" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="108" t="s">
+      <c r="A9" s="110"/>
+      <c r="B9" s="107" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="111"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="110"/>
+      <c r="B10" s="107" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="111">
+      <c r="A11" s="110">
         <v>1.3</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="109" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="108" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="107" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="111"/>
-      <c r="B13" s="108" t="s">
+      <c r="A13" s="110"/>
+      <c r="B13" s="107" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="111">
+      <c r="A14" s="110">
         <v>1.4</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="109" t="s">
         <v>242</v>
       </c>
     </row>
@@ -23935,2964 +23962,2964 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="118" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="119" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
+      <c r="A3" s="120"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="122" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123"/>
+      <c r="A6" s="122"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="118" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="119" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
+      <c r="A9" s="120"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="122" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
+      <c r="A12" s="122"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="118" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="119" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
+      <c r="A15" s="120"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
+      <c r="A18" s="122"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="118" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="119" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121"/>
+      <c r="A21" s="120"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="123"/>
+      <c r="A24" s="122"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="119" t="s">
+      <c r="A25" s="118" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="119" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121"/>
+      <c r="A27" s="120"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="123"/>
+      <c r="A30" s="122"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119" t="s">
+      <c r="A31" s="118" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="119" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
+      <c r="A33" s="120"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="122" t="s">
+      <c r="A34" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="123" t="s">
+      <c r="A35" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="123"/>
+      <c r="A36" s="122"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="118" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="120" t="s">
+      <c r="A38" s="119" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
+      <c r="A39" s="120"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="122" t="s">
+      <c r="A40" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="123"/>
+      <c r="A42" s="122"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="119" t="s">
+      <c r="A43" s="118" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="120" t="s">
+      <c r="A44" s="119" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="121"/>
+      <c r="A45" s="120"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="123" t="s">
+      <c r="A47" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="123"/>
+      <c r="A48" s="122"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="119" t="s">
+      <c r="A49" s="118" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="120" t="s">
+      <c r="A50" s="119" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="121"/>
+      <c r="A51" s="120"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="123" t="s">
+      <c r="A53" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="123"/>
+      <c r="A54" s="122"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="119" t="s">
+      <c r="A55" s="118" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="120" t="s">
+      <c r="A56" s="119" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="121"/>
+      <c r="A57" s="120"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="122" t="s">
+      <c r="A58" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="123" t="s">
+      <c r="A59" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="123"/>
+      <c r="A60" s="122"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="119" t="s">
+      <c r="A61" s="118" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="120" t="s">
+      <c r="A62" s="119" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="121"/>
+      <c r="A63" s="120"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="122" t="s">
+      <c r="A64" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="123" t="s">
+      <c r="A65" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="123"/>
+      <c r="A66" s="122"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="119" t="s">
+      <c r="A67" s="118" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="120" t="s">
+      <c r="A68" s="119" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="121"/>
+      <c r="A69" s="120"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="122" t="s">
+      <c r="A70" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="123" t="s">
+      <c r="A71" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="123"/>
+      <c r="A72" s="122"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="119" t="s">
+      <c r="A73" s="118" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="120" t="s">
+      <c r="A74" s="119" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="121"/>
+      <c r="A75" s="120"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="122" t="s">
+      <c r="A76" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="123" t="s">
+      <c r="A77" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="123"/>
+      <c r="A78" s="122"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="119" t="s">
+      <c r="A79" s="118" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="120" t="s">
+      <c r="A80" s="119" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="121"/>
+      <c r="A81" s="120"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="122" t="s">
+      <c r="A82" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="123" t="s">
+      <c r="A83" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="123"/>
+      <c r="A84" s="122"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="119" t="s">
+      <c r="A85" s="118" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="119" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="121"/>
+      <c r="A87" s="120"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="122" t="s">
+      <c r="A88" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="123" t="s">
+      <c r="A89" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="123"/>
+      <c r="A90" s="122"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="119" t="s">
+      <c r="A91" s="118" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="120" t="s">
+      <c r="A92" s="119" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="121"/>
+      <c r="A93" s="120"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="122" t="s">
+      <c r="A94" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="123" t="s">
+      <c r="A95" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="123"/>
+      <c r="A96" s="122"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="119" t="s">
+      <c r="A97" s="118" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="120" t="s">
+      <c r="A98" s="119" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="121"/>
+      <c r="A99" s="120"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="122" t="s">
+      <c r="A100" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="123" t="s">
+      <c r="A101" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="123"/>
+      <c r="A102" s="122"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="119" t="s">
+      <c r="A103" s="118" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="120" t="s">
+      <c r="A104" s="119" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="121"/>
+      <c r="A105" s="120"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="122" t="s">
+      <c r="A106" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="123" t="s">
+      <c r="A107" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="123"/>
+      <c r="A108" s="122"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="119" t="s">
+      <c r="A109" s="118" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="120" t="s">
+      <c r="A110" s="119" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="121"/>
+      <c r="A111" s="120"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="122" t="s">
+      <c r="A112" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="123" t="s">
+      <c r="A113" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="123"/>
+      <c r="A114" s="122"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="119" t="s">
+      <c r="A115" s="118" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="120" t="s">
+      <c r="A116" s="119" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="121"/>
+      <c r="A117" s="120"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="122" t="s">
+      <c r="A118" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="123" t="s">
+      <c r="A119" s="122" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="123"/>
+      <c r="A120" s="122"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="119" t="s">
+      <c r="A121" s="118" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="120" t="s">
+      <c r="A122" s="119" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="121"/>
+      <c r="A123" s="120"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="122" t="s">
+      <c r="A124" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="122" t="s">
+      <c r="A125" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="122"/>
+      <c r="A126" s="121"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="119" t="s">
+      <c r="A127" s="118" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="120" t="s">
+      <c r="A128" s="119" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="121"/>
+      <c r="A129" s="120"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="122" t="s">
+      <c r="A130" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="122" t="s">
+      <c r="A131" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="122"/>
+      <c r="A132" s="121"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="119" t="s">
+      <c r="A133" s="118" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="120" t="s">
+      <c r="A134" s="119" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="121"/>
+      <c r="A135" s="120"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="122" t="s">
+      <c r="A136" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="122" t="s">
+      <c r="A137" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="122"/>
+      <c r="A138" s="121"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="119" t="s">
+      <c r="A139" s="118" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="120" t="s">
+      <c r="A140" s="119" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="121"/>
+      <c r="A141" s="120"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="122" t="s">
+      <c r="A142" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="122" t="s">
+      <c r="A143" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="122"/>
+      <c r="A144" s="121"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="119" t="s">
+      <c r="A145" s="118" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="120" t="s">
+      <c r="A146" s="119" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="121"/>
+      <c r="A147" s="120"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="122" t="s">
+      <c r="A148" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="122" t="s">
+      <c r="A149" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="122"/>
+      <c r="A150" s="121"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="119" t="s">
+      <c r="A151" s="118" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="120" t="s">
+      <c r="A152" s="119" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="121"/>
+      <c r="A153" s="120"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="122" t="s">
+      <c r="A154" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="122" t="s">
+      <c r="A155" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="122"/>
+      <c r="A156" s="121"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="119" t="s">
+      <c r="A157" s="118" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="120" t="s">
+      <c r="A158" s="119" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="121"/>
+      <c r="A159" s="120"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="122" t="s">
+      <c r="A160" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="122" t="s">
+      <c r="A161" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="122"/>
+      <c r="A162" s="121"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="119" t="s">
+      <c r="A163" s="118" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="120" t="s">
+      <c r="A164" s="119" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="121"/>
+      <c r="A165" s="120"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="122" t="s">
+      <c r="A166" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="122" t="s">
+      <c r="A167" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="122"/>
+      <c r="A168" s="121"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="119" t="s">
+      <c r="A169" s="118" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="120" t="s">
+      <c r="A170" s="119" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="121"/>
+      <c r="A171" s="120"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="122" t="s">
+      <c r="A172" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="122" t="s">
+      <c r="A173" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="122"/>
+      <c r="A174" s="121"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="119" t="s">
+      <c r="A175" s="118" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="120" t="s">
+      <c r="A176" s="119" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="121"/>
+      <c r="A177" s="120"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="122" t="s">
+      <c r="A178" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="122" t="s">
+      <c r="A179" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="122"/>
+      <c r="A180" s="121"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="119" t="s">
+      <c r="A181" s="118" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="120" t="s">
+      <c r="A182" s="119" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="121"/>
+      <c r="A183" s="120"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="122" t="s">
+      <c r="A184" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="122" t="s">
+      <c r="A185" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="122"/>
+      <c r="A186" s="121"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="119" t="s">
+      <c r="A187" s="118" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="120" t="s">
+      <c r="A188" s="119" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="121"/>
+      <c r="A189" s="120"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="122" t="s">
+      <c r="A190" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="122" t="s">
+      <c r="A191" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="122"/>
+      <c r="A192" s="121"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="119" t="s">
+      <c r="A193" s="118" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="120" t="s">
+      <c r="A194" s="119" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="121"/>
+      <c r="A195" s="120"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="122" t="s">
+      <c r="A196" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="122" t="s">
+      <c r="A197" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="122"/>
+      <c r="A198" s="121"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="119" t="s">
+      <c r="A199" s="118" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="120" t="s">
+      <c r="A200" s="119" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="121"/>
+      <c r="A201" s="120"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="122" t="s">
+      <c r="A202" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="122" t="s">
+      <c r="A203" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="122"/>
+      <c r="A204" s="121"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="119" t="s">
+      <c r="A205" s="118" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="120" t="s">
+      <c r="A206" s="119" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="121"/>
+      <c r="A207" s="120"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="122" t="s">
+      <c r="A208" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="122" t="s">
+      <c r="A209" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="122"/>
+      <c r="A210" s="121"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="119" t="s">
+      <c r="A211" s="118" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="120" t="s">
+      <c r="A212" s="119" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="121"/>
+      <c r="A213" s="120"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="122" t="s">
+      <c r="A214" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="122" t="s">
+      <c r="A215" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="122"/>
+      <c r="A216" s="121"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="119" t="s">
+      <c r="A217" s="118" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="120" t="s">
+      <c r="A218" s="119" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="121"/>
+      <c r="A219" s="120"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="122" t="s">
+      <c r="A220" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="122" t="s">
+      <c r="A221" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="122"/>
+      <c r="A222" s="121"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="119" t="s">
+      <c r="A223" s="118" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="120" t="s">
+      <c r="A224" s="119" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="121"/>
+      <c r="A225" s="120"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="122" t="s">
+      <c r="A226" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="122" t="s">
+      <c r="A227" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="122"/>
+      <c r="A228" s="121"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="119" t="s">
+      <c r="A229" s="118" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="120" t="s">
+      <c r="A230" s="119" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="121"/>
+      <c r="A231" s="120"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="122" t="s">
+      <c r="A232" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="122" t="s">
+      <c r="A233" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="122"/>
+      <c r="A234" s="121"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="119" t="s">
+      <c r="A235" s="118" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="120" t="s">
+      <c r="A236" s="119" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="121"/>
+      <c r="A237" s="120"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="122" t="s">
+      <c r="A238" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="122" t="s">
+      <c r="A239" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="122"/>
+      <c r="A240" s="121"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="119" t="s">
+      <c r="A241" s="118" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="120" t="s">
+      <c r="A242" s="119" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="121"/>
+      <c r="A243" s="120"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="122" t="s">
+      <c r="A244" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="122" t="s">
+      <c r="A245" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="122"/>
+      <c r="A246" s="121"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="119" t="s">
+      <c r="A247" s="118" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="120" t="s">
+      <c r="A248" s="119" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="121"/>
+      <c r="A249" s="120"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="122" t="s">
+      <c r="A250" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="122" t="s">
+      <c r="A251" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="122"/>
+      <c r="A252" s="121"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="119" t="s">
+      <c r="A253" s="118" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="120" t="s">
+      <c r="A254" s="119" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="121"/>
+      <c r="A255" s="120"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="122" t="s">
+      <c r="A256" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="122" t="s">
+      <c r="A257" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="122"/>
+      <c r="A258" s="121"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="119" t="s">
+      <c r="A259" s="118" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="120" t="s">
+      <c r="A260" s="119" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="121"/>
+      <c r="A261" s="120"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="122" t="s">
+      <c r="A262" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="122" t="s">
+      <c r="A263" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="122"/>
+      <c r="A264" s="121"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="119" t="s">
+      <c r="A265" s="118" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="120" t="s">
+      <c r="A266" s="119" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="121"/>
+      <c r="A267" s="120"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="122" t="s">
+      <c r="A268" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="122" t="s">
+      <c r="A269" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="122"/>
+      <c r="A270" s="121"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="119" t="s">
+      <c r="A271" s="118" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="120" t="s">
+      <c r="A272" s="119" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="121"/>
+      <c r="A273" s="120"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="122" t="s">
+      <c r="A274" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="122" t="s">
+      <c r="A275" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="122"/>
+      <c r="A276" s="121"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="119" t="s">
+      <c r="A277" s="118" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="120" t="s">
+      <c r="A278" s="119" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="121"/>
+      <c r="A279" s="120"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="122" t="s">
+      <c r="A280" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="122" t="s">
+      <c r="A281" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="122"/>
+      <c r="A282" s="121"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="119" t="s">
+      <c r="A283" s="118" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="120" t="s">
+      <c r="A284" s="119" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="121"/>
+      <c r="A285" s="120"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="122" t="s">
+      <c r="A286" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="122" t="s">
+      <c r="A287" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="122"/>
+      <c r="A288" s="121"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="119" t="s">
+      <c r="A289" s="118" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A290" s="120" t="s">
+      <c r="A290" s="119" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="121"/>
+      <c r="A291" s="120"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="122" t="s">
+      <c r="A292" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="122" t="s">
+      <c r="A293" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="122"/>
+      <c r="A294" s="121"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="119" t="s">
+      <c r="A295" s="118" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="120" t="s">
+      <c r="A296" s="119" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="121"/>
+      <c r="A297" s="120"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="122" t="s">
+      <c r="A298" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="122" t="s">
+      <c r="A299" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="122"/>
+      <c r="A300" s="121"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="119" t="s">
+      <c r="A301" s="118" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A302" s="120" t="s">
+      <c r="A302" s="119" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="121"/>
+      <c r="A303" s="120"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="122" t="s">
+      <c r="A304" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="122" t="s">
+      <c r="A305" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="122"/>
+      <c r="A306" s="121"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="119" t="s">
+      <c r="A307" s="118" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A308" s="120" t="s">
+      <c r="A308" s="119" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="121"/>
+      <c r="A309" s="120"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="122" t="s">
+      <c r="A310" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="122" t="s">
+      <c r="A311" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="122"/>
+      <c r="A312" s="121"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="119" t="s">
+      <c r="A313" s="118" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A314" s="120" t="s">
+      <c r="A314" s="119" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="121"/>
+      <c r="A315" s="120"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="122" t="s">
+      <c r="A316" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="122" t="s">
+      <c r="A317" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="122"/>
+      <c r="A318" s="121"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="119" t="s">
+      <c r="A319" s="118" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="120" t="s">
+      <c r="A320" s="119" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="121"/>
+      <c r="A321" s="120"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="122" t="s">
+      <c r="A322" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="122" t="s">
+      <c r="A323" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="122"/>
+      <c r="A324" s="121"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="119" t="s">
+      <c r="A325" s="118" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="120" t="s">
+      <c r="A326" s="119" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="121"/>
+      <c r="A327" s="120"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="122" t="s">
+      <c r="A328" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="122" t="s">
+      <c r="A329" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="122"/>
+      <c r="A330" s="121"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="119" t="s">
+      <c r="A331" s="118" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="120" t="s">
+      <c r="A332" s="119" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="121"/>
+      <c r="A333" s="120"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="122" t="s">
+      <c r="A334" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="122" t="s">
+      <c r="A335" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="122"/>
+      <c r="A336" s="121"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="119" t="s">
+      <c r="A337" s="118" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A338" s="120" t="s">
+      <c r="A338" s="119" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="121"/>
+      <c r="A339" s="120"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="122" t="s">
+      <c r="A340" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="122" t="s">
+      <c r="A341" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="122"/>
+      <c r="A342" s="121"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="119" t="s">
+      <c r="A343" s="118" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A344" s="120" t="s">
+      <c r="A344" s="119" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="121"/>
+      <c r="A345" s="120"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="122" t="s">
+      <c r="A346" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="122" t="s">
+      <c r="A347" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="122"/>
+      <c r="A348" s="121"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="119" t="s">
+      <c r="A349" s="118" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A350" s="120" t="s">
+      <c r="A350" s="119" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="121"/>
+      <c r="A351" s="120"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="122" t="s">
+      <c r="A352" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="122" t="s">
+      <c r="A353" s="121" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="122"/>
+      <c r="A354" s="121"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="119" t="s">
+      <c r="A355" s="118" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="120" t="s">
+      <c r="A356" s="119" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="121"/>
+      <c r="A357" s="120"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="122" t="s">
+      <c r="A358" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="122" t="s">
+      <c r="A359" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="122"/>
+      <c r="A360" s="121"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="119" t="s">
+      <c r="A361" s="118" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A362" s="120" t="s">
+      <c r="A362" s="119" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="121"/>
+      <c r="A363" s="120"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="122" t="s">
+      <c r="A364" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="122" t="s">
+      <c r="A365" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="122"/>
+      <c r="A366" s="121"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="119" t="s">
+      <c r="A367" s="118" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="120" t="s">
+      <c r="A368" s="119" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="121"/>
+      <c r="A369" s="120"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="122" t="s">
+      <c r="A370" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="122" t="s">
+      <c r="A371" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="122"/>
+      <c r="A372" s="121"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="119" t="s">
+      <c r="A373" s="118" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A374" s="120" t="s">
+      <c r="A374" s="119" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="121"/>
+      <c r="A375" s="120"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="122" t="s">
+      <c r="A376" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="122" t="s">
+      <c r="A377" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="122"/>
+      <c r="A378" s="121"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="119" t="s">
+      <c r="A379" s="118" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A380" s="120" t="s">
+      <c r="A380" s="119" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="121"/>
+      <c r="A381" s="120"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="122" t="s">
+      <c r="A382" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="122" t="s">
+      <c r="A383" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="122"/>
+      <c r="A384" s="121"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="119" t="s">
+      <c r="A385" s="118" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="120" t="s">
+      <c r="A386" s="119" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="121"/>
+      <c r="A387" s="120"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="122" t="s">
+      <c r="A388" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="122" t="s">
+      <c r="A389" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="122"/>
+      <c r="A390" s="121"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="119" t="s">
+      <c r="A391" s="118" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A392" s="120" t="s">
+      <c r="A392" s="119" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="121"/>
+      <c r="A393" s="120"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="122" t="s">
+      <c r="A394" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="122" t="s">
+      <c r="A395" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="122"/>
+      <c r="A396" s="121"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="119" t="s">
+      <c r="A397" s="118" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A398" s="120" t="s">
+      <c r="A398" s="119" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="121"/>
+      <c r="A399" s="120"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="122" t="s">
+      <c r="A400" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="122" t="s">
+      <c r="A401" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="122"/>
+      <c r="A402" s="121"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="119" t="s">
+      <c r="A403" s="118" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A404" s="120" t="s">
+      <c r="A404" s="119" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="121"/>
+      <c r="A405" s="120"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="122" t="s">
+      <c r="A406" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="122" t="s">
+      <c r="A407" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="122"/>
+      <c r="A408" s="121"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="119" t="s">
+      <c r="A409" s="118" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A410" s="120" t="s">
+      <c r="A410" s="119" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="121"/>
+      <c r="A411" s="120"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="122" t="s">
+      <c r="A412" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="122" t="s">
+      <c r="A413" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="122"/>
+      <c r="A414" s="121"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="119" t="s">
+      <c r="A415" s="118" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A416" s="120" t="s">
+      <c r="A416" s="119" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="121"/>
+      <c r="A417" s="120"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="122" t="s">
+      <c r="A418" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="122" t="s">
+      <c r="A419" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="122"/>
+      <c r="A420" s="121"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="119" t="s">
+      <c r="A421" s="118" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="120" t="s">
+      <c r="A422" s="119" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="121"/>
+      <c r="A423" s="120"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="122" t="s">
+      <c r="A424" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="122" t="s">
+      <c r="A425" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="122"/>
+      <c r="A426" s="121"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="119" t="s">
+      <c r="A427" s="118" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="120" t="s">
+      <c r="A428" s="119" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="121"/>
+      <c r="A429" s="120"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="122" t="s">
+      <c r="A430" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="122" t="s">
+      <c r="A431" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="122"/>
+      <c r="A432" s="121"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="119" t="s">
+      <c r="A433" s="118" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="120" t="s">
+      <c r="A434" s="119" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="121"/>
+      <c r="A435" s="120"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="122" t="s">
+      <c r="A436" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="122" t="s">
+      <c r="A437" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="122"/>
+      <c r="A438" s="121"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="119" t="s">
+      <c r="A439" s="118" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A440" s="124" t="s">
+      <c r="A440" s="123" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="121"/>
+      <c r="A441" s="120"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="122" t="s">
+      <c r="A442" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="122" t="s">
+      <c r="A443" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="122"/>
+      <c r="A444" s="121"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="119" t="s">
+      <c r="A445" s="118" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A446" s="120" t="s">
+      <c r="A446" s="119" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="121"/>
+      <c r="A447" s="120"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="122" t="s">
+      <c r="A448" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="122" t="s">
+      <c r="A449" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="122"/>
+      <c r="A450" s="121"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="119" t="s">
+      <c r="A451" s="118" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A452" s="120" t="s">
+      <c r="A452" s="119" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="121"/>
+      <c r="A453" s="120"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="122" t="s">
+      <c r="A454" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="122" t="s">
+      <c r="A455" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="122"/>
+      <c r="A456" s="121"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="119" t="s">
+      <c r="A457" s="118" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="120" t="s">
+      <c r="A458" s="119" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="121"/>
+      <c r="A459" s="120"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="122" t="s">
+      <c r="A460" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="122" t="s">
+      <c r="A461" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="122"/>
+      <c r="A462" s="121"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="119" t="s">
+      <c r="A463" s="118" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A464" s="120" t="s">
+      <c r="A464" s="119" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="121"/>
+      <c r="A465" s="120"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="122" t="s">
+      <c r="A466" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="122" t="s">
+      <c r="A467" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="122"/>
+      <c r="A468" s="121"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="119" t="s">
+      <c r="A469" s="118" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A470" s="120" t="s">
+      <c r="A470" s="119" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="121"/>
+      <c r="A471" s="120"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="122" t="s">
+      <c r="A472" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="122" t="s">
+      <c r="A473" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="122"/>
+      <c r="A474" s="121"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="119" t="s">
+      <c r="A475" s="118" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A476" s="120" t="s">
+      <c r="A476" s="119" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="121"/>
+      <c r="A477" s="120"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="122" t="s">
+      <c r="A478" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="122" t="s">
+      <c r="A479" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="122"/>
+      <c r="A480" s="121"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="119" t="s">
+      <c r="A481" s="118" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A482" s="120" t="s">
+      <c r="A482" s="119" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="121"/>
+      <c r="A483" s="120"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="122" t="s">
+      <c r="A484" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="122" t="s">
+      <c r="A485" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="122"/>
+      <c r="A486" s="121"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="119" t="s">
+      <c r="A487" s="118" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A488" s="120" t="s">
+      <c r="A488" s="119" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="121"/>
+      <c r="A489" s="120"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="122" t="s">
+      <c r="A490" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="122" t="s">
+      <c r="A491" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="122"/>
+      <c r="A492" s="121"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="119" t="s">
+      <c r="A493" s="118" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A494" s="120" t="s">
+      <c r="A494" s="119" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="121"/>
+      <c r="A495" s="120"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="122" t="s">
+      <c r="A496" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="122" t="s">
+      <c r="A497" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="122"/>
+      <c r="A498" s="121"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="119" t="s">
+      <c r="A499" s="118" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A500" s="120" t="s">
+      <c r="A500" s="119" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="121"/>
+      <c r="A501" s="120"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="122" t="s">
+      <c r="A502" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="122" t="s">
+      <c r="A503" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="122"/>
+      <c r="A504" s="121"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="119" t="s">
+      <c r="A505" s="118" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A506" s="120" t="s">
+      <c r="A506" s="119" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="121"/>
+      <c r="A507" s="120"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="122" t="s">
+      <c r="A508" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="122" t="s">
+      <c r="A509" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="122"/>
+      <c r="A510" s="121"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="119" t="s">
+      <c r="A511" s="118" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A512" s="120" t="s">
+      <c r="A512" s="119" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="121"/>
+      <c r="A513" s="120"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="122" t="s">
+      <c r="A514" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="122" t="s">
+      <c r="A515" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="122"/>
+      <c r="A516" s="121"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="119" t="s">
+      <c r="A517" s="118" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A518" s="120" t="s">
+      <c r="A518" s="119" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="121"/>
+      <c r="A519" s="120"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="125" t="s">
+      <c r="A520" s="124" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="122" t="s">
+      <c r="A521" s="121" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="122"/>
+      <c r="A522" s="121"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="119" t="s">
+      <c r="A523" s="118" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A524" s="120" t="s">
+      <c r="A524" s="119" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="121"/>
+      <c r="A525" s="120"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="122" t="s">
+      <c r="A526" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="122" t="s">
+      <c r="A527" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="122"/>
+      <c r="A528" s="121"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="119" t="s">
+      <c r="A529" s="118" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="530" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A530" s="120" t="s">
+      <c r="A530" s="119" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="121"/>
+      <c r="A531" s="120"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="122" t="s">
+      <c r="A532" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="122" t="s">
+      <c r="A533" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="122"/>
+      <c r="A534" s="121"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="119" t="s">
+      <c r="A535" s="118" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A536" s="120" t="s">
+      <c r="A536" s="119" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="121"/>
+      <c r="A537" s="120"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="125" t="s">
+      <c r="A538" s="124" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="122" t="s">
+      <c r="A539" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="122"/>
+      <c r="A540" s="121"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="119" t="s">
+      <c r="A541" s="118" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A542" s="120" t="s">
+      <c r="A542" s="119" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="121"/>
+      <c r="A543" s="120"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="122" t="s">
+      <c r="A544" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="122" t="s">
+      <c r="A545" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="122"/>
+      <c r="A546" s="121"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="119" t="s">
+      <c r="A547" s="118" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A548" s="120" t="s">
+      <c r="A548" s="119" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="121"/>
+      <c r="A549" s="120"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="122" t="s">
+      <c r="A550" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="122" t="s">
+      <c r="A551" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="122"/>
+      <c r="A552" s="121"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="119" t="s">
+      <c r="A553" s="118" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="554" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A554" s="120" t="s">
+      <c r="A554" s="119" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="121"/>
+      <c r="A555" s="120"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="122" t="s">
+      <c r="A556" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="122" t="s">
+      <c r="A557" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="122"/>
+      <c r="A558" s="121"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="119" t="s">
+      <c r="A559" s="118" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A560" s="120" t="s">
+      <c r="A560" s="119" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="121"/>
+      <c r="A561" s="120"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="122" t="s">
+      <c r="A562" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="122" t="s">
+      <c r="A563" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="122"/>
+      <c r="A564" s="121"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="119" t="s">
+      <c r="A565" s="118" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A566" s="120" t="s">
+      <c r="A566" s="119" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="121"/>
+      <c r="A567" s="120"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="122" t="s">
+      <c r="A568" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="122" t="s">
+      <c r="A569" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="122"/>
+      <c r="A570" s="121"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="119" t="s">
+      <c r="A571" s="118" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A572" s="120" t="s">
+      <c r="A572" s="119" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="121"/>
+      <c r="A573" s="120"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="122" t="s">
+      <c r="A574" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="122" t="s">
+      <c r="A575" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="122"/>
+      <c r="A576" s="121"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="119" t="s">
+      <c r="A577" s="118" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A578" s="120" t="s">
+      <c r="A578" s="119" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="121"/>
+      <c r="A579" s="120"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="122" t="s">
+      <c r="A580" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="122" t="s">
+      <c r="A581" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="122"/>
+      <c r="A582" s="121"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="119" t="s">
+      <c r="A583" s="118" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A584" s="120" t="s">
+      <c r="A584" s="119" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="121"/>
+      <c r="A585" s="120"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="122" t="s">
+      <c r="A586" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="122" t="s">
+      <c r="A587" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="122"/>
+      <c r="A588" s="121"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="119" t="s">
+      <c r="A589" s="118" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A590" s="120" t="s">
+      <c r="A590" s="119" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="121"/>
+      <c r="A591" s="120"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="122" t="s">
+      <c r="A592" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="122" t="s">
+      <c r="A593" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="122"/>
+      <c r="A594" s="121"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="119" t="s">
+      <c r="A595" s="118" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A596" s="120" t="s">
+      <c r="A596" s="119" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="121"/>
+      <c r="A597" s="120"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="122" t="s">
+      <c r="A598" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="122" t="s">
+      <c r="A599" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="122"/>
+      <c r="A600" s="121"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="119" t="s">
+      <c r="A601" s="118" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A602" s="120" t="s">
+      <c r="A602" s="119" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="121"/>
+      <c r="A603" s="120"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="122" t="s">
+      <c r="A604" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="122" t="s">
+      <c r="A605" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="122"/>
+      <c r="A606" s="121"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="119" t="s">
+      <c r="A607" s="118" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A608" s="120" t="s">
+      <c r="A608" s="119" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="121"/>
+      <c r="A609" s="120"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="122" t="s">
+      <c r="A610" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="122" t="s">
+      <c r="A611" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="122"/>
+      <c r="A612" s="121"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="119" t="s">
+      <c r="A613" s="118" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="614" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A614" s="120" t="s">
+      <c r="A614" s="119" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="121"/>
+      <c r="A615" s="120"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="122" t="s">
+      <c r="A616" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="122" t="s">
+      <c r="A617" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="122"/>
+      <c r="A618" s="121"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="119" t="s">
+      <c r="A619" s="118" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="620" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A620" s="120" t="s">
+      <c r="A620" s="119" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="121"/>
+      <c r="A621" s="120"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="122" t="s">
+      <c r="A622" s="121" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="122" t="s">
+      <c r="A623" s="121" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="122"/>
+      <c r="A624" s="121"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="113" t="s">
+      <c r="A625" s="112" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A626" s="114" t="s">
+      <c r="A626" s="113" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="115"/>
+      <c r="A627" s="114"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="116" t="s">
+      <c r="A628" s="115" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="116" t="s">
+      <c r="A629" s="115" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="116"/>
+      <c r="A630" s="115"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="126" t="s">
+      <c r="A631" s="125" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A632" s="127" t="s">
+      <c r="A632" s="126" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="127" t="s">
+      <c r="A633" s="126" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="117"/>
+      <c r="A634" s="116"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="128" t="s">
+      <c r="A635" s="127" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="117"/>
+      <c r="A636" s="116"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="127" t="s">
+      <c r="A637" s="126" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="117"/>
+      <c r="A639" s="116"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="118" t="s">
+      <c r="A640" s="117" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="117"/>
+      <c r="A641" s="116"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="129" t="s">
+      <c r="A642" s="128" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="113" t="s">
+      <c r="A643" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="644" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A644" s="114" t="s">
+      <c r="A644" s="113" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="115"/>
+      <c r="A645" s="114"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="116" t="s">
+      <c r="A646" s="115" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="116" t="s">
+      <c r="A647" s="115" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="116"/>
+      <c r="A648" s="115"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="113" t="s">
+      <c r="A649" s="112" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="650" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A650" s="114" t="s">
+      <c r="A650" s="113" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="115"/>
+      <c r="A651" s="114"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="116" t="s">
+      <c r="A652" s="115" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="116" t="s">
+      <c r="A653" s="115" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="116"/>
+      <c r="A654" s="115"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="113" t="s">
+      <c r="A655" s="112" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="656" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A656" s="114" t="s">
+      <c r="A656" s="113" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="115"/>
+      <c r="A657" s="114"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="116" t="s">
+      <c r="A658" s="115" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="116"/>
+      <c r="A659" s="115"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="116" t="s">
+      <c r="A660" s="115" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="116"/>
+      <c r="A661" s="115"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="113" t="s">
+      <c r="A662" s="112" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="663" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A663" s="114" t="s">
+      <c r="A663" s="113" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="115"/>
+      <c r="A664" s="114"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="116" t="s">
+      <c r="A665" s="115" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="116"/>
+      <c r="A666" s="115"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="116" t="s">
+      <c r="A667" s="115" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="116"/>
+      <c r="A668" s="115"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="113" t="s">
+      <c r="A669" s="112" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="670" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A670" s="114" t="s">
+      <c r="A670" s="113" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="115"/>
+      <c r="A671" s="114"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="116"/>
+      <c r="A672" s="115"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="116"/>
+      <c r="A673" s="115"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="116"/>
+      <c r="A674" s="115"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="116"/>
+      <c r="A675" s="115"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="113" t="s">
+      <c r="A676" s="112" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A677" s="114" t="s">
+      <c r="A677" s="113" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="115"/>
+      <c r="A678" s="114"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="116"/>
+      <c r="A679" s="115"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="116"/>
+      <c r="A680" s="115"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="116"/>
+      <c r="A681" s="115"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="116"/>
+      <c r="A682" s="115"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="113"/>
+      <c r="A683" s="112"/>
     </row>
     <row r="684" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A684" s="114" t="s">
+      <c r="A684" s="113" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="115"/>
+      <c r="A685" s="114"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="116"/>
+      <c r="A686" s="115"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="116"/>
+      <c r="A687" s="115"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="116"/>
+      <c r="A688" s="115"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="116"/>
+      <c r="A689" s="115"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -26924,14 +26951,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26996,14 +27023,14 @@
       <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27066,13 +27093,13 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -27215,14 +27242,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27274,12 +27301,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024D76020AE708242B68336FA618CBCDF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d53f460e102142885dbc8938524af06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df3f84f5-0dce-435a-abac-67420900ba59" xmlns:ns4="c8965576-7528-46e3-a68d-d4bc5141fdaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51dd3132ab51039a0b8a02bab29c14ac" ns3:_="" ns4:_="">
     <xsd:import namespace="df3f84f5-0dce-435a-abac-67420900ba59"/>
@@ -27502,6 +27523,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
   <ds:schemaRefs>
@@ -27511,23 +27538,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
-    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC42E61D-1BC2-43F5-95E9-ABDA8B3BC8C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27544,4 +27554,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
+    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DBB44D-72EF-400C-ABCC-B1A749DEEC18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17FE169-63B2-474C-A64E-5BB7C1A8DC96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" activeTab="1" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
@@ -39,7 +39,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH_Improved'!$A$3:$H$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH_Improved'!$A$3:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="500">
   <si>
     <t>SR#</t>
   </si>
@@ -2305,26 +2305,14 @@
     <t>Suggested</t>
   </si>
   <si>
-    <t>Cypress &amp; e2e Training</t>
-  </si>
-  <si>
     <t>Progress / Certifications</t>
   </si>
   <si>
     <t>7 Days</t>
-  </si>
-  <si>
-    <t>25 Days</t>
-  </si>
-  <si>
-    <t>32 Days</t>
   </si>
   <si>
     <t>Assessment / Exam
 Status</t>
-  </si>
-  <si>
-    <t>2h 41m</t>
   </si>
   <si>
     <t>In  Progress…</t>
@@ -8065,6 +8053,18 @@
   </si>
   <si>
     <t>January '22</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Completed…</t>
+  </si>
+  <si>
+    <t>Automtion: Cypress &amp; e2e Training</t>
   </si>
 </sst>
 </file>
@@ -8512,7 +8512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8946,6 +8946,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20938,7 +20941,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="138" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B1" s="138"/>
       <c r="C1" s="138"/>
@@ -20948,22 +20951,22 @@
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="130" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="131" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>474</v>
+      </c>
+      <c r="D2" s="132" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="131" t="s">
-        <v>477</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>478</v>
-      </c>
-      <c r="D2" s="132" t="s">
-        <v>480</v>
-      </c>
       <c r="E2" s="137" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F2" s="137" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -20971,13 +20974,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="135" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C3" s="134">
         <v>44541</v>
       </c>
       <c r="D3" s="133" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E3" s="135">
         <v>4.25</v>
@@ -20991,13 +20994,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="135" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C4" s="134">
         <v>44542</v>
       </c>
       <c r="D4" s="136" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E4" s="135">
         <v>0</v>
@@ -21011,13 +21014,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C5" s="129">
         <v>44543</v>
       </c>
       <c r="D5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -21031,13 +21034,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C6" s="129">
         <v>44544</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
@@ -21051,13 +21054,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C7" s="129">
         <v>44545</v>
       </c>
       <c r="D7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E7" s="5">
         <v>2.4500000000000002</v>
@@ -21071,13 +21074,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C8" s="129">
         <v>44546</v>
       </c>
       <c r="D8" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E8" s="5">
         <v>2.06</v>
@@ -21091,13 +21094,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C9" s="129">
         <v>44547</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E9" s="5">
         <v>2.15</v>
@@ -21111,13 +21114,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="135" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C10" s="134">
         <v>44548</v>
       </c>
       <c r="D10" s="136" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E10" s="135">
         <v>0</v>
@@ -21131,13 +21134,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C11" s="134">
         <v>44549</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E11" s="135">
         <v>0</v>
@@ -21151,13 +21154,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C12" s="129">
         <v>44550</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E12" s="5">
         <v>2</v>
@@ -21171,13 +21174,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C13" s="129">
         <v>44551</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E13" s="5">
         <v>2</v>
@@ -21191,13 +21194,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C14" s="129">
         <v>44552</v>
       </c>
       <c r="D14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E14" s="5">
         <v>2</v>
@@ -21211,13 +21214,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C15" s="129">
         <v>44553</v>
       </c>
       <c r="D15" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E15" s="5">
         <v>2</v>
@@ -21231,13 +21234,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C16" s="129">
         <v>44554</v>
       </c>
       <c r="D16" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E16" s="5">
         <v>2</v>
@@ -21251,7 +21254,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C17" s="134">
         <v>44555</v>
@@ -21269,7 +21272,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="135" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C18" s="134">
         <v>44556</v>
@@ -21287,7 +21290,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C19" s="129">
         <v>44557</v>
@@ -21301,7 +21304,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C20" s="129">
         <v>44558</v>
@@ -21315,7 +21318,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C21" s="129">
         <v>44559</v>
@@ -21329,7 +21332,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C22" s="129">
         <v>44560</v>
@@ -21343,7 +21346,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C23" s="129">
         <v>44561</v>
@@ -21357,7 +21360,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="135" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C24" s="134">
         <v>44562</v>
@@ -21375,7 +21378,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C25" s="134">
         <v>44563</v>
@@ -21393,7 +21396,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C26" s="129">
         <v>44564</v>
@@ -21407,7 +21410,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C27" s="129">
         <v>44565</v>
@@ -21421,7 +21424,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C28" s="129">
         <v>44566</v>
@@ -21435,7 +21438,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C29" s="129">
         <v>44567</v>
@@ -21449,7 +21452,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C30" s="129">
         <v>44568</v>
@@ -21463,7 +21466,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="83" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C31" s="134">
         <v>44569</v>
@@ -21481,7 +21484,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="135" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C32" s="134">
         <v>44570</v>
@@ -21499,7 +21502,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C33" s="129">
         <v>44571</v>
@@ -21513,7 +21516,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C34" s="129">
         <v>44572</v>
@@ -21524,7 +21527,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" s="139" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D35" s="139"/>
       <c r="E35" s="135">
@@ -21538,7 +21541,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="138" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B37" s="138"/>
       <c r="C37" s="138"/>
@@ -21547,19 +21550,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="130" t="s">
+        <v>472</v>
+      </c>
+      <c r="B38" s="131" t="s">
+        <v>473</v>
+      </c>
+      <c r="C38" s="131" t="s">
+        <v>474</v>
+      </c>
+      <c r="D38" s="132" t="s">
         <v>476</v>
       </c>
-      <c r="B38" s="131" t="s">
-        <v>477</v>
-      </c>
-      <c r="C38" s="131" t="s">
-        <v>478</v>
-      </c>
-      <c r="D38" s="132" t="s">
-        <v>480</v>
-      </c>
       <c r="E38" s="131" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -22795,13 +22798,13 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22811,12 +22814,10 @@
     <col min="3" max="3" width="67.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="101"/>
       <c r="B1" s="142" t="s">
         <v>14</v>
@@ -22824,11 +22825,9 @@
       <c r="C1" s="143"/>
       <c r="D1" s="143"/>
       <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="144"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="144"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="102"/>
       <c r="B2" s="145" t="s">
         <v>54</v>
@@ -22837,10 +22836,8 @@
       <c r="D2" s="145"/>
       <c r="E2" s="145"/>
       <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
         <v>0</v>
       </c>
@@ -22857,16 +22854,10 @@
         <v>18</v>
       </c>
       <c r="F3" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="104" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -22879,16 +22870,12 @@
       <c r="D4" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="105" t="s">
-        <v>226</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="155" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="82">
         <v>2</v>
       </c>
@@ -22901,19 +22888,17 @@
       <c r="D5" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="76" t="s">
-        <v>226</v>
+      <c r="E5" s="155" t="s">
+        <v>497</v>
       </c>
       <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="100">
         <v>3</v>
       </c>
       <c r="B6" s="154" t="s">
-        <v>219</v>
+        <v>499</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="141" t="s">
@@ -22921,10 +22906,8 @@
       </c>
       <c r="E6" s="76"/>
       <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="98">
         <v>3.1</v>
       </c>
@@ -22935,12 +22918,14 @@
         <v>207</v>
       </c>
       <c r="D7" s="141"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7" s="105" t="s">
+        <v>498</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="98">
         <v>3.2</v>
       </c>
@@ -22953,10 +22938,8 @@
       <c r="D8" s="141"/>
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="98">
         <v>3.3</v>
       </c>
@@ -22969,10 +22952,8 @@
       <c r="D9" s="141"/>
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="99">
         <v>3.4</v>
       </c>
@@ -22985,10 +22966,8 @@
       <c r="D10" s="141"/>
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70">
         <v>4</v>
       </c>
@@ -23003,10 +22982,8 @@
       </c>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70">
         <v>5</v>
       </c>
@@ -23021,10 +22998,8 @@
       </c>
       <c r="E12" s="76"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70">
         <v>6</v>
       </c>
@@ -23039,10 +23014,8 @@
       </c>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70">
         <v>7</v>
       </c>
@@ -23057,10 +23030,8 @@
       </c>
       <c r="E14" s="76"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="73">
         <v>8</v>
       </c>
@@ -23075,10 +23046,8 @@
       </c>
       <c r="E15" s="85"/>
       <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="73">
         <v>9</v>
       </c>
@@ -23093,10 +23062,8 @@
       </c>
       <c r="E16" s="85"/>
       <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="70">
         <v>10</v>
       </c>
@@ -23111,10 +23078,8 @@
       </c>
       <c r="E17" s="85"/>
       <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="73">
         <v>11</v>
       </c>
@@ -23129,10 +23094,8 @@
       </c>
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="73">
         <v>12</v>
       </c>
@@ -23147,10 +23110,8 @@
       </c>
       <c r="E19" s="85"/>
       <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="73">
         <v>13</v>
       </c>
@@ -23165,10 +23126,8 @@
       </c>
       <c r="E20" s="85"/>
       <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="73">
         <v>14</v>
       </c>
@@ -23183,10 +23142,8 @@
       </c>
       <c r="E21" s="86"/>
       <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="73">
         <v>15</v>
       </c>
@@ -23201,22 +23158,18 @@
       </c>
       <c r="E22" s="86"/>
       <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="140"/>
       <c r="C24" s="140"/>
       <c r="D24" s="140"/>
       <c r="E24" s="140"/>
       <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="77">
         <v>1</v>
       </c>
@@ -23232,17 +23185,11 @@
       <c r="E25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="81" t="s">
+      <c r="F25" s="81" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="77">
         <v>2</v>
       </c>
@@ -23256,32 +23203,26 @@
         <v>40</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="81" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="67"/>
       <c r="B27" s="21"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
       <c r="B28" s="21"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="67"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="68" t="s">
         <v>218</v>
       </c>
@@ -23290,12 +23231,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H23" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
+  <autoFilter ref="A3:F23" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
   <mergeCells count="4">
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A24:F24"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C12" r:id="rId1" xr:uid="{27A6CB59-A826-4E9D-A404-1E6CC0FFCC9E}"/>
@@ -23824,7 +23765,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="148" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C1" s="148"/>
       <c r="D1" s="106"/>
@@ -23835,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -23852,13 +23793,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -23866,25 +23807,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="109" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="110"/>
       <c r="B5" s="107" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="110"/>
       <c r="B6" s="107" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="107" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -23892,19 +23833,19 @@
         <v>1.2</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="107" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="110"/>
       <c r="B10" s="107" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -23912,19 +23853,19 @@
         <v>1.3</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="110"/>
       <c r="B12" s="107" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="110"/>
       <c r="B13" s="107" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -23932,7 +23873,7 @@
         <v>1.4</v>
       </c>
       <c r="B14" s="109" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -23963,12 +23904,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="118" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="119" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -23976,12 +23917,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -23989,12 +23930,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="119" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -24002,12 +23943,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="122" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -24015,12 +23956,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="119" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -24028,12 +23969,12 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -24041,12 +23982,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="118" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="119" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -24054,12 +23995,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -24067,12 +24008,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="118" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="119" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -24080,12 +24021,12 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -24093,12 +24034,12 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="118" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="119" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -24106,12 +24047,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -24119,12 +24060,12 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="118" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="119" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -24132,12 +24073,12 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -24145,12 +24086,12 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="118" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="119" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -24158,12 +24099,12 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -24171,12 +24112,12 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="118" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="119" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -24184,12 +24125,12 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
@@ -24197,12 +24138,12 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="118" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="119" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -24210,12 +24151,12 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
@@ -24223,12 +24164,12 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="118" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="119" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
@@ -24236,12 +24177,12 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -24249,12 +24190,12 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="118" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="119" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -24262,12 +24203,12 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -24275,12 +24216,12 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="118" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="119" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
@@ -24288,12 +24229,12 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -24301,12 +24242,12 @@
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="118" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="119" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -24314,12 +24255,12 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -24327,12 +24268,12 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="118" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="119" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -24340,12 +24281,12 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -24353,12 +24294,12 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="118" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="119" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -24366,12 +24307,12 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
@@ -24379,12 +24320,12 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="118" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="119" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
@@ -24392,12 +24333,12 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
@@ -24405,12 +24346,12 @@
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="118" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="119" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
@@ -24418,12 +24359,12 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
@@ -24431,12 +24372,12 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="118" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="119" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -24444,12 +24385,12 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -24457,12 +24398,12 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="118" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="119" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -24470,12 +24411,12 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="122" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
@@ -24483,12 +24424,12 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="118" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="119" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -24496,12 +24437,12 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -24509,12 +24450,12 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="118" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="119" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -24522,12 +24463,12 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
@@ -24535,12 +24476,12 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="118" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="119" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
@@ -24548,12 +24489,12 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
@@ -24561,12 +24502,12 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="118" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="119" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
@@ -24574,12 +24515,12 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -24587,12 +24528,12 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="118" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="119" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
@@ -24600,12 +24541,12 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
@@ -24613,12 +24554,12 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="118" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="119" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
@@ -24626,12 +24567,12 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
@@ -24639,12 +24580,12 @@
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="118" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="119" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
@@ -24652,12 +24593,12 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
@@ -24665,12 +24606,12 @@
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="118" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="119" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -24678,12 +24619,12 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
@@ -24691,12 +24632,12 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="118" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="119" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
@@ -24704,12 +24645,12 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
@@ -24717,12 +24658,12 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="118" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="119" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
@@ -24730,12 +24671,12 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
@@ -24743,12 +24684,12 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="118" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="119" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
@@ -24756,12 +24697,12 @@
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
@@ -24769,12 +24710,12 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="118" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="119" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
@@ -24782,12 +24723,12 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
@@ -24795,12 +24736,12 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="118" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="119" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
@@ -24808,12 +24749,12 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
@@ -24821,12 +24762,12 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="118" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="119" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -24834,12 +24775,12 @@
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
@@ -24847,12 +24788,12 @@
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="118" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="119" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -24860,12 +24801,12 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
@@ -24873,12 +24814,12 @@
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="118" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="119" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
@@ -24886,12 +24827,12 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
@@ -24899,12 +24840,12 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="118" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="119" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
@@ -24912,12 +24853,12 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
@@ -24925,12 +24866,12 @@
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="118" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="119" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -24938,12 +24879,12 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
@@ -24951,12 +24892,12 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="118" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="119" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -24964,12 +24905,12 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
@@ -24977,12 +24918,12 @@
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="118" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="119" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -24990,12 +24931,12 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -25003,12 +24944,12 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="118" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="119" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
@@ -25016,12 +24957,12 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
@@ -25029,12 +24970,12 @@
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="118" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="119" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -25042,12 +24983,12 @@
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
@@ -25055,12 +24996,12 @@
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="118" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="119" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
@@ -25068,12 +25009,12 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
@@ -25081,12 +25022,12 @@
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="118" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="119" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
@@ -25094,12 +25035,12 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
@@ -25107,12 +25048,12 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="118" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="119" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
@@ -25120,12 +25061,12 @@
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
@@ -25133,12 +25074,12 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="118" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="119" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -25146,12 +25087,12 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
@@ -25159,12 +25100,12 @@
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="118" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="119" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -25172,12 +25113,12 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
@@ -25185,12 +25126,12 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="118" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="119" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -25198,12 +25139,12 @@
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
@@ -25211,12 +25152,12 @@
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="118" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="119" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
@@ -25224,12 +25165,12 @@
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
@@ -25237,12 +25178,12 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="118" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="119" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
@@ -25250,12 +25191,12 @@
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -25263,12 +25204,12 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="118" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="119" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
@@ -25276,12 +25217,12 @@
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
@@ -25289,12 +25230,12 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="118" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="119" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
@@ -25302,12 +25243,12 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
@@ -25315,12 +25256,12 @@
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="118" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="119" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
@@ -25328,12 +25269,12 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -25341,12 +25282,12 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="118" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="119" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
@@ -25354,12 +25295,12 @@
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
@@ -25367,12 +25308,12 @@
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="118" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="119" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
@@ -25380,12 +25321,12 @@
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
@@ -25393,12 +25334,12 @@
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="118" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="119" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -25406,12 +25347,12 @@
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
@@ -25419,12 +25360,12 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="118" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" s="119" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -25432,12 +25373,12 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
@@ -25445,12 +25386,12 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="118" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="119" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -25458,12 +25399,12 @@
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
@@ -25471,12 +25412,12 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="118" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" s="119" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
@@ -25484,12 +25425,12 @@
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="121" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
@@ -25497,12 +25438,12 @@
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="118" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="119" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
@@ -25510,12 +25451,12 @@
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -25523,12 +25464,12 @@
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="118" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="119" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
@@ -25536,12 +25477,12 @@
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
@@ -25549,12 +25490,12 @@
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="118" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="119" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
@@ -25562,12 +25503,12 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
@@ -25575,12 +25516,12 @@
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="118" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" s="119" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
@@ -25588,12 +25529,12 @@
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -25601,12 +25542,12 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="118" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="119" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
@@ -25614,12 +25555,12 @@
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -25627,12 +25568,12 @@
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="118" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="119" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
@@ -25640,12 +25581,12 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
@@ -25653,12 +25594,12 @@
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="118" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" s="119" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -25666,12 +25607,12 @@
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
@@ -25679,12 +25620,12 @@
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="118" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="119" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -25692,12 +25633,12 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
@@ -25705,12 +25646,12 @@
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="118" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="119" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -25718,12 +25659,12 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
@@ -25731,12 +25672,12 @@
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="118" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="119" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
@@ -25744,12 +25685,12 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
@@ -25757,12 +25698,12 @@
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="118" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="119" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
@@ -25770,12 +25711,12 @@
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -25783,12 +25724,12 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="118" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="119" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
@@ -25796,12 +25737,12 @@
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
@@ -25809,12 +25750,12 @@
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="118" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" s="119" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -25822,12 +25763,12 @@
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
@@ -25835,12 +25776,12 @@
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="118" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="119" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
@@ -25848,12 +25789,12 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
@@ -25861,12 +25802,12 @@
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="118" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" s="123" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
@@ -25874,12 +25815,12 @@
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
@@ -25887,12 +25828,12 @@
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="118" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="119" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -25900,12 +25841,12 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
@@ -25913,12 +25854,12 @@
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="118" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" s="119" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
@@ -25926,12 +25867,12 @@
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
@@ -25939,12 +25880,12 @@
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="118" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" s="119" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
@@ -25952,12 +25893,12 @@
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
@@ -25965,12 +25906,12 @@
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="118" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="119" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -25978,12 +25919,12 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
@@ -25991,12 +25932,12 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="118" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="119" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -26004,12 +25945,12 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
@@ -26017,12 +25958,12 @@
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="118" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" s="119" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -26030,12 +25971,12 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
@@ -26043,12 +25984,12 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="118" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A482" s="119" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
@@ -26056,12 +25997,12 @@
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
@@ -26069,12 +26010,12 @@
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="118" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A488" s="119" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
@@ -26082,12 +26023,12 @@
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -26095,12 +26036,12 @@
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="118" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A494" s="119" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
@@ -26108,12 +26049,12 @@
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
@@ -26121,12 +26062,12 @@
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="118" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A500" s="119" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
@@ -26134,12 +26075,12 @@
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
@@ -26147,12 +26088,12 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="118" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" s="119" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
@@ -26160,12 +26101,12 @@
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
@@ -26173,12 +26114,12 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="118" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" s="119" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
@@ -26186,12 +26127,12 @@
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
@@ -26199,12 +26140,12 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="118" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A518" s="119" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -26212,12 +26153,12 @@
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="124" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
@@ -26225,12 +26166,12 @@
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="118" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A524" s="119" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -26238,12 +26179,12 @@
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
@@ -26251,12 +26192,12 @@
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="118" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="530" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A530" s="119" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
@@ -26264,12 +26205,12 @@
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
@@ -26277,12 +26218,12 @@
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="118" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A536" s="119" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
@@ -26290,12 +26231,12 @@
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="124" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
@@ -26303,12 +26244,12 @@
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="118" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A542" s="119" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
@@ -26316,12 +26257,12 @@
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
@@ -26329,12 +26270,12 @@
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="118" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="119" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
@@ -26342,12 +26283,12 @@
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
@@ -26355,12 +26296,12 @@
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="118" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="554" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A554" s="119" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
@@ -26368,12 +26309,12 @@
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
@@ -26381,12 +26322,12 @@
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="118" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" s="119" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
@@ -26394,12 +26335,12 @@
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
@@ -26407,12 +26348,12 @@
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="118" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A566" s="119" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
@@ -26420,12 +26361,12 @@
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
@@ -26433,12 +26374,12 @@
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="118" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="119" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
@@ -26446,12 +26387,12 @@
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
@@ -26459,12 +26400,12 @@
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" s="118" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="119" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
@@ -26472,12 +26413,12 @@
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
@@ -26485,12 +26426,12 @@
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583" s="118" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A584" s="119" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
@@ -26498,12 +26439,12 @@
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
@@ -26511,12 +26452,12 @@
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589" s="118" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A590" s="119" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
@@ -26524,12 +26465,12 @@
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
@@ -26537,12 +26478,12 @@
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" s="118" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A596" s="119" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
@@ -26550,12 +26491,12 @@
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
@@ -26563,12 +26504,12 @@
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" s="118" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A602" s="119" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
@@ -26576,12 +26517,12 @@
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
@@ -26589,12 +26530,12 @@
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" s="118" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A608" s="119" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
@@ -26602,12 +26543,12 @@
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
@@ -26615,12 +26556,12 @@
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" s="118" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="614" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A614" s="119" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
@@ -26628,12 +26569,12 @@
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
@@ -26641,12 +26582,12 @@
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619" s="118" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="620" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A620" s="119" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
@@ -26654,12 +26595,12 @@
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" s="121" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
@@ -26667,12 +26608,12 @@
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" s="112" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A626" s="113" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
@@ -26680,12 +26621,12 @@
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628" s="115" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629" s="115" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
@@ -26693,17 +26634,17 @@
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631" s="125" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A632" s="126" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" s="126" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
@@ -26711,7 +26652,7 @@
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" s="127" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
@@ -26719,7 +26660,7 @@
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="126" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
@@ -26727,7 +26668,7 @@
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="117" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
@@ -26735,17 +26676,17 @@
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642" s="128" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" s="112" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="644" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A644" s="113" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
@@ -26753,12 +26694,12 @@
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646" s="115" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647" s="115" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
@@ -26766,12 +26707,12 @@
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649" s="112" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="650" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A650" s="113" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
@@ -26779,12 +26720,12 @@
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" s="115" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" s="115" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
@@ -26792,12 +26733,12 @@
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655" s="112" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="656" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A656" s="113" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
@@ -26805,7 +26746,7 @@
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658" s="115" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
@@ -26813,7 +26754,7 @@
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" s="115" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
@@ -26821,12 +26762,12 @@
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" s="112" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="663" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A663" s="113" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
@@ -26834,7 +26775,7 @@
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" s="115" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
@@ -26842,7 +26783,7 @@
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" s="115" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
@@ -26850,12 +26791,12 @@
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" s="112" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="670" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A670" s="113" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
@@ -26875,12 +26816,12 @@
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" s="112" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A677" s="113" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
@@ -26903,7 +26844,7 @@
     </row>
     <row r="684" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A684" s="113" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">

--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17FE169-63B2-474C-A64E-5BB7C1A8DC96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BF7951-1BDC-4D5D-AE48-77A73BE26164}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" activeTab="1" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Track_Hours_For_Cypress" sheetId="37" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="502">
   <si>
     <t>SR#</t>
   </si>
@@ -8065,6 +8065,12 @@
   </si>
   <si>
     <t>Automtion: Cypress &amp; e2e Training</t>
+  </si>
+  <si>
+    <t>7.35pm - 9.55pm</t>
+  </si>
+  <si>
+    <t>7.05am - 9.05</t>
   </si>
 </sst>
 </file>
@@ -8512,7 +8518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8552,10 +8558,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8564,12 +8566,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -8586,20 +8582,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8625,17 +8609,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8886,6 +8864,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8894,6 +8875,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8939,15 +8955,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20925,8 +20932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973E51C-FF21-4EFD-BEE8-1E89830C0A93}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection sqref="A1:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20940,72 +20947,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="142" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="120" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="121" t="s">
         <v>473</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="121" t="s">
         <v>474</v>
       </c>
-      <c r="D2" s="132" t="s">
+      <c r="D2" s="122" t="s">
         <v>476</v>
       </c>
-      <c r="E2" s="137" t="s">
+      <c r="E2" s="128" t="s">
         <v>492</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="128" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="83">
+      <c r="A3" s="73">
         <v>1</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="126" t="s">
         <v>477</v>
       </c>
-      <c r="C3" s="134">
+      <c r="C3" s="125">
         <v>44541</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="124" t="s">
         <v>478</v>
       </c>
-      <c r="E3" s="135">
+      <c r="E3" s="126">
         <v>4.25</v>
       </c>
-      <c r="F3" s="135">
+      <c r="F3" s="126">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
+      <c r="A4" s="73">
         <v>2</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="126" t="s">
         <v>485</v>
       </c>
-      <c r="C4" s="134">
+      <c r="C4" s="125">
         <v>44542</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="127" t="s">
         <v>490</v>
       </c>
-      <c r="E4" s="135">
+      <c r="E4" s="126">
         <v>0</v>
       </c>
-      <c r="F4" s="135">
+      <c r="F4" s="126">
         <v>0</v>
       </c>
     </row>
@@ -21016,7 +21023,7 @@
       <c r="B5" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="119">
         <v>44543</v>
       </c>
       <c r="D5" t="s">
@@ -21036,7 +21043,7 @@
       <c r="B6" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="129">
+      <c r="C6" s="119">
         <v>44544</v>
       </c>
       <c r="D6" t="s">
@@ -21056,7 +21063,7 @@
       <c r="B7" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="119">
         <v>44545</v>
       </c>
       <c r="D7" t="s">
@@ -21076,7 +21083,7 @@
       <c r="B8" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="129">
+      <c r="C8" s="119">
         <v>44546</v>
       </c>
       <c r="D8" t="s">
@@ -21096,7 +21103,7 @@
       <c r="B9" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C9" s="129">
+      <c r="C9" s="119">
         <v>44547</v>
       </c>
       <c r="D9" t="s">
@@ -21113,19 +21120,19 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="126" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="134">
+      <c r="C10" s="125">
         <v>44548</v>
       </c>
-      <c r="D10" s="136" t="s">
+      <c r="D10" s="127" t="s">
         <v>490</v>
       </c>
-      <c r="E10" s="135">
+      <c r="E10" s="126">
         <v>0</v>
       </c>
-      <c r="F10" s="135">
+      <c r="F10" s="126">
         <v>0</v>
       </c>
     </row>
@@ -21133,19 +21140,19 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="73" t="s">
         <v>485</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="125">
         <v>44549</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D11" s="127" t="s">
         <v>490</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="126">
         <v>0</v>
       </c>
-      <c r="F11" s="135">
+      <c r="F11" s="126">
         <v>0</v>
       </c>
     </row>
@@ -21156,7 +21163,7 @@
       <c r="B12" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C12" s="129">
+      <c r="C12" s="119">
         <v>44550</v>
       </c>
       <c r="D12" t="s">
@@ -21176,7 +21183,7 @@
       <c r="B13" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C13" s="129">
+      <c r="C13" s="119">
         <v>44551</v>
       </c>
       <c r="D13" t="s">
@@ -21196,7 +21203,7 @@
       <c r="B14" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C14" s="129">
+      <c r="C14" s="119">
         <v>44552</v>
       </c>
       <c r="D14" t="s">
@@ -21216,7 +21223,7 @@
       <c r="B15" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C15" s="129">
+      <c r="C15" s="119">
         <v>44553</v>
       </c>
       <c r="D15" t="s">
@@ -21236,7 +21243,7 @@
       <c r="B16" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C16" s="129">
+      <c r="C16" s="119">
         <v>44554</v>
       </c>
       <c r="D16" t="s">
@@ -21250,38 +21257,38 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
+      <c r="A17" s="73">
         <v>15</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="125">
         <v>44555</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="135">
+      <c r="D17" s="124"/>
+      <c r="E17" s="126">
         <v>0</v>
       </c>
-      <c r="F17" s="135">
+      <c r="F17" s="126">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="83">
+      <c r="A18" s="73">
         <v>16</v>
       </c>
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="126" t="s">
         <v>485</v>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="125">
         <v>44556</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="135">
+      <c r="D18" s="124"/>
+      <c r="E18" s="126">
         <v>0</v>
       </c>
-      <c r="F18" s="135">
+      <c r="F18" s="126">
         <v>0</v>
       </c>
     </row>
@@ -21292,8 +21299,14 @@
       <c r="B19" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C19" s="129">
+      <c r="C19" s="119">
         <v>44557</v>
+      </c>
+      <c r="D19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2.2000000000000002</v>
       </c>
       <c r="F19" s="5">
         <v>2</v>
@@ -21306,8 +21319,14 @@
       <c r="B20" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C20" s="129">
+      <c r="C20" s="119">
         <v>44558</v>
+      </c>
+      <c r="D20" t="s">
+        <v>501</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
       </c>
       <c r="F20" s="5">
         <v>2</v>
@@ -21320,7 +21339,7 @@
       <c r="B21" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C21" s="129">
+      <c r="C21" s="119">
         <v>44559</v>
       </c>
       <c r="F21" s="5">
@@ -21334,7 +21353,7 @@
       <c r="B22" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="C22" s="129">
+      <c r="C22" s="119">
         <v>44560</v>
       </c>
       <c r="F22" s="5">
@@ -21348,7 +21367,7 @@
       <c r="B23" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C23" s="129">
+      <c r="C23" s="119">
         <v>44561</v>
       </c>
       <c r="F23" s="5">
@@ -21356,38 +21375,38 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="83">
+      <c r="A24" s="73">
         <v>22</v>
       </c>
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="126" t="s">
         <v>477</v>
       </c>
-      <c r="C24" s="134">
+      <c r="C24" s="125">
         <v>44562</v>
       </c>
-      <c r="D24" s="133"/>
-      <c r="E24" s="135">
+      <c r="D24" s="124"/>
+      <c r="E24" s="126">
         <v>0</v>
       </c>
-      <c r="F24" s="135">
+      <c r="F24" s="126">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="83">
+      <c r="A25" s="73">
         <v>23</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="73" t="s">
         <v>485</v>
       </c>
-      <c r="C25" s="134">
+      <c r="C25" s="125">
         <v>44563</v>
       </c>
-      <c r="D25" s="133"/>
-      <c r="E25" s="135">
+      <c r="D25" s="124"/>
+      <c r="E25" s="126">
         <v>0</v>
       </c>
-      <c r="F25" s="135">
+      <c r="F25" s="126">
         <v>0</v>
       </c>
     </row>
@@ -21398,7 +21417,7 @@
       <c r="B26" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C26" s="129">
+      <c r="C26" s="119">
         <v>44564</v>
       </c>
       <c r="F26" s="5">
@@ -21412,7 +21431,7 @@
       <c r="B27" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C27" s="129">
+      <c r="C27" s="119">
         <v>44565</v>
       </c>
       <c r="F27" s="5">
@@ -21426,7 +21445,7 @@
       <c r="B28" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="C28" s="129">
+      <c r="C28" s="119">
         <v>44566</v>
       </c>
       <c r="F28" s="5">
@@ -21440,7 +21459,7 @@
       <c r="B29" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C29" s="129">
+      <c r="C29" s="119">
         <v>44567</v>
       </c>
       <c r="F29" s="5">
@@ -21454,7 +21473,7 @@
       <c r="B30" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C30" s="129">
+      <c r="C30" s="119">
         <v>44568</v>
       </c>
       <c r="F30" s="5">
@@ -21462,38 +21481,38 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="83">
+      <c r="A31" s="73">
         <v>29</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="C31" s="134">
+      <c r="C31" s="125">
         <v>44569</v>
       </c>
-      <c r="D31" s="133"/>
-      <c r="E31" s="135">
+      <c r="D31" s="124"/>
+      <c r="E31" s="126">
         <v>0</v>
       </c>
-      <c r="F31" s="135">
+      <c r="F31" s="126">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="83">
+      <c r="A32" s="73">
         <v>30</v>
       </c>
-      <c r="B32" s="135" t="s">
+      <c r="B32" s="126" t="s">
         <v>485</v>
       </c>
-      <c r="C32" s="134">
+      <c r="C32" s="125">
         <v>44570</v>
       </c>
-      <c r="D32" s="133"/>
-      <c r="E32" s="135">
+      <c r="D32" s="124"/>
+      <c r="E32" s="126">
         <v>0</v>
       </c>
-      <c r="F32" s="135">
+      <c r="F32" s="126">
         <v>0</v>
       </c>
     </row>
@@ -21504,7 +21523,7 @@
       <c r="B33" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C33" s="129">
+      <c r="C33" s="119">
         <v>44571</v>
       </c>
       <c r="F33" s="5">
@@ -21518,7 +21537,7 @@
       <c r="B34" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C34" s="129">
+      <c r="C34" s="119">
         <v>44572</v>
       </c>
       <c r="F34" s="5">
@@ -21526,42 +21545,42 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="139" t="s">
+      <c r="C35" s="143" t="s">
         <v>491</v>
       </c>
-      <c r="D35" s="139"/>
-      <c r="E35" s="135">
+      <c r="D35" s="143"/>
+      <c r="E35" s="126">
         <f>SUM(E3:E34)</f>
-        <v>24.91</v>
-      </c>
-      <c r="F35" s="135">
+        <v>29.11</v>
+      </c>
+      <c r="F35" s="126">
         <f>SUM(F3:F34)</f>
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="138" t="s">
+      <c r="A37" s="142" t="s">
         <v>495</v>
       </c>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="130" t="s">
+      <c r="A38" s="120" t="s">
         <v>472</v>
       </c>
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="121" t="s">
         <v>473</v>
       </c>
-      <c r="C38" s="131" t="s">
+      <c r="C38" s="121" t="s">
         <v>474</v>
       </c>
-      <c r="D38" s="132" t="s">
+      <c r="D38" s="122" t="s">
         <v>476</v>
       </c>
-      <c r="E38" s="131" t="s">
+      <c r="E38" s="121" t="s">
         <v>475</v>
       </c>
     </row>
@@ -21653,14 +21672,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21723,14 +21742,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21793,14 +21812,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21863,14 +21882,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21916,9 +21935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27645D63-80B6-4CC9-9DF9-3EC673CAFE41}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21935,14 +21952,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22005,14 +22022,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22075,14 +22092,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22145,14 +22162,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22202,31 +22219,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="40"/>
-    <col min="2" max="3" width="19.140625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="41.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="65.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="28" style="35" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="3" width="19.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="28" style="27" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -22241,272 +22258,272 @@
       <c r="E2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="51" t="s">
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="28" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="32">
         <v>2</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="28" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="27" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="28" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="28" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="35" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="28" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="28" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="40" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="28" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="28" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="28" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="28" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="28" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="28" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="3:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="28" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="28" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="28" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="28" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="28" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="32" spans="3:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="28" t="s">
         <v>147</v>
       </c>
     </row>
@@ -22535,247 +22552,247 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="59"/>
-    <col min="2" max="2" width="41.42578125" style="63" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="55" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="55"/>
+    <col min="1" max="1" width="9.140625" style="49"/>
+    <col min="2" max="2" width="41.42578125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" style="52" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="54"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="155" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="60" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="50" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="61" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="52" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="52"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:7" ht="195" x14ac:dyDescent="0.25">
-      <c r="B6" s="61"/>
-      <c r="C6" s="61" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="52" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="52" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="52" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="42" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="42" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="42" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="60" t="s">
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="50" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="42" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="42" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="42" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="52" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="45" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="42" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="19" spans="3:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="52" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="42" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="42" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="42" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="23" spans="3:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="42" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="52" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="42" t="s">
         <v>197</v>
       </c>
     </row>
@@ -22800,60 +22817,60 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="39" style="20" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" style="18" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="101"/>
-      <c r="B1" s="142" t="s">
+      <c r="A1" s="91"/>
+      <c r="B1" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="148"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-      <c r="B2" s="145" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="104" t="s">
+      <c r="F3" s="94" t="s">
         <v>221</v>
       </c>
     </row>
@@ -22861,369 +22878,369 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="131" t="s">
         <v>222</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="72">
         <v>2</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="131" t="s">
         <v>497</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100">
+      <c r="A6" s="90">
         <v>3</v>
       </c>
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="130" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="141" t="s">
+      <c r="C6" s="77"/>
+      <c r="D6" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="98">
+      <c r="A7" s="88">
         <v>3.1</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="141"/>
-      <c r="E7" s="105" t="s">
+      <c r="D7" s="145"/>
+      <c r="E7" s="95" t="s">
         <v>498</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="66" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="98">
+      <c r="A8" s="88">
         <v>3.2</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="141"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="98">
+      <c r="A9" s="88">
         <v>3.3</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="99">
+      <c r="A10" s="89">
         <v>3.4</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="60">
         <v>4</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+      <c r="A12" s="60">
         <v>5</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="60">
         <v>6</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+      <c r="A14" s="60">
         <v>7</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+      <c r="A15" s="63">
         <v>8</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="73">
+      <c r="A16" s="63">
         <v>9</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="70">
+      <c r="A17" s="60">
         <v>10</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="73">
+      <c r="A18" s="63">
         <v>11</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="73">
+      <c r="A19" s="63">
         <v>12</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="73">
+      <c r="A20" s="63">
         <v>13</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="73">
+      <c r="A21" s="63">
         <v>14</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="73">
+      <c r="A22" s="63">
         <v>15</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="77" t="s">
         <v>199</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="144" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="140"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="77">
+      <c r="A25" s="67">
         <v>1</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="70" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="71" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="77">
+      <c r="A26" s="67">
         <v>2</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="70" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="71" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="19"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="19"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="57"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="58" t="s">
         <v>218</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -23345,13 +23362,13 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A10" sqref="A10:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="39" style="20" customWidth="1"/>
+    <col min="2" max="2" width="39" style="18" customWidth="1"/>
     <col min="3" max="3" width="67.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -23361,28 +23378,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -23409,240 +23426,292 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="123" t="s">
         <v>39</v>
       </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="123" t="s">
         <v>39</v>
       </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="123" t="s">
         <v>39</v>
       </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="123" t="s">
         <v>39</v>
       </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="62" t="s">
         <v>29</v>
       </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="62" t="s">
         <v>29</v>
       </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="123" t="s">
         <v>39</v>
       </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="62" t="s">
         <v>29</v>
       </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="137" t="s">
         <v>28</v>
       </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="137" t="s">
         <v>28</v>
       </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="137" t="s">
         <v>28</v>
       </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="33" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="62" t="s">
         <v>29</v>
       </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+      <c r="A16" s="140">
         <v>1</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="70" t="s">
         <v>83</v>
       </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="54" t="s">
         <v>200</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="54" t="s">
         <v>201</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="54" t="s">
         <v>204</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="24"/>
-      <c r="D20" s="30"/>
+      <c r="B20" s="20"/>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="24"/>
-      <c r="D21" s="30"/>
+      <c r="B21" s="20"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="24"/>
-      <c r="D22" s="30"/>
+      <c r="B22" s="20"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="24"/>
-      <c r="D23" s="30"/>
+      <c r="B23" s="20"/>
+      <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E25" t="s">
@@ -23657,7 +23726,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="12" t="s">
@@ -23669,7 +23738,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -23678,7 +23747,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -23687,7 +23756,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -23757,19 +23826,19 @@
     <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="111"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -23789,90 +23858,90 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="83">
+      <c r="A3" s="73">
         <v>1</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="98" t="s">
         <v>227</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="27" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="110">
+      <c r="A4" s="100">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="99" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="107" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="97" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="107" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="97" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="97" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="110">
+      <c r="A8" s="100">
         <v>1.2</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="99" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="107" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="97" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="97" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="110">
+      <c r="A11" s="100">
         <v>1.3</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="99" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="107" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="97" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="107" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="97" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="110">
+      <c r="A14" s="100">
         <v>1.4</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="99" t="s">
         <v>238</v>
       </c>
     </row>
@@ -23903,2964 +23972,2964 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="108" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="109" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
+      <c r="A3" s="110"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="112" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
+      <c r="A6" s="112"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="108" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="109" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="120"/>
+      <c r="A9" s="110"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="112" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
+      <c r="A12" s="112"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="108" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="109" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120"/>
+      <c r="A15" s="110"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
+      <c r="A18" s="112"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="108" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="119" t="s">
+      <c r="A20" s="109" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120"/>
+      <c r="A21" s="110"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
+      <c r="A24" s="112"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="108" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="109" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="120"/>
+      <c r="A27" s="110"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="121" t="s">
+      <c r="A28" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="122"/>
+      <c r="A30" s="112"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="118" t="s">
+      <c r="A31" s="108" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="119" t="s">
+      <c r="A32" s="109" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
+      <c r="A33" s="110"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="121" t="s">
+      <c r="A34" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="122"/>
+      <c r="A36" s="112"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="108" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="119" t="s">
+      <c r="A38" s="109" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="120"/>
+      <c r="A39" s="110"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="121" t="s">
+      <c r="A40" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="122" t="s">
+      <c r="A41" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="122"/>
+      <c r="A42" s="112"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="118" t="s">
+      <c r="A43" s="108" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="119" t="s">
+      <c r="A44" s="109" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="120"/>
+      <c r="A45" s="110"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="122" t="s">
+      <c r="A47" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="122"/>
+      <c r="A48" s="112"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="118" t="s">
+      <c r="A49" s="108" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="119" t="s">
+      <c r="A50" s="109" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="120"/>
+      <c r="A51" s="110"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="122" t="s">
+      <c r="A53" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="122"/>
+      <c r="A54" s="112"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="118" t="s">
+      <c r="A55" s="108" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="119" t="s">
+      <c r="A56" s="109" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="120"/>
+      <c r="A57" s="110"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="121" t="s">
+      <c r="A58" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="122"/>
+      <c r="A60" s="112"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="118" t="s">
+      <c r="A61" s="108" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="119" t="s">
+      <c r="A62" s="109" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="120"/>
+      <c r="A63" s="110"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="121" t="s">
+      <c r="A64" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="122" t="s">
+      <c r="A65" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="122"/>
+      <c r="A66" s="112"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="118" t="s">
+      <c r="A67" s="108" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="119" t="s">
+      <c r="A68" s="109" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="120"/>
+      <c r="A69" s="110"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="121" t="s">
+      <c r="A70" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="122" t="s">
+      <c r="A71" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="122"/>
+      <c r="A72" s="112"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="118" t="s">
+      <c r="A73" s="108" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="119" t="s">
+      <c r="A74" s="109" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="120"/>
+      <c r="A75" s="110"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="121" t="s">
+      <c r="A76" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="122" t="s">
+      <c r="A77" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="122"/>
+      <c r="A78" s="112"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="118" t="s">
+      <c r="A79" s="108" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="119" t="s">
+      <c r="A80" s="109" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="120"/>
+      <c r="A81" s="110"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="121" t="s">
+      <c r="A82" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="122" t="s">
+      <c r="A83" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="122"/>
+      <c r="A84" s="112"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="118" t="s">
+      <c r="A85" s="108" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="119" t="s">
+      <c r="A86" s="109" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="120"/>
+      <c r="A87" s="110"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="121" t="s">
+      <c r="A88" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="122" t="s">
+      <c r="A89" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="122"/>
+      <c r="A90" s="112"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="118" t="s">
+      <c r="A91" s="108" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="119" t="s">
+      <c r="A92" s="109" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="120"/>
+      <c r="A93" s="110"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="121" t="s">
+      <c r="A94" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="122" t="s">
+      <c r="A95" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="122"/>
+      <c r="A96" s="112"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="118" t="s">
+      <c r="A97" s="108" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="119" t="s">
+      <c r="A98" s="109" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="120"/>
+      <c r="A99" s="110"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="121" t="s">
+      <c r="A100" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="122" t="s">
+      <c r="A101" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="122"/>
+      <c r="A102" s="112"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="118" t="s">
+      <c r="A103" s="108" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="119" t="s">
+      <c r="A104" s="109" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="120"/>
+      <c r="A105" s="110"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="121" t="s">
+      <c r="A106" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="122" t="s">
+      <c r="A107" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="122"/>
+      <c r="A108" s="112"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="118" t="s">
+      <c r="A109" s="108" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="119" t="s">
+      <c r="A110" s="109" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="120"/>
+      <c r="A111" s="110"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="121" t="s">
+      <c r="A112" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="122" t="s">
+      <c r="A113" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="122"/>
+      <c r="A114" s="112"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="118" t="s">
+      <c r="A115" s="108" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="119" t="s">
+      <c r="A116" s="109" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="120"/>
+      <c r="A117" s="110"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="121" t="s">
+      <c r="A118" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="122" t="s">
+      <c r="A119" s="112" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="122"/>
+      <c r="A120" s="112"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="118" t="s">
+      <c r="A121" s="108" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="119" t="s">
+      <c r="A122" s="109" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="120"/>
+      <c r="A123" s="110"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="121" t="s">
+      <c r="A124" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="121" t="s">
+      <c r="A125" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="121"/>
+      <c r="A126" s="111"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="118" t="s">
+      <c r="A127" s="108" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="119" t="s">
+      <c r="A128" s="109" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="120"/>
+      <c r="A129" s="110"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="121" t="s">
+      <c r="A130" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="121" t="s">
+      <c r="A131" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="121"/>
+      <c r="A132" s="111"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="118" t="s">
+      <c r="A133" s="108" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="119" t="s">
+      <c r="A134" s="109" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="120"/>
+      <c r="A135" s="110"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="121" t="s">
+      <c r="A136" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="121" t="s">
+      <c r="A137" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="121"/>
+      <c r="A138" s="111"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="118" t="s">
+      <c r="A139" s="108" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="119" t="s">
+      <c r="A140" s="109" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="120"/>
+      <c r="A141" s="110"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="121" t="s">
+      <c r="A142" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="121" t="s">
+      <c r="A143" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="121"/>
+      <c r="A144" s="111"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="118" t="s">
+      <c r="A145" s="108" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="119" t="s">
+      <c r="A146" s="109" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="120"/>
+      <c r="A147" s="110"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="121" t="s">
+      <c r="A148" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="121" t="s">
+      <c r="A149" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="121"/>
+      <c r="A150" s="111"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="118" t="s">
+      <c r="A151" s="108" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="119" t="s">
+      <c r="A152" s="109" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="120"/>
+      <c r="A153" s="110"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="121" t="s">
+      <c r="A154" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="121" t="s">
+      <c r="A155" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="121"/>
+      <c r="A156" s="111"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="118" t="s">
+      <c r="A157" s="108" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="119" t="s">
+      <c r="A158" s="109" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="120"/>
+      <c r="A159" s="110"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="121" t="s">
+      <c r="A160" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="121" t="s">
+      <c r="A161" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="121"/>
+      <c r="A162" s="111"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="118" t="s">
+      <c r="A163" s="108" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="119" t="s">
+      <c r="A164" s="109" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="120"/>
+      <c r="A165" s="110"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="121" t="s">
+      <c r="A166" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="121" t="s">
+      <c r="A167" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="121"/>
+      <c r="A168" s="111"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="118" t="s">
+      <c r="A169" s="108" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="119" t="s">
+      <c r="A170" s="109" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="120"/>
+      <c r="A171" s="110"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="121" t="s">
+      <c r="A172" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="121" t="s">
+      <c r="A173" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="121"/>
+      <c r="A174" s="111"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="118" t="s">
+      <c r="A175" s="108" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="119" t="s">
+      <c r="A176" s="109" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="120"/>
+      <c r="A177" s="110"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="121" t="s">
+      <c r="A178" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="121" t="s">
+      <c r="A179" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="121"/>
+      <c r="A180" s="111"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="118" t="s">
+      <c r="A181" s="108" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="119" t="s">
+      <c r="A182" s="109" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="120"/>
+      <c r="A183" s="110"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="121" t="s">
+      <c r="A184" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="121" t="s">
+      <c r="A185" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="121"/>
+      <c r="A186" s="111"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="118" t="s">
+      <c r="A187" s="108" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="119" t="s">
+      <c r="A188" s="109" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="120"/>
+      <c r="A189" s="110"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="121" t="s">
+      <c r="A190" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="121" t="s">
+      <c r="A191" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="121"/>
+      <c r="A192" s="111"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="118" t="s">
+      <c r="A193" s="108" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="194" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="119" t="s">
+      <c r="A194" s="109" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="120"/>
+      <c r="A195" s="110"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="121" t="s">
+      <c r="A196" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="121" t="s">
+      <c r="A197" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="121"/>
+      <c r="A198" s="111"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="118" t="s">
+      <c r="A199" s="108" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="200" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="119" t="s">
+      <c r="A200" s="109" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="120"/>
+      <c r="A201" s="110"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="121" t="s">
+      <c r="A202" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="121" t="s">
+      <c r="A203" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="121"/>
+      <c r="A204" s="111"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="118" t="s">
+      <c r="A205" s="108" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="206" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="119" t="s">
+      <c r="A206" s="109" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="120"/>
+      <c r="A207" s="110"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="121" t="s">
+      <c r="A208" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="121" t="s">
+      <c r="A209" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="121"/>
+      <c r="A210" s="111"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="118" t="s">
+      <c r="A211" s="108" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="212" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="119" t="s">
+      <c r="A212" s="109" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="120"/>
+      <c r="A213" s="110"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="121" t="s">
+      <c r="A214" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="121" t="s">
+      <c r="A215" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="121"/>
+      <c r="A216" s="111"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="118" t="s">
+      <c r="A217" s="108" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="119" t="s">
+      <c r="A218" s="109" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="120"/>
+      <c r="A219" s="110"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="121" t="s">
+      <c r="A220" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="121" t="s">
+      <c r="A221" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="121"/>
+      <c r="A222" s="111"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="118" t="s">
+      <c r="A223" s="108" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="119" t="s">
+      <c r="A224" s="109" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="120"/>
+      <c r="A225" s="110"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="121" t="s">
+      <c r="A226" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="121" t="s">
+      <c r="A227" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="121"/>
+      <c r="A228" s="111"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="118" t="s">
+      <c r="A229" s="108" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="119" t="s">
+      <c r="A230" s="109" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="120"/>
+      <c r="A231" s="110"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="121" t="s">
+      <c r="A232" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="121" t="s">
+      <c r="A233" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="121"/>
+      <c r="A234" s="111"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="118" t="s">
+      <c r="A235" s="108" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="119" t="s">
+      <c r="A236" s="109" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="120"/>
+      <c r="A237" s="110"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="121" t="s">
+      <c r="A238" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="121" t="s">
+      <c r="A239" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="121"/>
+      <c r="A240" s="111"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="118" t="s">
+      <c r="A241" s="108" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="119" t="s">
+      <c r="A242" s="109" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="120"/>
+      <c r="A243" s="110"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="121" t="s">
+      <c r="A244" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="121" t="s">
+      <c r="A245" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="121"/>
+      <c r="A246" s="111"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="118" t="s">
+      <c r="A247" s="108" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="119" t="s">
+      <c r="A248" s="109" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="120"/>
+      <c r="A249" s="110"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="121" t="s">
+      <c r="A250" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="121" t="s">
+      <c r="A251" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="121"/>
+      <c r="A252" s="111"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="118" t="s">
+      <c r="A253" s="108" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="119" t="s">
+      <c r="A254" s="109" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="120"/>
+      <c r="A255" s="110"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="121" t="s">
+      <c r="A256" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="121" t="s">
+      <c r="A257" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="121"/>
+      <c r="A258" s="111"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="118" t="s">
+      <c r="A259" s="108" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="119" t="s">
+      <c r="A260" s="109" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="120"/>
+      <c r="A261" s="110"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="121" t="s">
+      <c r="A262" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="121" t="s">
+      <c r="A263" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="121"/>
+      <c r="A264" s="111"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="118" t="s">
+      <c r="A265" s="108" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="119" t="s">
+      <c r="A266" s="109" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="120"/>
+      <c r="A267" s="110"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="121" t="s">
+      <c r="A268" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="121" t="s">
+      <c r="A269" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="121"/>
+      <c r="A270" s="111"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="118" t="s">
+      <c r="A271" s="108" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="272" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="119" t="s">
+      <c r="A272" s="109" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="120"/>
+      <c r="A273" s="110"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="121" t="s">
+      <c r="A274" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="121" t="s">
+      <c r="A275" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="121"/>
+      <c r="A276" s="111"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="118" t="s">
+      <c r="A277" s="108" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="119" t="s">
+      <c r="A278" s="109" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="120"/>
+      <c r="A279" s="110"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="121" t="s">
+      <c r="A280" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="121" t="s">
+      <c r="A281" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="121"/>
+      <c r="A282" s="111"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="118" t="s">
+      <c r="A283" s="108" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="119" t="s">
+      <c r="A284" s="109" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="120"/>
+      <c r="A285" s="110"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="121" t="s">
+      <c r="A286" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="121" t="s">
+      <c r="A287" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="121"/>
+      <c r="A288" s="111"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="118" t="s">
+      <c r="A289" s="108" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="290" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A290" s="119" t="s">
+      <c r="A290" s="109" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="120"/>
+      <c r="A291" s="110"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="121" t="s">
+      <c r="A292" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="121" t="s">
+      <c r="A293" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="121"/>
+      <c r="A294" s="111"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="118" t="s">
+      <c r="A295" s="108" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="119" t="s">
+      <c r="A296" s="109" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="120"/>
+      <c r="A297" s="110"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="121" t="s">
+      <c r="A298" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="121" t="s">
+      <c r="A299" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="121"/>
+      <c r="A300" s="111"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="118" t="s">
+      <c r="A301" s="108" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A302" s="119" t="s">
+      <c r="A302" s="109" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="120"/>
+      <c r="A303" s="110"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="121" t="s">
+      <c r="A304" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="121" t="s">
+      <c r="A305" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="121"/>
+      <c r="A306" s="111"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="118" t="s">
+      <c r="A307" s="108" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="308" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A308" s="119" t="s">
+      <c r="A308" s="109" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="120"/>
+      <c r="A309" s="110"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="121" t="s">
+      <c r="A310" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="121" t="s">
+      <c r="A311" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="121"/>
+      <c r="A312" s="111"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="118" t="s">
+      <c r="A313" s="108" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A314" s="119" t="s">
+      <c r="A314" s="109" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="120"/>
+      <c r="A315" s="110"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="121" t="s">
+      <c r="A316" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="121" t="s">
+      <c r="A317" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="121"/>
+      <c r="A318" s="111"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="118" t="s">
+      <c r="A319" s="108" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="320" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="119" t="s">
+      <c r="A320" s="109" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="120"/>
+      <c r="A321" s="110"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="121" t="s">
+      <c r="A322" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="121" t="s">
+      <c r="A323" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="121"/>
+      <c r="A324" s="111"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="118" t="s">
+      <c r="A325" s="108" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="326" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="119" t="s">
+      <c r="A326" s="109" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="120"/>
+      <c r="A327" s="110"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="121" t="s">
+      <c r="A328" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="121" t="s">
+      <c r="A329" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="121"/>
+      <c r="A330" s="111"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="118" t="s">
+      <c r="A331" s="108" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="332" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="119" t="s">
+      <c r="A332" s="109" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="120"/>
+      <c r="A333" s="110"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="121" t="s">
+      <c r="A334" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="121" t="s">
+      <c r="A335" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="121"/>
+      <c r="A336" s="111"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="118" t="s">
+      <c r="A337" s="108" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="338" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A338" s="119" t="s">
+      <c r="A338" s="109" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="120"/>
+      <c r="A339" s="110"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="121" t="s">
+      <c r="A340" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="121" t="s">
+      <c r="A341" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="121"/>
+      <c r="A342" s="111"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="118" t="s">
+      <c r="A343" s="108" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="344" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A344" s="119" t="s">
+      <c r="A344" s="109" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="120"/>
+      <c r="A345" s="110"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="121" t="s">
+      <c r="A346" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="121" t="s">
+      <c r="A347" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="121"/>
+      <c r="A348" s="111"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="118" t="s">
+      <c r="A349" s="108" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="350" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A350" s="119" t="s">
+      <c r="A350" s="109" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="120"/>
+      <c r="A351" s="110"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="121" t="s">
+      <c r="A352" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="121" t="s">
+      <c r="A353" s="111" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="121"/>
+      <c r="A354" s="111"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="118" t="s">
+      <c r="A355" s="108" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="356" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="119" t="s">
+      <c r="A356" s="109" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="120"/>
+      <c r="A357" s="110"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="121" t="s">
+      <c r="A358" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="121" t="s">
+      <c r="A359" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="121"/>
+      <c r="A360" s="111"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="118" t="s">
+      <c r="A361" s="108" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="362" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A362" s="119" t="s">
+      <c r="A362" s="109" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="120"/>
+      <c r="A363" s="110"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="121" t="s">
+      <c r="A364" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="121" t="s">
+      <c r="A365" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="121"/>
+      <c r="A366" s="111"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="118" t="s">
+      <c r="A367" s="108" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="119" t="s">
+      <c r="A368" s="109" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="120"/>
+      <c r="A369" s="110"/>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="121" t="s">
+      <c r="A370" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="121" t="s">
+      <c r="A371" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="121"/>
+      <c r="A372" s="111"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="118" t="s">
+      <c r="A373" s="108" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="374" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A374" s="119" t="s">
+      <c r="A374" s="109" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="120"/>
+      <c r="A375" s="110"/>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="121" t="s">
+      <c r="A376" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="121" t="s">
+      <c r="A377" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="121"/>
+      <c r="A378" s="111"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="118" t="s">
+      <c r="A379" s="108" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="380" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A380" s="119" t="s">
+      <c r="A380" s="109" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="120"/>
+      <c r="A381" s="110"/>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="121" t="s">
+      <c r="A382" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="121" t="s">
+      <c r="A383" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="121"/>
+      <c r="A384" s="111"/>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="118" t="s">
+      <c r="A385" s="108" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="386" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="119" t="s">
+      <c r="A386" s="109" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="120"/>
+      <c r="A387" s="110"/>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="121" t="s">
+      <c r="A388" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="121" t="s">
+      <c r="A389" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="121"/>
+      <c r="A390" s="111"/>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="118" t="s">
+      <c r="A391" s="108" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="392" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A392" s="119" t="s">
+      <c r="A392" s="109" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="120"/>
+      <c r="A393" s="110"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="121" t="s">
+      <c r="A394" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="121" t="s">
+      <c r="A395" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="121"/>
+      <c r="A396" s="111"/>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="118" t="s">
+      <c r="A397" s="108" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="398" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A398" s="119" t="s">
+      <c r="A398" s="109" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="120"/>
+      <c r="A399" s="110"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="121" t="s">
+      <c r="A400" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="121" t="s">
+      <c r="A401" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="121"/>
+      <c r="A402" s="111"/>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="118" t="s">
+      <c r="A403" s="108" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="404" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A404" s="119" t="s">
+      <c r="A404" s="109" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="120"/>
+      <c r="A405" s="110"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="121" t="s">
+      <c r="A406" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="121" t="s">
+      <c r="A407" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="121"/>
+      <c r="A408" s="111"/>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="118" t="s">
+      <c r="A409" s="108" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="410" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A410" s="119" t="s">
+      <c r="A410" s="109" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="120"/>
+      <c r="A411" s="110"/>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="121" t="s">
+      <c r="A412" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="121" t="s">
+      <c r="A413" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="121"/>
+      <c r="A414" s="111"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="118" t="s">
+      <c r="A415" s="108" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="416" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A416" s="119" t="s">
+      <c r="A416" s="109" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="120"/>
+      <c r="A417" s="110"/>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="121" t="s">
+      <c r="A418" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="121" t="s">
+      <c r="A419" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="121"/>
+      <c r="A420" s="111"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="118" t="s">
+      <c r="A421" s="108" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="422" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="119" t="s">
+      <c r="A422" s="109" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="120"/>
+      <c r="A423" s="110"/>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="121" t="s">
+      <c r="A424" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="121" t="s">
+      <c r="A425" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="121"/>
+      <c r="A426" s="111"/>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="118" t="s">
+      <c r="A427" s="108" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="119" t="s">
+      <c r="A428" s="109" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="120"/>
+      <c r="A429" s="110"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="121" t="s">
+      <c r="A430" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="121" t="s">
+      <c r="A431" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="121"/>
+      <c r="A432" s="111"/>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="118" t="s">
+      <c r="A433" s="108" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="434" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A434" s="119" t="s">
+      <c r="A434" s="109" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="120"/>
+      <c r="A435" s="110"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="121" t="s">
+      <c r="A436" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="121" t="s">
+      <c r="A437" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="121"/>
+      <c r="A438" s="111"/>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="118" t="s">
+      <c r="A439" s="108" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A440" s="123" t="s">
+      <c r="A440" s="113" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="120"/>
+      <c r="A441" s="110"/>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="121" t="s">
+      <c r="A442" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="121" t="s">
+      <c r="A443" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="121"/>
+      <c r="A444" s="111"/>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="118" t="s">
+      <c r="A445" s="108" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="446" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A446" s="119" t="s">
+      <c r="A446" s="109" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="120"/>
+      <c r="A447" s="110"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="121" t="s">
+      <c r="A448" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="121" t="s">
+      <c r="A449" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="121"/>
+      <c r="A450" s="111"/>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="118" t="s">
+      <c r="A451" s="108" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A452" s="119" t="s">
+      <c r="A452" s="109" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="120"/>
+      <c r="A453" s="110"/>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="121" t="s">
+      <c r="A454" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="121" t="s">
+      <c r="A455" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="121"/>
+      <c r="A456" s="111"/>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="118" t="s">
+      <c r="A457" s="108" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="458" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A458" s="119" t="s">
+      <c r="A458" s="109" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="120"/>
+      <c r="A459" s="110"/>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="121" t="s">
+      <c r="A460" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="121" t="s">
+      <c r="A461" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="121"/>
+      <c r="A462" s="111"/>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="118" t="s">
+      <c r="A463" s="108" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="464" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A464" s="119" t="s">
+      <c r="A464" s="109" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="120"/>
+      <c r="A465" s="110"/>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="121" t="s">
+      <c r="A466" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="121" t="s">
+      <c r="A467" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="121"/>
+      <c r="A468" s="111"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="118" t="s">
+      <c r="A469" s="108" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="470" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A470" s="119" t="s">
+      <c r="A470" s="109" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="120"/>
+      <c r="A471" s="110"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="121" t="s">
+      <c r="A472" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="121" t="s">
+      <c r="A473" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="121"/>
+      <c r="A474" s="111"/>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="118" t="s">
+      <c r="A475" s="108" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="476" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A476" s="119" t="s">
+      <c r="A476" s="109" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="120"/>
+      <c r="A477" s="110"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="121" t="s">
+      <c r="A478" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="121" t="s">
+      <c r="A479" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="121"/>
+      <c r="A480" s="111"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="118" t="s">
+      <c r="A481" s="108" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="482" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A482" s="119" t="s">
+      <c r="A482" s="109" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="120"/>
+      <c r="A483" s="110"/>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="121" t="s">
+      <c r="A484" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="121" t="s">
+      <c r="A485" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="121"/>
+      <c r="A486" s="111"/>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="118" t="s">
+      <c r="A487" s="108" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="488" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A488" s="119" t="s">
+      <c r="A488" s="109" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="120"/>
+      <c r="A489" s="110"/>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="121" t="s">
+      <c r="A490" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="121" t="s">
+      <c r="A491" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="121"/>
+      <c r="A492" s="111"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="118" t="s">
+      <c r="A493" s="108" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="494" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A494" s="119" t="s">
+      <c r="A494" s="109" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="120"/>
+      <c r="A495" s="110"/>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="121" t="s">
+      <c r="A496" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="121" t="s">
+      <c r="A497" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="121"/>
+      <c r="A498" s="111"/>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="118" t="s">
+      <c r="A499" s="108" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="500" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A500" s="119" t="s">
+      <c r="A500" s="109" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="120"/>
+      <c r="A501" s="110"/>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="121" t="s">
+      <c r="A502" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="121" t="s">
+      <c r="A503" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="121"/>
+      <c r="A504" s="111"/>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="118" t="s">
+      <c r="A505" s="108" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="506" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A506" s="119" t="s">
+      <c r="A506" s="109" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="120"/>
+      <c r="A507" s="110"/>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="121" t="s">
+      <c r="A508" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="121" t="s">
+      <c r="A509" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="121"/>
+      <c r="A510" s="111"/>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="118" t="s">
+      <c r="A511" s="108" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="512" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A512" s="119" t="s">
+      <c r="A512" s="109" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="120"/>
+      <c r="A513" s="110"/>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="121" t="s">
+      <c r="A514" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="121" t="s">
+      <c r="A515" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="121"/>
+      <c r="A516" s="111"/>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="118" t="s">
+      <c r="A517" s="108" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="518" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A518" s="119" t="s">
+      <c r="A518" s="109" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="120"/>
+      <c r="A519" s="110"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="124" t="s">
+      <c r="A520" s="114" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="121" t="s">
+      <c r="A521" s="111" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="121"/>
+      <c r="A522" s="111"/>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="118" t="s">
+      <c r="A523" s="108" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="524" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A524" s="119" t="s">
+      <c r="A524" s="109" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="120"/>
+      <c r="A525" s="110"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="121" t="s">
+      <c r="A526" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="121" t="s">
+      <c r="A527" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="121"/>
+      <c r="A528" s="111"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="118" t="s">
+      <c r="A529" s="108" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="530" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A530" s="119" t="s">
+      <c r="A530" s="109" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="120"/>
+      <c r="A531" s="110"/>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="121" t="s">
+      <c r="A532" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="121" t="s">
+      <c r="A533" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="121"/>
+      <c r="A534" s="111"/>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="118" t="s">
+      <c r="A535" s="108" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="536" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A536" s="119" t="s">
+      <c r="A536" s="109" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="120"/>
+      <c r="A537" s="110"/>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="124" t="s">
+      <c r="A538" s="114" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="121" t="s">
+      <c r="A539" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="121"/>
+      <c r="A540" s="111"/>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="118" t="s">
+      <c r="A541" s="108" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="542" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A542" s="119" t="s">
+      <c r="A542" s="109" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="120"/>
+      <c r="A543" s="110"/>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="121" t="s">
+      <c r="A544" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="121" t="s">
+      <c r="A545" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="121"/>
+      <c r="A546" s="111"/>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="118" t="s">
+      <c r="A547" s="108" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="548" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A548" s="119" t="s">
+      <c r="A548" s="109" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="120"/>
+      <c r="A549" s="110"/>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="121" t="s">
+      <c r="A550" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="121" t="s">
+      <c r="A551" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="121"/>
+      <c r="A552" s="111"/>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="118" t="s">
+      <c r="A553" s="108" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="554" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A554" s="119" t="s">
+      <c r="A554" s="109" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="120"/>
+      <c r="A555" s="110"/>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="121" t="s">
+      <c r="A556" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="121" t="s">
+      <c r="A557" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="121"/>
+      <c r="A558" s="111"/>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="118" t="s">
+      <c r="A559" s="108" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="560" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A560" s="119" t="s">
+      <c r="A560" s="109" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="120"/>
+      <c r="A561" s="110"/>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="121" t="s">
+      <c r="A562" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="121" t="s">
+      <c r="A563" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="121"/>
+      <c r="A564" s="111"/>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="118" t="s">
+      <c r="A565" s="108" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="566" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A566" s="119" t="s">
+      <c r="A566" s="109" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="120"/>
+      <c r="A567" s="110"/>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="121" t="s">
+      <c r="A568" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="121" t="s">
+      <c r="A569" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="121"/>
+      <c r="A570" s="111"/>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="118" t="s">
+      <c r="A571" s="108" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="572" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A572" s="119" t="s">
+      <c r="A572" s="109" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="120"/>
+      <c r="A573" s="110"/>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="121" t="s">
+      <c r="A574" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="121" t="s">
+      <c r="A575" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="121"/>
+      <c r="A576" s="111"/>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="118" t="s">
+      <c r="A577" s="108" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A578" s="119" t="s">
+      <c r="A578" s="109" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="120"/>
+      <c r="A579" s="110"/>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="121" t="s">
+      <c r="A580" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="121" t="s">
+      <c r="A581" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="121"/>
+      <c r="A582" s="111"/>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="118" t="s">
+      <c r="A583" s="108" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="584" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A584" s="119" t="s">
+      <c r="A584" s="109" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="120"/>
+      <c r="A585" s="110"/>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="121" t="s">
+      <c r="A586" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="121" t="s">
+      <c r="A587" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="121"/>
+      <c r="A588" s="111"/>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="118" t="s">
+      <c r="A589" s="108" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="590" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A590" s="119" t="s">
+      <c r="A590" s="109" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="120"/>
+      <c r="A591" s="110"/>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="121" t="s">
+      <c r="A592" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="121" t="s">
+      <c r="A593" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="121"/>
+      <c r="A594" s="111"/>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="118" t="s">
+      <c r="A595" s="108" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="596" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A596" s="119" t="s">
+      <c r="A596" s="109" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="120"/>
+      <c r="A597" s="110"/>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="121" t="s">
+      <c r="A598" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="121" t="s">
+      <c r="A599" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="121"/>
+      <c r="A600" s="111"/>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="118" t="s">
+      <c r="A601" s="108" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="602" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A602" s="119" t="s">
+      <c r="A602" s="109" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="120"/>
+      <c r="A603" s="110"/>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="121" t="s">
+      <c r="A604" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="121" t="s">
+      <c r="A605" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="121"/>
+      <c r="A606" s="111"/>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="118" t="s">
+      <c r="A607" s="108" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="608" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A608" s="119" t="s">
+      <c r="A608" s="109" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="120"/>
+      <c r="A609" s="110"/>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="121" t="s">
+      <c r="A610" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="121" t="s">
+      <c r="A611" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="121"/>
+      <c r="A612" s="111"/>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="118" t="s">
+      <c r="A613" s="108" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="614" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A614" s="119" t="s">
+      <c r="A614" s="109" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="120"/>
+      <c r="A615" s="110"/>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="121" t="s">
+      <c r="A616" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="121" t="s">
+      <c r="A617" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="121"/>
+      <c r="A618" s="111"/>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="118" t="s">
+      <c r="A619" s="108" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="620" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A620" s="119" t="s">
+      <c r="A620" s="109" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="120"/>
+      <c r="A621" s="110"/>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="121" t="s">
+      <c r="A622" s="111" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="121" t="s">
+      <c r="A623" s="111" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="121"/>
+      <c r="A624" s="111"/>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="112" t="s">
+      <c r="A625" s="102" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="626" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A626" s="113" t="s">
+      <c r="A626" s="103" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="114"/>
+      <c r="A627" s="104"/>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="115" t="s">
+      <c r="A628" s="105" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="115" t="s">
+      <c r="A629" s="105" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="115"/>
+      <c r="A630" s="105"/>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="125" t="s">
+      <c r="A631" s="115" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="632" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A632" s="126" t="s">
+      <c r="A632" s="116" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="126" t="s">
+      <c r="A633" s="116" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="116"/>
+      <c r="A634" s="106"/>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="127" t="s">
+      <c r="A635" s="117" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="116"/>
+      <c r="A636" s="106"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="126" t="s">
+      <c r="A637" s="116" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="116"/>
+      <c r="A639" s="106"/>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="117" t="s">
+      <c r="A640" s="107" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="116"/>
+      <c r="A641" s="106"/>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="128" t="s">
+      <c r="A642" s="118" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="112" t="s">
+      <c r="A643" s="102" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="644" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A644" s="113" t="s">
+      <c r="A644" s="103" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="114"/>
+      <c r="A645" s="104"/>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="115" t="s">
+      <c r="A646" s="105" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="115" t="s">
+      <c r="A647" s="105" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="115"/>
+      <c r="A648" s="105"/>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="112" t="s">
+      <c r="A649" s="102" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="650" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A650" s="113" t="s">
+      <c r="A650" s="103" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="114"/>
+      <c r="A651" s="104"/>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="115" t="s">
+      <c r="A652" s="105" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="115" t="s">
+      <c r="A653" s="105" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="115"/>
+      <c r="A654" s="105"/>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="112" t="s">
+      <c r="A655" s="102" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="656" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A656" s="113" t="s">
+      <c r="A656" s="103" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="114"/>
+      <c r="A657" s="104"/>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="115" t="s">
+      <c r="A658" s="105" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="115"/>
+      <c r="A659" s="105"/>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="115" t="s">
+      <c r="A660" s="105" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="115"/>
+      <c r="A661" s="105"/>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="112" t="s">
+      <c r="A662" s="102" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="663" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A663" s="113" t="s">
+      <c r="A663" s="103" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="114"/>
+      <c r="A664" s="104"/>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="115" t="s">
+      <c r="A665" s="105" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="115"/>
+      <c r="A666" s="105"/>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="115" t="s">
+      <c r="A667" s="105" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="115"/>
+      <c r="A668" s="105"/>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="112" t="s">
+      <c r="A669" s="102" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="670" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A670" s="113" t="s">
+      <c r="A670" s="103" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="114"/>
+      <c r="A671" s="104"/>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="115"/>
+      <c r="A672" s="105"/>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="115"/>
+      <c r="A673" s="105"/>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="115"/>
+      <c r="A674" s="105"/>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="115"/>
+      <c r="A675" s="105"/>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="112" t="s">
+      <c r="A676" s="102" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="677" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A677" s="113" t="s">
+      <c r="A677" s="103" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="114"/>
+      <c r="A678" s="104"/>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="115"/>
+      <c r="A679" s="105"/>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A680" s="115"/>
+      <c r="A680" s="105"/>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A681" s="115"/>
+      <c r="A681" s="105"/>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A682" s="115"/>
+      <c r="A682" s="105"/>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A683" s="112"/>
+      <c r="A683" s="102"/>
     </row>
     <row r="684" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A684" s="113" t="s">
+      <c r="A684" s="103" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A685" s="114"/>
+      <c r="A685" s="104"/>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A686" s="115"/>
+      <c r="A686" s="105"/>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A687" s="115"/>
+      <c r="A687" s="105"/>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A688" s="115"/>
+      <c r="A688" s="105"/>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A689" s="115"/>
+      <c r="A689" s="105"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -26889,17 +26958,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26925,7 +26994,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -26951,7 +27020,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
@@ -26961,17 +27030,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26997,7 +27066,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -27027,24 +27096,24 @@
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="58.42578125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -27062,91 +27131,91 @@
       <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="39" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="39" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="39" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="39" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="38" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="39" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="39" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="39" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="39" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="39" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="39" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="39" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -27183,14 +27252,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,38 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BF7951-1BDC-4D5D-AE48-77A73BE26164}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC3F2A7-C8CA-4D83-8CA3-33748E36B6B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Track_Hours_For_Cypress" sheetId="37" r:id="rId1"/>
-    <sheet name="Career PATH_Improved" sheetId="35" r:id="rId2"/>
-    <sheet name="Career PATH" sheetId="1" r:id="rId3"/>
-    <sheet name="Developer to Architect" sheetId="34" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="36" r:id="rId5"/>
-    <sheet name="Scrum Master" sheetId="33" r:id="rId6"/>
-    <sheet name="JAVA" sheetId="8" r:id="rId7"/>
-    <sheet name="NODE" sheetId="7" r:id="rId8"/>
-    <sheet name="Python" sheetId="14" r:id="rId9"/>
-    <sheet name="Oracle_Apex" sheetId="15" r:id="rId10"/>
-    <sheet name="Oracle" sheetId="11" r:id="rId11"/>
-    <sheet name="mySQL" sheetId="12" r:id="rId12"/>
-    <sheet name="JavaScript" sheetId="5" r:id="rId13"/>
-    <sheet name="GIT" sheetId="10" r:id="rId14"/>
-    <sheet name="Understanding_DevOps" sheetId="16" r:id="rId15"/>
-    <sheet name="React" sheetId="13" r:id="rId16"/>
-    <sheet name="CSS" sheetId="4" r:id="rId17"/>
-    <sheet name="HTML" sheetId="2" r:id="rId18"/>
-    <sheet name="Angular" sheetId="9" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId20"/>
-    <sheet name="API_Promise" sheetId="18" r:id="rId21"/>
-    <sheet name="API_Promise2" sheetId="19" r:id="rId22"/>
-    <sheet name="API+Observables" sheetId="20" r:id="rId23"/>
+    <sheet name="Career PATH_Interactive" sheetId="38" r:id="rId2"/>
+    <sheet name="Career PATH_Improved" sheetId="35" r:id="rId3"/>
+    <sheet name="Career PATH" sheetId="1" r:id="rId4"/>
+    <sheet name="Developer to Architect" sheetId="34" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="36" r:id="rId6"/>
+    <sheet name="Scrum Master" sheetId="33" r:id="rId7"/>
+    <sheet name="JAVA" sheetId="8" r:id="rId8"/>
+    <sheet name="NODE" sheetId="7" r:id="rId9"/>
+    <sheet name="Python" sheetId="14" r:id="rId10"/>
+    <sheet name="Oracle_Apex" sheetId="15" r:id="rId11"/>
+    <sheet name="Oracle" sheetId="11" r:id="rId12"/>
+    <sheet name="mySQL" sheetId="12" r:id="rId13"/>
+    <sheet name="JavaScript" sheetId="5" r:id="rId14"/>
+    <sheet name="GIT" sheetId="10" r:id="rId15"/>
+    <sheet name="Understanding_DevOps" sheetId="16" r:id="rId16"/>
+    <sheet name="React" sheetId="13" r:id="rId17"/>
+    <sheet name="CSS" sheetId="4" r:id="rId18"/>
+    <sheet name="HTML" sheetId="2" r:id="rId19"/>
+    <sheet name="Angular" sheetId="9" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId21"/>
+    <sheet name="API_Promise" sheetId="18" r:id="rId22"/>
+    <sheet name="API_Promise2" sheetId="19" r:id="rId23"/>
+    <sheet name="API+Observables" sheetId="20" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH_Improved'!$A$3:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Career PATH_Improved'!$A$3:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH_Interactive'!$A$3:$F$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="528">
   <si>
     <t>SR#</t>
   </si>
@@ -8070,7 +8072,175 @@
     <t>7.35pm - 9.55pm</t>
   </si>
   <si>
-    <t>7.05am - 9.05</t>
+    <t>RXJS: Getting Started with Reactive Programming Using RxJS</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started/table-of-contents</t>
+  </si>
+  <si>
+    <t>RxJS: Getting Started</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/rxjs-getting-started/table-of-contents</t>
+  </si>
+  <si>
+    <t>RxJS: The Big Picture</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/rxjs-big-picture/table-of-contents</t>
+  </si>
+  <si>
+    <t>RxJS: Asynchronous Programming in JavaScript (with Rx.js Observables)</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/asynchronous-javascript-rxjs-observables/table-of-contents</t>
+  </si>
+  <si>
+    <t>Learning RxJS: Operators by Example Playbook</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/rxjs-operators-by-example-playbook/table-of-contents</t>
+  </si>
+  <si>
+    <t>Workshop: Advanced RxJS Part 1</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/ng-conf-2021-session-37-part-1/table-of-contents</t>
+  </si>
+  <si>
+    <t>Redux: Redux Fundamentals</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/redux-fundamentals/table-of-contents</t>
+  </si>
+  <si>
+    <t>Cypress: End-to-end JavaScript Testing</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/cypress-end-to-end-javascript-testing/table-of-contents?aid=7010a000002BWq6AAG</t>
+  </si>
+  <si>
+    <t>https://www.learnrxjs.io/</t>
+  </si>
+  <si>
+    <t>RxJS Artifacts</t>
+  </si>
+  <si>
+    <t>RxJS Learning</t>
+  </si>
+  <si>
+    <t>RxJS Play Ground</t>
+  </si>
+  <si>
+    <t>https://rxjs-playground.github.io/#/</t>
+  </si>
+  <si>
+    <t>Fake REST APIS</t>
+  </si>
+  <si>
+    <t>npm install -g json-sever</t>
+  </si>
+  <si>
+    <t>Angular - Kud</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Angular 2</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=C8JcGqQdcPI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creating angular 6 project</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=CusfUmB6mkY&amp;list=PL6n9fhu94yhWNJaDgh0mfae_9xoQ4E_Zj
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Angular CLI</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=rJ9o4TyhSuo&amp;list=PL6n9fhu94yhWUcq5Pc16uf8YKXoZ87Vh_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Angular CRUD</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=JYPyy-hvjYc&amp;list=PL6n9fhu94yhXwcl3a6rIfAI7QmGYIkfK5</t>
+    </r>
+  </si>
+  <si>
+    <t>7.02am - 9.30am</t>
+  </si>
+  <si>
+    <t>7.05am - 9.05am</t>
   </si>
 </sst>
 </file>
@@ -8518,7 +8688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8911,17 +9081,77 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8933,6 +9163,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20933,7 +21169,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20947,14 +21183,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="164" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
@@ -21323,7 +21559,7 @@
         <v>44558</v>
       </c>
       <c r="D20" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="E20" s="5">
         <v>2</v>
@@ -21342,6 +21578,12 @@
       <c r="C21" s="119">
         <v>44559</v>
       </c>
+      <c r="D21" t="s">
+        <v>526</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="F21" s="5">
         <v>2</v>
       </c>
@@ -21545,13 +21787,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="143" t="s">
+      <c r="C35" s="165" t="s">
         <v>491</v>
       </c>
-      <c r="D35" s="143"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="126">
         <f>SUM(E3:E34)</f>
-        <v>29.11</v>
+        <v>31.39</v>
       </c>
       <c r="F35" s="126">
         <f>SUM(F3:F34)</f>
@@ -21559,13 +21801,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="142" t="s">
+      <c r="A37" s="164" t="s">
         <v>495</v>
       </c>
-      <c r="B37" s="142"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="120" t="s">
@@ -21652,6 +21894,76 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBA4A8B-062F-4280-B637-4D3543B7B63A}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="174" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{F954C7B2-1724-48F0-8203-4F4CA0123167}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC297CD3-0B1F-4BB7-8CC6-619A9FF0CD07}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -21672,14 +21984,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21721,7 +22033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FCCAF4-6438-4808-B747-7037D39019AA}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -21742,14 +22054,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21791,7 +22103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6538CA4A-D841-48B5-87FD-DBB4645DC6A3}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -21812,14 +22124,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21861,7 +22173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA157C68-6EB3-4779-91CE-4005608DD947}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -21882,14 +22194,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21931,7 +22243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27645D63-80B6-4CC9-9DF9-3EC673CAFE41}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -21952,14 +22264,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22001,7 +22313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B2914-37AB-487B-B6E7-416C38CF27C7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -22022,14 +22334,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22071,7 +22383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D65EB-A89E-42AB-9829-0D129960DFD3}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -22092,14 +22404,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22141,7 +22453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC9DC54-2F87-41CA-B048-C3AF3C22C7C1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -22162,14 +22474,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22211,7 +22523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B9012-BBC9-4C0D-A9EB-8BF65ACEAE9A}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -22233,12 +22545,12 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
@@ -22265,11 +22577,11 @@
       <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
       <c r="E3" s="41" t="s">
         <v>150</v>
       </c>
@@ -22540,7 +22852,307 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA3E4C7-F8D1-49C5-B894-4805FFE3E511}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="39" style="149" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="161" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="91"/>
+      <c r="B1" s="166" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="92"/>
+      <c r="B2" s="169" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="153">
+        <v>0</v>
+      </c>
+      <c r="B4" s="152" t="s">
+        <v>518</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153"/>
+      <c r="B5" s="156" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" s="142"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="153"/>
+      <c r="B6" s="156" t="s">
+        <v>520</v>
+      </c>
+      <c r="C6" s="160" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="153"/>
+      <c r="B7" s="163" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="157" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="131"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="158">
+        <v>1</v>
+      </c>
+      <c r="B8" s="157" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="147" t="s">
+        <v>506</v>
+      </c>
+      <c r="D8" s="159"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="72">
+        <v>2</v>
+      </c>
+      <c r="B9" s="146" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" s="143" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" s="142"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="90">
+        <v>3</v>
+      </c>
+      <c r="B10" s="146" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="142"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="60">
+        <v>4</v>
+      </c>
+      <c r="B11" s="146" t="s">
+        <v>507</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D11" s="144"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
+        <v>5</v>
+      </c>
+      <c r="B12" s="146" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D12" s="144"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="60">
+        <v>6</v>
+      </c>
+      <c r="B13" s="146" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" s="144"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="63">
+        <v>7</v>
+      </c>
+      <c r="B15" s="146" t="s">
+        <v>513</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="60">
+        <v>8</v>
+      </c>
+      <c r="B17" s="146" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+    </row>
+    <row r="19" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" s="63">
+        <v>9</v>
+      </c>
+      <c r="B19" s="146" t="s">
+        <v>524</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="150"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="151" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="162" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:F19" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{6A79D70D-D845-41FE-9E25-6167BAB1DB44}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{B2EC9216-B263-4AC1-9FF3-7E2BF3C2C376}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{A3E34687-C4A2-463E-8721-3669800BEC31}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{F63BF040-4FF6-4F43-8803-ABF16117B7B2}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{DDF9F7C4-6383-4E7D-A768-0B03C8ACBD51}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{DA7007F0-139E-4B22-95C5-2E9F09F21B6B}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{30BD288B-6305-419D-96DA-60CDB78CE1B8}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{F075282E-C1A7-4826-9ED3-93FC04F26541}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{6B668F0C-C7A4-45B3-A5A8-F7C9C4887312}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{F86683F4-2EDB-496D-ADB3-B8425911C417}"/>
+    <hyperlink ref="C6" r:id="rId11" location="/" xr:uid="{F6F4CB08-50FD-4ED3-87EA-A4F719F2A18C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0C1A6-B2EA-4EC5-8484-E684C8F3E18B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -22565,12 +23177,12 @@
       <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="178" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
       <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -22596,11 +23208,11 @@
       <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
       <c r="E3" s="50" t="s">
         <v>151</v>
       </c>
@@ -22677,11 +23289,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="177" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
       <c r="E12" s="50" t="s">
         <v>151</v>
       </c>
@@ -22810,7 +23422,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0624A-E488-4F43-A83F-9652CAB5AAD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C00811-F6B3-4257-85C9-1B55DCD46308}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3239CF-6342-4294-A04F-B9BB3AB32E10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCADFB6-2B39-4345-B261-07B732A46DA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DD9AF8-082C-4A8A-B3AE-AF46DCC68640}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -22836,23 +23508,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
@@ -22918,7 +23590,7 @@
         <v>499</v>
       </c>
       <c r="C6" s="77"/>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="171" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="66"/>
@@ -22934,7 +23606,7 @@
       <c r="C7" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="145"/>
+      <c r="D7" s="171"/>
       <c r="E7" s="95" t="s">
         <v>498</v>
       </c>
@@ -22952,7 +23624,7 @@
       <c r="C8" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="145"/>
+      <c r="D8" s="171"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
     </row>
@@ -22966,7 +23638,7 @@
       <c r="C9" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="145"/>
+      <c r="D9" s="171"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
     </row>
@@ -22980,7 +23652,7 @@
       <c r="C10" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="145"/>
+      <c r="D10" s="171"/>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
     </row>
@@ -23177,14 +23849,14 @@
       <c r="F22" s="76"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="170" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
@@ -23294,67 +23966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0624A-E488-4F43-A83F-9652CAB5AAD3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C00811-F6B3-4257-85C9-1B55DCD46308}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3239CF-6342-4294-A04F-B9BB3AB32E10}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCADFB6-2B39-4345-B261-07B732A46DA7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB7C02-07A8-4D5B-B7A9-996091B89DD9}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -23378,28 +23990,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -23692,16 +24304,16 @@
       <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="151" t="s">
+      <c r="A24" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -23809,7 +24421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4382FB-CCDB-4DE4-9683-3A8D07D3F404}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -23833,10 +24445,10 @@
       <c r="A1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="152"/>
+      <c r="C1" s="174"/>
       <c r="D1" s="96"/>
       <c r="E1" s="101"/>
     </row>
@@ -23958,7 +24570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA30601C-745F-4897-9A38-C5CE8E1BD080}">
   <dimension ref="A1:A689"/>
   <sheetViews>
@@ -26943,7 +27555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8600B75A-1ED1-437D-9B1E-4EB6353449BE}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -26961,14 +27573,14 @@
       <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27010,7 +27622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA77D0AC-A7B6-4319-A90C-CAC41021F832}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -27033,14 +27645,14 @@
       <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27082,7 +27694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09BD98-79D8-450C-972D-16EC9C4FC717}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -27103,13 +27715,13 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
       <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -27225,76 +27837,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{0D462134-28E1-458D-AA3F-67BF5D8350E8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBA4A8B-062F-4280-B637-4D3543B7B63A}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{F954C7B2-1724-48F0-8203-4F4CA0123167}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC3F2A7-C8CA-4D83-8CA3-33748E36B6B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3751DC6D-EE87-4A56-8B91-AFBA29611400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
@@ -41,7 +41,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Career PATH_Improved'!$A$3:$F$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH_Interactive'!$A$3:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH_Interactive'!$A$3:$F$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="531">
   <si>
     <t>SR#</t>
   </si>
@@ -8241,6 +8241,15 @@
   </si>
   <si>
     <t>7.05am - 9.05am</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/unit-testing-angular/table-of-contents</t>
+  </si>
+  <si>
+    <t>Unit Testing in Angular</t>
+  </si>
+  <si>
+    <t>7.30am - 9.53am</t>
   </si>
 </sst>
 </file>
@@ -8688,7 +8697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9147,6 +9156,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -21168,8 +21186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973E51C-FF21-4EFD-BEE8-1E89830C0A93}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21183,14 +21201,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
@@ -21598,6 +21616,12 @@
       <c r="C22" s="119">
         <v>44560</v>
       </c>
+      <c r="D22" t="s">
+        <v>530</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2.23</v>
+      </c>
       <c r="F22" s="5">
         <v>2</v>
       </c>
@@ -21787,13 +21811,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="165" t="s">
+      <c r="C35" s="168" t="s">
         <v>491</v>
       </c>
-      <c r="D35" s="165"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="126">
         <f>SUM(E3:E34)</f>
-        <v>31.39</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="F35" s="126">
         <f>SUM(F3:F34)</f>
@@ -21801,13 +21825,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="164" t="s">
+      <c r="A37" s="167" t="s">
         <v>495</v>
       </c>
-      <c r="B37" s="164"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="120" t="s">
@@ -21914,14 +21938,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21984,14 +22008,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22054,14 +22078,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22124,14 +22148,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22194,14 +22218,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22264,14 +22288,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22334,14 +22358,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22404,14 +22428,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22474,14 +22498,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22545,12 +22569,12 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
@@ -22577,11 +22601,11 @@
       <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="41" t="s">
         <v>150</v>
       </c>
@@ -22857,13 +22881,13 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22878,23 +22902,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
@@ -22916,37 +22940,37 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153">
-        <v>0</v>
-      </c>
-      <c r="B4" s="152" t="s">
-        <v>518</v>
-      </c>
-      <c r="C4" s="22"/>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="164"/>
+      <c r="B4" s="166" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="165" t="s">
+        <v>528</v>
+      </c>
       <c r="D4" s="154"/>
       <c r="E4" s="154"/>
       <c r="F4" s="154"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="156" t="s">
-        <v>519</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>517</v>
-      </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
+      <c r="A5" s="153">
+        <v>0</v>
+      </c>
+      <c r="B5" s="152" t="s">
+        <v>518</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="153"/>
       <c r="B6" s="156" t="s">
-        <v>520</v>
-      </c>
-      <c r="C6" s="160" t="s">
-        <v>521</v>
+        <v>519</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>517</v>
       </c>
       <c r="D6" s="142"/>
       <c r="E6" s="131"/>
@@ -22954,201 +22978,214 @@
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="153"/>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="156" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="160" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="142"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="153"/>
+      <c r="B8" s="163" t="s">
         <v>522</v>
       </c>
-      <c r="C7" s="157" t="s">
+      <c r="C8" s="157" t="s">
         <v>523</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="131"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="158">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="131"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="158">
         <v>1</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B9" s="157" t="s">
         <v>505</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C9" s="147" t="s">
         <v>506</v>
       </c>
-      <c r="D8" s="159"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
+      <c r="D9" s="159"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
         <v>2</v>
       </c>
-      <c r="B9" s="146" t="s">
+      <c r="B10" s="146" t="s">
         <v>503</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C10" s="143" t="s">
         <v>504</v>
-      </c>
-      <c r="D9" s="142"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="90">
-        <v>3</v>
-      </c>
-      <c r="B10" s="146" t="s">
-        <v>501</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>502</v>
       </c>
       <c r="D10" s="142"/>
       <c r="E10" s="131"/>
       <c r="F10" s="131"/>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
-        <v>4</v>
+      <c r="A11" s="90">
+        <v>3</v>
       </c>
       <c r="B11" s="146" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>508</v>
-      </c>
-      <c r="D11" s="144"/>
+        <v>502</v>
+      </c>
+      <c r="D11" s="142"/>
       <c r="E11" s="131"/>
       <c r="F11" s="131"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="146" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D12" s="144"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="146" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D13" s="144"/>
       <c r="E13" s="145"/>
       <c r="F13" s="145"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="80"/>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
+        <v>6</v>
+      </c>
+      <c r="B14" s="146" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>512</v>
+      </c>
       <c r="D14" s="144"/>
       <c r="E14" s="145"/>
       <c r="F14" s="145"/>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="63">
-        <v>7</v>
-      </c>
-      <c r="B15" s="146" t="s">
-        <v>513</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>514</v>
-      </c>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="144"/>
       <c r="E15" s="145"/>
       <c r="F15" s="145"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="63">
+        <v>7</v>
+      </c>
+      <c r="B16" s="146" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>514</v>
+      </c>
       <c r="D16" s="144"/>
       <c r="E16" s="145"/>
       <c r="F16" s="145"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
-        <v>8</v>
-      </c>
-      <c r="B17" s="146" t="s">
-        <v>515</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>516</v>
-      </c>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
       <c r="D17" s="144"/>
       <c r="E17" s="145"/>
       <c r="F17" s="145"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="81"/>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
+        <v>8</v>
+      </c>
+      <c r="B18" s="146" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>516</v>
+      </c>
       <c r="D18" s="144"/>
       <c r="E18" s="145"/>
       <c r="F18" s="145"/>
     </row>
-    <row r="19" spans="1:6" ht="210" x14ac:dyDescent="0.25">
-      <c r="A19" s="63">
-        <v>9</v>
-      </c>
-      <c r="B19" s="146" t="s">
-        <v>524</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>525</v>
-      </c>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="144"/>
       <c r="E19" s="145"/>
       <c r="F19" s="145"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="150"/>
-      <c r="D20" s="1"/>
+    <row r="20" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" s="63">
+        <v>9</v>
+      </c>
+      <c r="B20" s="146" t="s">
+        <v>524</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="150"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="151" t="s">
+      <c r="A22" s="57"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C23" s="162" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F19" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
+  <autoFilter ref="A3:F20" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{6A79D70D-D845-41FE-9E25-6167BAB1DB44}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{B2EC9216-B263-4AC1-9FF3-7E2BF3C2C376}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{A3E34687-C4A2-463E-8721-3669800BEC31}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{F63BF040-4FF6-4F43-8803-ABF16117B7B2}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{DDF9F7C4-6383-4E7D-A768-0B03C8ACBD51}"/>
-    <hyperlink ref="C12" r:id="rId6" xr:uid="{DA7007F0-139E-4B22-95C5-2E9F09F21B6B}"/>
-    <hyperlink ref="C13" r:id="rId7" xr:uid="{30BD288B-6305-419D-96DA-60CDB78CE1B8}"/>
-    <hyperlink ref="C15" r:id="rId8" xr:uid="{F075282E-C1A7-4826-9ED3-93FC04F26541}"/>
-    <hyperlink ref="C17" r:id="rId9" xr:uid="{6B668F0C-C7A4-45B3-A5A8-F7C9C4887312}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{F86683F4-2EDB-496D-ADB3-B8425911C417}"/>
-    <hyperlink ref="C6" r:id="rId11" location="/" xr:uid="{F6F4CB08-50FD-4ED3-87EA-A4F719F2A18C}"/>
+    <hyperlink ref="C23" r:id="rId1" xr:uid="{6A79D70D-D845-41FE-9E25-6167BAB1DB44}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{B2EC9216-B263-4AC1-9FF3-7E2BF3C2C376}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{A3E34687-C4A2-463E-8721-3669800BEC31}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{F63BF040-4FF6-4F43-8803-ABF16117B7B2}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{DDF9F7C4-6383-4E7D-A768-0B03C8ACBD51}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{DA7007F0-139E-4B22-95C5-2E9F09F21B6B}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{30BD288B-6305-419D-96DA-60CDB78CE1B8}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{F075282E-C1A7-4826-9ED3-93FC04F26541}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{6B668F0C-C7A4-45B3-A5A8-F7C9C4887312}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{F86683F4-2EDB-496D-ADB3-B8425911C417}"/>
+    <hyperlink ref="C7" r:id="rId11" location="/" xr:uid="{F6F4CB08-50FD-4ED3-87EA-A4F719F2A18C}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{25A06C2E-7FAB-426F-A49F-8BE0057C63EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -23177,12 +23214,12 @@
       <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
       <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -23208,11 +23245,11 @@
       <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
       <c r="E3" s="50" t="s">
         <v>151</v>
       </c>
@@ -23289,11 +23326,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="180" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="50" t="s">
         <v>151</v>
       </c>
@@ -23508,23 +23545,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
@@ -23590,7 +23627,7 @@
         <v>499</v>
       </c>
       <c r="C6" s="77"/>
-      <c r="D6" s="171" t="s">
+      <c r="D6" s="174" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="66"/>
@@ -23606,7 +23643,7 @@
       <c r="C7" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="171"/>
+      <c r="D7" s="174"/>
       <c r="E7" s="95" t="s">
         <v>498</v>
       </c>
@@ -23624,7 +23661,7 @@
       <c r="C8" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="171"/>
+      <c r="D8" s="174"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
     </row>
@@ -23638,7 +23675,7 @@
       <c r="C9" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="171"/>
+      <c r="D9" s="174"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
     </row>
@@ -23652,7 +23689,7 @@
       <c r="C10" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="171"/>
+      <c r="D10" s="174"/>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
     </row>
@@ -23849,14 +23886,14 @@
       <c r="F22" s="76"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="170" t="s">
+      <c r="A24" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
@@ -23990,28 +24027,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -24304,16 +24341,16 @@
       <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="173"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -24445,10 +24482,10 @@
       <c r="A1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="174"/>
+      <c r="C1" s="177"/>
       <c r="D1" s="96"/>
       <c r="E1" s="101"/>
     </row>
@@ -27573,14 +27610,14 @@
       <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27645,14 +27682,14 @@
       <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27715,13 +27752,13 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
       <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -27853,6 +27890,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024D76020AE708242B68336FA618CBCDF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d53f460e102142885dbc8938524af06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df3f84f5-0dce-435a-abac-67420900ba59" xmlns:ns4="c8965576-7528-46e3-a68d-d4bc5141fdaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51dd3132ab51039a0b8a02bab29c14ac" ns3:_="" ns4:_="">
     <xsd:import namespace="df3f84f5-0dce-435a-abac-67420900ba59"/>
@@ -28075,12 +28118,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
   <ds:schemaRefs>
@@ -28090,6 +28127,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
+    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC42E61D-1BC2-43F5-95E9-ABDA8B3BC8C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28106,21 +28160,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
-    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,38 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BF7951-1BDC-4D5D-AE48-77A73BE26164}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3751DC6D-EE87-4A56-8B91-AFBA29611400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Track_Hours_For_Cypress" sheetId="37" r:id="rId1"/>
-    <sheet name="Career PATH_Improved" sheetId="35" r:id="rId2"/>
-    <sheet name="Career PATH" sheetId="1" r:id="rId3"/>
-    <sheet name="Developer to Architect" sheetId="34" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="36" r:id="rId5"/>
-    <sheet name="Scrum Master" sheetId="33" r:id="rId6"/>
-    <sheet name="JAVA" sheetId="8" r:id="rId7"/>
-    <sheet name="NODE" sheetId="7" r:id="rId8"/>
-    <sheet name="Python" sheetId="14" r:id="rId9"/>
-    <sheet name="Oracle_Apex" sheetId="15" r:id="rId10"/>
-    <sheet name="Oracle" sheetId="11" r:id="rId11"/>
-    <sheet name="mySQL" sheetId="12" r:id="rId12"/>
-    <sheet name="JavaScript" sheetId="5" r:id="rId13"/>
-    <sheet name="GIT" sheetId="10" r:id="rId14"/>
-    <sheet name="Understanding_DevOps" sheetId="16" r:id="rId15"/>
-    <sheet name="React" sheetId="13" r:id="rId16"/>
-    <sheet name="CSS" sheetId="4" r:id="rId17"/>
-    <sheet name="HTML" sheetId="2" r:id="rId18"/>
-    <sheet name="Angular" sheetId="9" r:id="rId19"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId20"/>
-    <sheet name="API_Promise" sheetId="18" r:id="rId21"/>
-    <sheet name="API_Promise2" sheetId="19" r:id="rId22"/>
-    <sheet name="API+Observables" sheetId="20" r:id="rId23"/>
+    <sheet name="Career PATH_Interactive" sheetId="38" r:id="rId2"/>
+    <sheet name="Career PATH_Improved" sheetId="35" r:id="rId3"/>
+    <sheet name="Career PATH" sheetId="1" r:id="rId4"/>
+    <sheet name="Developer to Architect" sheetId="34" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="36" r:id="rId6"/>
+    <sheet name="Scrum Master" sheetId="33" r:id="rId7"/>
+    <sheet name="JAVA" sheetId="8" r:id="rId8"/>
+    <sheet name="NODE" sheetId="7" r:id="rId9"/>
+    <sheet name="Python" sheetId="14" r:id="rId10"/>
+    <sheet name="Oracle_Apex" sheetId="15" r:id="rId11"/>
+    <sheet name="Oracle" sheetId="11" r:id="rId12"/>
+    <sheet name="mySQL" sheetId="12" r:id="rId13"/>
+    <sheet name="JavaScript" sheetId="5" r:id="rId14"/>
+    <sheet name="GIT" sheetId="10" r:id="rId15"/>
+    <sheet name="Understanding_DevOps" sheetId="16" r:id="rId16"/>
+    <sheet name="React" sheetId="13" r:id="rId17"/>
+    <sheet name="CSS" sheetId="4" r:id="rId18"/>
+    <sheet name="HTML" sheetId="2" r:id="rId19"/>
+    <sheet name="Angular" sheetId="9" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId21"/>
+    <sheet name="API_Promise" sheetId="18" r:id="rId22"/>
+    <sheet name="API_Promise2" sheetId="19" r:id="rId23"/>
+    <sheet name="API+Observables" sheetId="20" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH_Improved'!$A$3:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Career PATH'!$A$3:$H$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Career PATH_Improved'!$A$3:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Career PATH_Interactive'!$A$3:$F$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="531">
   <si>
     <t>SR#</t>
   </si>
@@ -8070,7 +8072,184 @@
     <t>7.35pm - 9.55pm</t>
   </si>
   <si>
-    <t>7.05am - 9.05</t>
+    <t>RXJS: Getting Started with Reactive Programming Using RxJS</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/reactive-programming-rxjs-getting-started/table-of-contents</t>
+  </si>
+  <si>
+    <t>RxJS: Getting Started</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/rxjs-getting-started/table-of-contents</t>
+  </si>
+  <si>
+    <t>RxJS: The Big Picture</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/rxjs-big-picture/table-of-contents</t>
+  </si>
+  <si>
+    <t>RxJS: Asynchronous Programming in JavaScript (with Rx.js Observables)</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/asynchronous-javascript-rxjs-observables/table-of-contents</t>
+  </si>
+  <si>
+    <t>Learning RxJS: Operators by Example Playbook</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/rxjs-operators-by-example-playbook/table-of-contents</t>
+  </si>
+  <si>
+    <t>Workshop: Advanced RxJS Part 1</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/ng-conf-2021-session-37-part-1/table-of-contents</t>
+  </si>
+  <si>
+    <t>Redux: Redux Fundamentals</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/redux-fundamentals/table-of-contents</t>
+  </si>
+  <si>
+    <t>Cypress: End-to-end JavaScript Testing</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/cypress-end-to-end-javascript-testing/table-of-contents?aid=7010a000002BWq6AAG</t>
+  </si>
+  <si>
+    <t>https://www.learnrxjs.io/</t>
+  </si>
+  <si>
+    <t>RxJS Artifacts</t>
+  </si>
+  <si>
+    <t>RxJS Learning</t>
+  </si>
+  <si>
+    <t>RxJS Play Ground</t>
+  </si>
+  <si>
+    <t>https://rxjs-playground.github.io/#/</t>
+  </si>
+  <si>
+    <t>Fake REST APIS</t>
+  </si>
+  <si>
+    <t>npm install -g json-sever</t>
+  </si>
+  <si>
+    <t>Angular - Kud</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Angular 2</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=C8JcGqQdcPI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creating angular 6 project</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=CusfUmB6mkY&amp;list=PL6n9fhu94yhWNJaDgh0mfae_9xoQ4E_Zj
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Angular CLI</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=rJ9o4TyhSuo&amp;list=PL6n9fhu94yhWUcq5Pc16uf8YKXoZ87Vh_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Angular CRUD</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=JYPyy-hvjYc&amp;list=PL6n9fhu94yhXwcl3a6rIfAI7QmGYIkfK5</t>
+    </r>
+  </si>
+  <si>
+    <t>7.02am - 9.30am</t>
+  </si>
+  <si>
+    <t>7.05am - 9.05am</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/library/courses/unit-testing-angular/table-of-contents</t>
+  </si>
+  <si>
+    <t>Unit Testing in Angular</t>
+  </si>
+  <si>
+    <t>7.30am - 9.53am</t>
   </si>
 </sst>
 </file>
@@ -8518,7 +8697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8911,17 +9090,86 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8933,6 +9181,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20932,8 +21186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973E51C-FF21-4EFD-BEE8-1E89830C0A93}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20947,14 +21201,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="167" t="s">
         <v>494</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
@@ -21323,7 +21577,7 @@
         <v>44558</v>
       </c>
       <c r="D20" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="E20" s="5">
         <v>2</v>
@@ -21342,6 +21596,12 @@
       <c r="C21" s="119">
         <v>44559</v>
       </c>
+      <c r="D21" t="s">
+        <v>526</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="F21" s="5">
         <v>2</v>
       </c>
@@ -21356,6 +21616,12 @@
       <c r="C22" s="119">
         <v>44560</v>
       </c>
+      <c r="D22" t="s">
+        <v>530</v>
+      </c>
+      <c r="E22" s="5">
+        <v>2.23</v>
+      </c>
       <c r="F22" s="5">
         <v>2</v>
       </c>
@@ -21545,13 +21811,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="143" t="s">
+      <c r="C35" s="168" t="s">
         <v>491</v>
       </c>
-      <c r="D35" s="143"/>
+      <c r="D35" s="168"/>
       <c r="E35" s="126">
         <f>SUM(E3:E34)</f>
-        <v>29.11</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="F35" s="126">
         <f>SUM(F3:F34)</f>
@@ -21559,13 +21825,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="142" t="s">
+      <c r="A37" s="167" t="s">
         <v>495</v>
       </c>
-      <c r="B37" s="142"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="120" t="s">
@@ -21652,6 +21918,76 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBA4A8B-062F-4280-B637-4D3543B7B63A}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="177" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{F954C7B2-1724-48F0-8203-4F4CA0123167}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC297CD3-0B1F-4BB7-8CC6-619A9FF0CD07}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -21672,14 +22008,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21721,7 +22057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FCCAF4-6438-4808-B747-7037D39019AA}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -21742,14 +22078,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21791,7 +22127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6538CA4A-D841-48B5-87FD-DBB4645DC6A3}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -21812,14 +22148,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21861,7 +22197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA157C68-6EB3-4779-91CE-4005608DD947}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -21882,14 +22218,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -21931,7 +22267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27645D63-80B6-4CC9-9DF9-3EC673CAFE41}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -21952,14 +22288,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22001,7 +22337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9B2914-37AB-487B-B6E7-416C38CF27C7}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -22022,14 +22358,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22071,7 +22407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D65EB-A89E-42AB-9829-0D129960DFD3}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -22092,14 +22428,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22141,7 +22477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC9DC54-2F87-41CA-B048-C3AF3C22C7C1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -22162,14 +22498,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -22211,7 +22547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371B9012-BBC9-4C0D-A9EB-8BF65ACEAE9A}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -22233,12 +22569,12 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
@@ -22265,11 +22601,11 @@
       <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="179" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="41" t="s">
         <v>150</v>
       </c>
@@ -22540,7 +22876,320 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA3E4C7-F8D1-49C5-B894-4805FFE3E511}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="39" style="149" customWidth="1"/>
+    <col min="3" max="3" width="67.140625" style="161" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="91"/>
+      <c r="B1" s="169" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="171"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="92"/>
+      <c r="B2" s="172" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="164"/>
+      <c r="B4" s="166" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="165" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153">
+        <v>0</v>
+      </c>
+      <c r="B5" s="152" t="s">
+        <v>518</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="153"/>
+      <c r="B6" s="156" t="s">
+        <v>519</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>517</v>
+      </c>
+      <c r="D6" s="142"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="153"/>
+      <c r="B7" s="156" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="160" t="s">
+        <v>521</v>
+      </c>
+      <c r="D7" s="142"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="153"/>
+      <c r="B8" s="163" t="s">
+        <v>522</v>
+      </c>
+      <c r="C8" s="157" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="131"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="158">
+        <v>1</v>
+      </c>
+      <c r="B9" s="157" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="147" t="s">
+        <v>506</v>
+      </c>
+      <c r="D9" s="159"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
+        <v>2</v>
+      </c>
+      <c r="B10" s="146" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="143" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="142"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="90">
+        <v>3</v>
+      </c>
+      <c r="B11" s="146" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" s="142"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
+        <v>4</v>
+      </c>
+      <c r="B12" s="146" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="D12" s="144"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="60">
+        <v>5</v>
+      </c>
+      <c r="B13" s="146" t="s">
+        <v>509</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="D13" s="144"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="60">
+        <v>6</v>
+      </c>
+      <c r="B14" s="146" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14" s="144"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="63">
+        <v>7</v>
+      </c>
+      <c r="B16" s="146" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
+        <v>8</v>
+      </c>
+      <c r="B18" s="146" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+    </row>
+    <row r="20" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" s="63">
+        <v>9</v>
+      </c>
+      <c r="B20" s="146" t="s">
+        <v>524</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>525</v>
+      </c>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="150"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="151" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="162" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:F20" xr:uid="{D1AE8F92-0427-4F12-8484-D03DDDD5BCBC}"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C23" r:id="rId1" xr:uid="{6A79D70D-D845-41FE-9E25-6167BAB1DB44}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{B2EC9216-B263-4AC1-9FF3-7E2BF3C2C376}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{A3E34687-C4A2-463E-8721-3669800BEC31}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{F63BF040-4FF6-4F43-8803-ABF16117B7B2}"/>
+    <hyperlink ref="C12" r:id="rId5" xr:uid="{DDF9F7C4-6383-4E7D-A768-0B03C8ACBD51}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{DA7007F0-139E-4B22-95C5-2E9F09F21B6B}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{30BD288B-6305-419D-96DA-60CDB78CE1B8}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{F075282E-C1A7-4826-9ED3-93FC04F26541}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{6B668F0C-C7A4-45B3-A5A8-F7C9C4887312}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{F86683F4-2EDB-496D-ADB3-B8425911C417}"/>
+    <hyperlink ref="C7" r:id="rId11" location="/" xr:uid="{F6F4CB08-50FD-4ED3-87EA-A4F719F2A18C}"/>
+    <hyperlink ref="C4" r:id="rId12" xr:uid="{25A06C2E-7FAB-426F-A49F-8BE0057C63EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A0C1A6-B2EA-4EC5-8484-E684C8F3E18B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -22565,12 +23214,12 @@
       <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
       <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -22596,11 +23245,11 @@
       <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
       <c r="E3" s="50" t="s">
         <v>151</v>
       </c>
@@ -22677,11 +23326,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="180" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="50" t="s">
         <v>151</v>
       </c>
@@ -22810,7 +23459,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0624A-E488-4F43-A83F-9652CAB5AAD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C00811-F6B3-4257-85C9-1B55DCD46308}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3239CF-6342-4294-A04F-B9BB3AB32E10}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCADFB6-2B39-4345-B261-07B732A46DA7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DD9AF8-082C-4A8A-B3AE-AF46DCC68640}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -22836,23 +23545,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="91"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="148"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="171"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
@@ -22918,7 +23627,7 @@
         <v>499</v>
       </c>
       <c r="C6" s="77"/>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="174" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="66"/>
@@ -22934,7 +23643,7 @@
       <c r="C7" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="145"/>
+      <c r="D7" s="174"/>
       <c r="E7" s="95" t="s">
         <v>498</v>
       </c>
@@ -22952,7 +23661,7 @@
       <c r="C8" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="145"/>
+      <c r="D8" s="174"/>
       <c r="E8" s="66"/>
       <c r="F8" s="66"/>
     </row>
@@ -22966,7 +23675,7 @@
       <c r="C9" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="145"/>
+      <c r="D9" s="174"/>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
     </row>
@@ -22980,7 +23689,7 @@
       <c r="C10" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="145"/>
+      <c r="D10" s="174"/>
       <c r="E10" s="66"/>
       <c r="F10" s="66"/>
     </row>
@@ -23177,14 +23886,14 @@
       <c r="F22" s="76"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="67">
@@ -23294,67 +24003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E0624A-E488-4F43-A83F-9652CAB5AAD3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50C00811-F6B3-4257-85C9-1B55DCD46308}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3239CF-6342-4294-A04F-B9BB3AB32E10}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCADFB6-2B39-4345-B261-07B732A46DA7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DB7C02-07A8-4D5B-B7A9-996091B89DD9}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -23378,28 +24027,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -23692,16 +24341,16 @@
       <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="151" t="s">
+      <c r="A24" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -23809,7 +24458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4382FB-CCDB-4DE4-9683-3A8D07D3F404}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -23833,10 +24482,10 @@
       <c r="A1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="152"/>
+      <c r="C1" s="177"/>
       <c r="D1" s="96"/>
       <c r="E1" s="101"/>
     </row>
@@ -23958,7 +24607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA30601C-745F-4897-9A38-C5CE8E1BD080}">
   <dimension ref="A1:A689"/>
   <sheetViews>
@@ -26943,7 +27592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8600B75A-1ED1-437D-9B1E-4EB6353449BE}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -26961,14 +27610,14 @@
       <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27010,7 +27659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA77D0AC-A7B6-4319-A90C-CAC41021F832}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -27033,14 +27682,14 @@
       <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -27082,7 +27731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F09BD98-79D8-450C-972D-16EC9C4FC717}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -27103,13 +27752,13 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
       <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -27225,76 +27874,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{0D462134-28E1-458D-AA3F-67BF5D8350E8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBA4A8B-062F-4280-B637-4D3543B7B63A}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Career PATH'!A1" display="&lt;&lt; Back" xr:uid="{F954C7B2-1724-48F0-8203-4F4CA0123167}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27311,6 +27890,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010024D76020AE708242B68336FA618CBCDF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d53f460e102142885dbc8938524af06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df3f84f5-0dce-435a-abac-67420900ba59" xmlns:ns4="c8965576-7528-46e3-a68d-d4bc5141fdaa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="51dd3132ab51039a0b8a02bab29c14ac" ns3:_="" ns4:_="">
     <xsd:import namespace="df3f84f5-0dce-435a-abac-67420900ba59"/>
@@ -27533,12 +28118,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC37F108-450B-470C-B7B9-209E1FAF9670}">
   <ds:schemaRefs>
@@ -27548,6 +28127,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
+    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC42E61D-1BC2-43F5-95E9-ABDA8B3BC8C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27564,21 +28160,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{236AB03D-89C6-4FEB-AC3B-BF68DD4F8BD0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8965576-7528-46e3-a68d-d4bc5141fdaa"/>
-    <ds:schemaRef ds:uri="df3f84f5-0dce-435a-abac-67420900ba59"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Action_Plans_for_learning.xlsx
+++ b/Action_Plans_for_learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Jimish\personal\Trainings\0_Training_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580C4621-0E40-4328-8C64-624566587DC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699736B-46B0-450D-8798-94CDC3116373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" activeTab="1" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="933" xr2:uid="{D2D167CA-DC28-4176-B005-81E9223B1EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Track_Hours_For_Cypress" sheetId="37" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="522">
   <si>
     <t>SR#</t>
   </si>
@@ -8210,6 +8210,9 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>8.31pm - 11.05pm</t>
   </si>
 </sst>
 </file>
@@ -9119,6 +9122,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9163,9 +9169,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21143,8 +21146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973E51C-FF21-4EFD-BEE8-1E89830C0A93}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21158,14 +21161,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="166" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
@@ -21649,6 +21652,12 @@
       <c r="C26" s="117">
         <v>44564</v>
       </c>
+      <c r="D26" t="s">
+        <v>521</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2.74</v>
+      </c>
       <c r="F26" s="5">
         <v>2</v>
       </c>
@@ -21774,13 +21783,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="166" t="s">
+      <c r="C35" s="167" t="s">
         <v>480</v>
       </c>
-      <c r="D35" s="166"/>
+      <c r="D35" s="167"/>
       <c r="E35" s="124">
         <f>SUM(E3:E34)</f>
-        <v>35.86</v>
+        <v>38.6</v>
       </c>
       <c r="F35" s="124">
         <f>SUM(F3:F34)</f>
@@ -21788,13 +21797,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="165" t="s">
+      <c r="A37" s="166" t="s">
         <v>483</v>
       </c>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="165"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="118" t="s">
@@ -21905,12 +21914,12 @@
       <c r="A1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
       <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -21936,11 +21945,11 @@
       <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="179" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="48" t="s">
         <v>141</v>
       </c>
@@ -22017,11 +22026,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="179" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="178"/>
-      <c r="D12" s="178"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="48" t="s">
         <v>141</v>
       </c>
@@ -22217,11 +22226,11 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22236,23 +22245,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="89"/>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="170"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90"/>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="91" t="s">
@@ -22338,7 +22347,7 @@
       <c r="A9" s="156">
         <v>1</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="165" t="s">
         <v>520</v>
       </c>
       <c r="C9" s="145" t="s">
@@ -22549,23 +22558,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="89"/>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="170"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90"/>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="91" t="s">
@@ -22631,7 +22640,7 @@
         <v>487</v>
       </c>
       <c r="C6" s="75"/>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="173" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="64"/>
@@ -22647,7 +22656,7 @@
       <c r="C7" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="172"/>
+      <c r="D7" s="173"/>
       <c r="E7" s="93" t="s">
         <v>486</v>
       </c>
@@ -22665,7 +22674,7 @@
       <c r="C8" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="172"/>
+      <c r="D8" s="173"/>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
     </row>
@@ -22679,7 +22688,7 @@
       <c r="C9" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="172"/>
+      <c r="D9" s="173"/>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
     </row>
@@ -22693,7 +22702,7 @@
       <c r="C10" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="172"/>
+      <c r="D10" s="173"/>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
     </row>
@@ -22890,14 +22899,14 @@
       <c r="F22" s="74"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="171" t="s">
+      <c r="A24" s="172" t="s">
         <v>208</v>
       </c>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="65">
@@ -23031,28 +23040,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -23345,16 +23354,16 @@
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="174" t="s">
+      <c r="A24" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
@@ -23486,10 +23495,10 @@
       <c r="A1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="176" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="175"/>
+      <c r="C1" s="176"/>
       <c r="D1" s="94"/>
       <c r="E1" s="99"/>
     </row>
@@ -26619,13 +26628,13 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:8" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -26768,14 +26777,14 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -26839,12 +26848,12 @@
       <c r="A1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
@@ -26871,11 +26880,11 @@
       <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="178" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
       <c r="E3" s="39" t="s">
         <v>140</v>
       </c>
